--- a/src/Documents/Day_log_work.xlsx
+++ b/src/Documents/Day_log_work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Practice\src\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D33F5CD-697D-416F-BE4D-4F5166D24CFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE1D692-4DA4-4321-BEB6-56CC1980EBA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="773">
   <si>
     <t>Ticket_id</t>
   </si>
@@ -1747,12 +1747,6 @@
     <t xml:space="preserve">AlarmQueryFetcher test cases added </t>
   </si>
   <si>
-    <t>Added unit test case for Alarm Sync + Code commited to repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refactoring code + rulehitdetector + alarm sync code commited </t>
-  </si>
-  <si>
     <t>insert cases</t>
   </si>
   <si>
@@ -1804,9 +1798,6 @@
     <t xml:space="preserve">Adding feature for the alarm raising for IndexNotFoundException, ResourceException, NoNodeAvailableException, ConnectionException </t>
   </si>
   <si>
-    <t xml:space="preserve">Devloper meeting </t>
-  </si>
-  <si>
     <t>2.30-3.10</t>
   </si>
   <si>
@@ -1837,9 +1828,6 @@
     <t>Incomplete</t>
   </si>
   <si>
-    <t>Makara Sankranthi</t>
-  </si>
-  <si>
     <t>Good Friday</t>
   </si>
   <si>
@@ -1873,24 +1861,12 @@
     <t>Exploring for the appropriate API to calculate disk usage</t>
   </si>
   <si>
-    <t>Timesheet Filled</t>
-  </si>
-  <si>
-    <t>Timesheet Hrs</t>
-  </si>
-  <si>
-    <t>weekly syncup</t>
-  </si>
-  <si>
     <t>1.30-2.00</t>
   </si>
   <si>
     <t>finalise code and test</t>
   </si>
   <si>
-    <t>weekly syncup + GC session</t>
-  </si>
-  <si>
     <t>1.30-2.00 2.00-3.00</t>
   </si>
   <si>
@@ -1918,9 +1894,6 @@
     <t>Test case adding</t>
   </si>
   <si>
-    <t>completed partiallly</t>
-  </si>
-  <si>
     <t>3835 4273</t>
   </si>
   <si>
@@ -1945,37 +1918,449 @@
     <t>Unit test case update because of new changes is always unknown good to have 20% of overall given</t>
   </si>
   <si>
-    <t>added testcases and testing code + 4273 fix and commited the code to repo</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>sync pod switch over</t>
-  </si>
-  <si>
-    <t>analyised code changes required from sender and receiver perspective and found the problem with receiver part as spring is hardcoded the keyclockconfig resolver and tried to explore any other options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sync pod switch over Test for gracefull node shutdown using stop script and k8s drain command </t>
-  </si>
-  <si>
-    <t>Sync is working properly for the graceful shutdown and for hard shoutdown not working/not verified</t>
-  </si>
-  <si>
     <t>birthday and farewell</t>
   </si>
   <si>
     <t>3.30-5.00</t>
   </si>
   <si>
-    <t>Efffective Java</t>
-  </si>
-  <si>
     <t xml:space="preserve">Access modifiers </t>
   </si>
   <si>
     <t>give as restricted access level as possible</t>
+  </si>
+  <si>
+    <t>Delete operation understanding</t>
+  </si>
+  <si>
+    <t>inprogress</t>
+  </si>
+  <si>
+    <t>6+2</t>
+  </si>
+  <si>
+    <t>4282&amp;4283</t>
+  </si>
+  <si>
+    <t>Analyse for Active alarm present in other site + discussion on  changes for Max age when disable is clicked</t>
+  </si>
+  <si>
+    <t>Active Alarm is not getting cleared in the other site + Exception handler fordiskfull check + sync disable max age changes testing</t>
+  </si>
+  <si>
+    <t>4282&amp;4275</t>
+  </si>
+  <si>
+    <t>4+4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active Alarm is not getting cleared in the other site implementation and testing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing is failed because of version conflicts and order of bulk request exec </t>
+  </si>
+  <si>
+    <t>testing is failed because of version conflicts and order of bulk request exec problems are fixed and Testing and add unit test case</t>
+  </si>
+  <si>
+    <t>1.30-2.00 and 2.30.3.30</t>
+  </si>
+  <si>
+    <t>weekly sync and developer meeting</t>
+  </si>
+  <si>
+    <t>Adding unit test case for the active alarm delete in other site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">found one bug from ES version handle is removed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SG-4282, SG-4273,SG-4275, SG-4283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deletion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sync pod switch over hard shutdown </t>
+  </si>
+  <si>
+    <t>Analysed the solution and implemented using PassiveExpiringMap from apache commons lib.</t>
+  </si>
+  <si>
+    <t>Self expiring keys in maps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PassiveExpiringMap(apache),MapMaker(guava),LinkedHashMap(removeoldestentry override) </t>
+  </si>
+  <si>
+    <t>Added unit test case for Alarm Sync + Code committed to repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refactoring code + rulehitdetector + alarm sync code committed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developer meeting </t>
+  </si>
+  <si>
+    <t>Makara Sankranti</t>
+  </si>
+  <si>
+    <t>weekly SyncUP + GC session</t>
+  </si>
+  <si>
+    <t>weekly SyncUP</t>
+  </si>
+  <si>
+    <t>completed partially</t>
+  </si>
+  <si>
+    <t>added testcases and testing code + 4273 fix and committed the code to repo</t>
+  </si>
+  <si>
+    <t>analysed code changes required from sender and receiver perspective and found the problem with receiver part as spring is hardcoded the keyclockconfig resolver and tried to explore any other options</t>
+  </si>
+  <si>
+    <t>Effective Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sync pod switch over Test for graceful node shutdown using stop script and k8s drain command </t>
+  </si>
+  <si>
+    <t>Sync is working properly for the graceful shutdown and for hard shutdown not working/not verified</t>
+  </si>
+  <si>
+    <t>added unit test case for active alarm clearing and tested 4 bug fixes</t>
+  </si>
+  <si>
+    <t>review changes and SNMP measurements solution analysis</t>
+  </si>
+  <si>
+    <t>performance problem found need to discuss with Venkat</t>
+  </si>
+  <si>
+    <t>In SNMP keeper store the SNMP edge measurement in DB based on config mapping</t>
+  </si>
+  <si>
+    <t>Order Statistics in set</t>
+  </si>
+  <si>
+    <t>Find min max and median in 3n/2 comparisons and randomised selection algo</t>
+  </si>
+  <si>
+    <t>integretion test case changes one debug will take 15-20 min</t>
+  </si>
+  <si>
+    <t>refactoring and unit test case helping to baitanik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing through Integretion test  </t>
+  </si>
+  <si>
+    <t>failed unable to test because of framwork problems</t>
+  </si>
+  <si>
+    <t>test directly by putting snmp messages into rabbit mq and ipfix indices and pushing it central repo.</t>
+  </si>
+  <si>
+    <t>changes for review comments and CuDo inputs and close the tasks</t>
+  </si>
+  <si>
+    <t>Augmented data structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red-black tree nth rank function </t>
+  </si>
+  <si>
+    <t>enhancement ipv6 address</t>
+  </si>
+  <si>
+    <t>fix for snmp stats bug and test</t>
+  </si>
+  <si>
+    <t>fix for alarm cause</t>
+  </si>
+  <si>
+    <t>Threat Exporter</t>
+  </si>
+  <si>
+    <t>fix for payload size in citm pushed to repo</t>
+  </si>
+  <si>
+    <t>fix for Alarm overlap after sync pushed to repo</t>
+  </si>
+  <si>
+    <t>bug ngnix 413 analysis and matchedselectornode</t>
+  </si>
+  <si>
+    <t>bug ngnix 413 trail and error on test setup by changing client_max_body_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix for Date UTC to local </t>
+  </si>
+  <si>
+    <t>cudo and gui alignment issue in snmp_keeper</t>
+  </si>
+  <si>
+    <t>Documentation and adding usecase diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeout error from httpclient conn pool exhaust and data missing after sync </t>
+  </si>
+  <si>
+    <t>default connection pool size is 4 and max connper root is 2</t>
+  </si>
+  <si>
+    <t>patch for timeout and verify range query</t>
+  </si>
+  <si>
+    <t>Elastic db upgrade feasibility check</t>
+  </si>
+  <si>
+    <t>checked protocol supported for elastic search db TCP and HTTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JDK upgrade to 201 from 181 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSS </t>
+  </si>
+  <si>
+    <t>builded java-1.8.201 base image and pushed to temp repo</t>
+  </si>
+  <si>
+    <t>building other base images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data loss and connection pool error </t>
+  </si>
+  <si>
+    <t>running integration test cases</t>
+  </si>
+  <si>
+    <t>fixing failed tests cases</t>
+  </si>
+  <si>
+    <t>analysed the root cause</t>
+  </si>
+  <si>
+    <t>applied fix and under observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAFe training </t>
+  </si>
+  <si>
+    <t>prepare for jdk upgrade and final verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collected info about jdk 201 build </t>
+  </si>
+  <si>
+    <t>snmp pod not coming in pre prod env</t>
+  </si>
+  <si>
+    <t>analysed threat detector to help manju</t>
+  </si>
+  <si>
+    <t>not understood Cpp</t>
+  </si>
+  <si>
+    <t>Dynamic programming</t>
+  </si>
+  <si>
+    <t>rod cutting</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password expiry issue </t>
+  </si>
+  <si>
+    <t>Elastic db upgrade 5.6.12</t>
+  </si>
+  <si>
+    <t>Voting</t>
+  </si>
+  <si>
+    <t>raghu marriage</t>
+  </si>
+  <si>
+    <t>SNMP CALM alarm testing</t>
+  </si>
+  <si>
+    <t>CALM</t>
+  </si>
+  <si>
+    <t>snmp trap simulation</t>
+  </si>
+  <si>
+    <t>sick leave dehydration</t>
+  </si>
+  <si>
+    <t>nagangouda marriage</t>
+  </si>
+  <si>
+    <t>NSS CALM SNMP</t>
+  </si>
+  <si>
+    <t>OS alarm testing</t>
+  </si>
+  <si>
+    <t>cudo for ilo settings</t>
+  </si>
+  <si>
+    <t>sg-4388</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Nodenotready in heys dev 3uk</t>
+  </si>
+  <si>
+    <t>NSS MR5 release issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audit.rules error in post config run </t>
+  </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t>mappings</t>
+  </si>
+  <si>
+    <t>onetoone onetomany</t>
+  </si>
+  <si>
+    <t>onetoone</t>
+  </si>
+  <si>
+    <t>docker basics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not found any rca contacted bcmt team </t>
+  </si>
+  <si>
+    <t>checked nss RPM for gen-audit command and tried many trial and error non worked. Gen-audit is adding the rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audit logs are not coming </t>
+  </si>
+  <si>
+    <t>docker logging driver problem workaround given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elastic pods suddenly stops and keep on restarts by filed to join cluster/ timeout error </t>
+  </si>
+  <si>
+    <t>suspected kubernets is unable to allocate IP/ docker Iptable rules not concluded and waiting for same to simulate again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postconfig ansible playbook is updated to remove the /data0/docker/overlay2/xxxx rules from audit.rules and secpam.privillaged.rules file </t>
+  </si>
+  <si>
+    <t>kibana timeout for huge data aggregation</t>
+  </si>
+  <si>
+    <t>root cause is ESDB cluster is not good to perform agrrigation</t>
+  </si>
+  <si>
+    <t>ticket commented</t>
+  </si>
+  <si>
+    <t>NSS regression test cases</t>
+  </si>
+  <si>
+    <t>help to fix regression test cases</t>
+  </si>
+  <si>
+    <t>found root cause for elastic data pods infinite crashloop back. Problem was alarm test suite was adding iptables rules to drop 9200 9300 port. After removing the these drop rules all elastic pods came up</t>
+  </si>
+  <si>
+    <t>one step upgrade steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ansible skeleton prepared </t>
+  </si>
+  <si>
+    <t>pods suddenly rescheduling issue analysis</t>
+  </si>
+  <si>
+    <t>local setup issue</t>
+  </si>
+  <si>
+    <t>122 docker image pulls are not working</t>
+  </si>
+  <si>
+    <t>stomach pain</t>
+  </si>
+  <si>
+    <t>NSS Jenkins build issue</t>
+  </si>
+  <si>
+    <t>Alarm handler</t>
+  </si>
+  <si>
+    <t>Alarm handler test cases failed due to snmp feature</t>
+  </si>
+  <si>
+    <t>fixed the testcases and submitted</t>
+  </si>
+  <si>
+    <t>SNMP feature DB_NOT_ACCESSIBLE alarm fix</t>
+  </si>
+  <si>
+    <t>fixed clear alarm scenario</t>
+  </si>
+  <si>
+    <t>fixed nullpointer exception now active trap is generated.</t>
+  </si>
+  <si>
+    <t>proxy releated issue fixed by adding proxy in docker deamon config file</t>
+  </si>
+  <si>
+    <t>analysis of issue</t>
+  </si>
+  <si>
+    <t>jenkins build for alarm handler is not proper ie new code is not applied to gerrit trigger build.</t>
+  </si>
+  <si>
+    <t>Filled Timesheet</t>
+  </si>
+  <si>
+    <t>Hrs worked</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>fixing jenkins error</t>
+  </si>
+  <si>
+    <t>CSD Memory leak detector tool</t>
+  </si>
+  <si>
+    <t>code submitt for admin service</t>
+  </si>
+  <si>
+    <t>Upgrade mr4 to mr5 3uk dev setup</t>
+  </si>
+  <si>
+    <t>look for cmd tool to find leak</t>
+  </si>
+  <si>
+    <t>simulated leak</t>
+  </si>
+  <si>
+    <t>eclipse mat command line</t>
+  </si>
+  <si>
+    <t>elasticsearch upgrade 5.6.7 to 6.6.x</t>
   </si>
 </sst>
 </file>
@@ -2126,15 +2511,13 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2142,6 +2525,9 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -2166,6 +2552,12 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -2223,41 +2615,41 @@
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{D67CDDFB-DF2C-4BB5-8791-39CF78F870BB}" name="Jira"/>
     <tableColumn id="2" xr3:uid="{DED20EFF-BA7F-40F9-BCCE-B10CFB18DEE5}" name="Module"/>
-    <tableColumn id="3" xr3:uid="{5B8FDF17-6A61-4E1F-B1C5-BE238FBB00BE}" name="Description" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{4A77F35B-CB24-4E74-883F-2157AF5C5A4E}" name="Comment" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{F13086ED-D766-49E3-9A0B-5DB99132B97E}" name="Meeting/Discussions" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{7B2BB689-20D5-42CE-8448-B09DF93FD67C}" name="Meeting Time" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{5E0B3206-576A-4D70-BEFE-34D383768F27}" name="Meeting Duration in minute" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{9223DA99-28B5-42E1-A868-C6A095860E48}" name="Date" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{83616C9A-367A-4662-B67A-E8080939643C}" name="Language/Tool" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{0F9509E1-91D6-4CFA-8253-2071BAF46A09}" name="Learning Topic" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{A849A2E4-7B8D-4DE3-B39A-D2F6970FB7B7}" name="Topic Description" dataDxfId="15"/>
-    <tableColumn id="13" xr3:uid="{582563FE-640A-455A-A306-66F32E895A56}" name="Code Practice" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{954381E7-F162-413A-AB98-053E51ECE33B}" name="Status" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{5B8FDF17-6A61-4E1F-B1C5-BE238FBB00BE}" name="Description" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{4A77F35B-CB24-4E74-883F-2157AF5C5A4E}" name="Comment" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{F13086ED-D766-49E3-9A0B-5DB99132B97E}" name="Meeting/Discussions" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{7B2BB689-20D5-42CE-8448-B09DF93FD67C}" name="Meeting Time" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{5E0B3206-576A-4D70-BEFE-34D383768F27}" name="Meeting Duration in minute" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{9223DA99-28B5-42E1-A868-C6A095860E48}" name="Date" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{83616C9A-367A-4662-B67A-E8080939643C}" name="Language/Tool" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{0F9509E1-91D6-4CFA-8253-2071BAF46A09}" name="Learning Topic" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{A849A2E4-7B8D-4DE3-B39A-D2F6970FB7B7}" name="Topic Description" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{582563FE-640A-455A-A306-66F32E895A56}" name="Code Practice" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{954381E7-F162-413A-AB98-053E51ECE33B}" name="Status" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EECD88A-5DB9-4833-8254-B78DC7FB627D}" name="Table1" displayName="Table1" ref="A1:O366" insertRowShift="1" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EECD88A-5DB9-4833-8254-B78DC7FB627D}" name="Table1" displayName="Table1" ref="A1:O366" insertRowShift="1" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:O366" xr:uid="{50381C2B-692E-44E3-B17A-131055E6A301}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{3EBDD3E1-F2CC-427C-8493-79B46012BC7F}" name="Jira"/>
-    <tableColumn id="15" xr3:uid="{897DC266-B78C-4503-B584-45A9CCDDC82F}" name="Timesheet Filled"/>
-    <tableColumn id="16" xr3:uid="{CA4E639E-3EDD-4888-AA97-B8709DD77403}" name="Timesheet Hrs"/>
+    <tableColumn id="15" xr3:uid="{897DC266-B78C-4503-B584-45A9CCDDC82F}" name="Filled Timesheet"/>
+    <tableColumn id="16" xr3:uid="{CA4E639E-3EDD-4888-AA97-B8709DD77403}" name="Hrs worked"/>
+    <tableColumn id="8" xr3:uid="{AD082FEF-270F-4188-9427-9E35A1DE736B}" name="Date" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{65D0D0A5-4FD3-4B13-951E-CDE51E1CF773}" name="Module"/>
     <tableColumn id="3" xr3:uid="{A5E0F4C0-4B08-48D2-A7E6-6B9BECF4ECA9}" name="Description" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{CB257B31-E5FB-4154-97D9-706C0D4868F5}" name="Comment" dataDxfId="10"/>
     <tableColumn id="5" xr3:uid="{42ED0B51-FADB-4EB2-B6B1-DFA17DAA2334}" name="Meeting/Discussions" dataDxfId="9"/>
     <tableColumn id="6" xr3:uid="{9B81D202-FAE2-4D7F-8AAC-7221B9E69147}" name="Meeting Time" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{66D3673C-658E-4F2E-9E51-788535716948}" name="Meeting Duration in minute" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{AD082FEF-270F-4188-9427-9E35A1DE736B}" name="Date" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{22C99BC4-7F7A-4043-A73A-88AF59705D67}" name="Language/Tool" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{D289CED3-84A9-482A-87CA-DEEB1E666F76}" name="Learning Topic" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{29166040-ACF9-45B6-80C2-498E74A9703A}" name="Topic Description" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{00C2FD09-172B-497E-AC86-82D5C5D2943A}" name="Code Practice" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{86C7DE83-01CA-4794-ADE1-8E558D895F21}" name="Status" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{66D3673C-658E-4F2E-9E51-788535716948}" name="Meeting Duration in minute" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{22C99BC4-7F7A-4043-A73A-88AF59705D67}" name="Language/Tool" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{D289CED3-84A9-482A-87CA-DEEB1E666F76}" name="Learning Topic" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{29166040-ACF9-45B6-80C2-498E74A9703A}" name="Topic Description" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00C2FD09-172B-497E-AC86-82D5C5D2943A}" name="Code Practice" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{86C7DE83-01CA-4794-ADE1-8E558D895F21}" name="Status" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9775,7 +10167,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H22" s="12">
         <v>43394</v>
       </c>
@@ -9791,7 +10183,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>358</v>
       </c>
@@ -9814,7 +10206,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>361</v>
       </c>
@@ -9873,7 +10265,7 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>442</v>
       </c>
@@ -10059,7 +10451,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A33" s="22"/>
       <c r="B33" s="22" t="s">
         <v>327</v>
@@ -10191,7 +10583,7 @@
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
     </row>
-    <row r="39" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>3917</v>
       </c>
@@ -10223,7 +10615,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>481</v>
       </c>
@@ -10777,7 +11169,7 @@
         <v>532</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H65" s="12">
         <v>43437</v>
@@ -10798,7 +11190,7 @@
         <v>532</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H66" s="12">
         <v>43438</v>
@@ -10819,7 +11211,7 @@
         <v>532</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H67" s="12">
         <v>43439</v>
@@ -11383,22 +11775,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA16314-1EBD-45FC-BE59-12C57F1884F2}">
   <dimension ref="A1:R366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.6328125" customWidth="1"/>
-    <col min="2" max="2" width="3.7265625" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" customWidth="1"/>
-    <col min="4" max="4" width="26.90625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.26953125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.6328125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="6.453125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="29.90625" customWidth="1"/>
+    <col min="2" max="2" width="3.54296875" customWidth="1"/>
+    <col min="3" max="3" width="4.36328125" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="38.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.6328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="3.08984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.81640625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="3.26953125" customWidth="1"/>
     <col min="11" max="11" width="21.26953125" customWidth="1"/>
     <col min="12" max="12" width="36.54296875" customWidth="1"/>
     <col min="13" max="13" width="23.08984375" customWidth="1"/>
@@ -11406,36 +11798,36 @@
     <col min="18" max="18" width="38.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>317</v>
       </c>
       <c r="B1" t="s">
-        <v>610</v>
+        <v>762</v>
       </c>
       <c r="C1" t="s">
-        <v>611</v>
-      </c>
-      <c r="D1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" t="s">
         <v>319</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>321</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>331</v>
@@ -11454,13 +11846,14 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="D2" t="s">
+      <c r="D2" s="12">
+        <v>43466</v>
+      </c>
+      <c r="E2" t="s">
         <v>327</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="12">
-        <v>43466</v>
-      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="12" t="s">
         <v>492</v>
       </c>
@@ -11468,33 +11861,34 @@
         <v>510</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>487</v>
       </c>
       <c r="O2" s="12"/>
       <c r="R2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3817</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="12">
+        <v>43467</v>
+      </c>
+      <c r="E3" t="s">
         <v>565</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>567</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="12">
-        <v>43467</v>
-      </c>
+      <c r="J3" s="3"/>
       <c r="K3" s="13" t="s">
         <v>370</v>
       </c>
@@ -11503,26 +11897,27 @@
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="R3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3817</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="12">
+        <v>43468</v>
+      </c>
+      <c r="E4" t="s">
         <v>565</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>568</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>569</v>
+        <v>651</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>652</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="12">
-        <v>43468</v>
-      </c>
+      <c r="J4" s="3"/>
       <c r="K4" s="13" t="s">
         <v>370</v>
       </c>
@@ -11531,33 +11926,33 @@
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="R4" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3817</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="12">
+        <v>43469</v>
+      </c>
+      <c r="E5" t="s">
         <v>565</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>210</v>
-      </c>
-      <c r="J5" s="12">
-        <v>43469</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>370</v>
@@ -11567,17 +11962,18 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="R5" s="3" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="D6" t="s">
+      <c r="D6" s="12">
+        <v>43470</v>
+      </c>
+      <c r="E6" t="s">
         <v>150</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="12">
-        <v>43470</v>
-      </c>
+      <c r="J6" s="3"/>
       <c r="K6" s="13" t="s">
         <v>370</v>
       </c>
@@ -11586,141 +11982,148 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="R6" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="D7" t="s">
+      <c r="D7" s="12">
+        <v>43471</v>
+      </c>
+      <c r="E7" t="s">
         <v>150</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="12">
-        <v>43471</v>
-      </c>
+      <c r="J7" s="3"/>
       <c r="K7" s="13" t="s">
         <v>340</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="R7" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3817</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="12">
+        <v>43472</v>
+      </c>
+      <c r="E8" t="s">
         <v>565</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>579</v>
+      <c r="F8" s="3" t="s">
+        <v>577</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="12">
-        <v>43472</v>
-      </c>
+      <c r="J8" s="3"/>
       <c r="K8" s="13" t="s">
         <v>492</v>
       </c>
       <c r="L8" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="N8" s="13" t="s">
         <v>580</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>581</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>582</v>
       </c>
       <c r="O8" s="13"/>
       <c r="R8" s="3" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3835</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="12">
+        <v>43473</v>
+      </c>
+      <c r="E9" t="s">
         <v>565</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="J9" s="3">
+        <v>40</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="L9" s="13" t="s">
         <v>583</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="I9" s="3">
-        <v>40</v>
-      </c>
-      <c r="J9" s="12">
-        <v>43473</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>584</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>585</v>
       </c>
       <c r="M9" s="13"/>
       <c r="N9" s="13" t="s">
         <v>446</v>
       </c>
       <c r="O9" s="13"/>
-    </row>
-    <row r="10" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R9" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3835</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="12">
+        <v>43474</v>
+      </c>
+      <c r="E10" t="s">
         <v>565</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>589</v>
-      </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="12">
-        <v>43474</v>
-      </c>
+      <c r="J10" s="3"/>
       <c r="K10" s="13" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>4220</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="12">
+        <v>43475</v>
+      </c>
+      <c r="E11" t="s">
         <v>565</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>592</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>590</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="12">
-        <v>43475</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="K11" s="13" t="s">
         <v>370</v>
       </c>
@@ -11729,23 +12132,24 @@
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3835</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="12">
+        <v>43476</v>
+      </c>
+      <c r="E12" t="s">
         <v>565</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>594</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>592</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="12">
-        <v>43476</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="K12" s="13" t="s">
         <v>370</v>
       </c>
@@ -11758,11 +12162,12 @@
       <c r="A13" t="s">
         <v>150</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" s="12">
+        <v>43477</v>
+      </c>
+      <c r="E13"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="12">
-        <v>43477</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="K13" s="13" t="s">
         <v>370</v>
       </c>
@@ -11775,11 +12180,12 @@
       <c r="A14" t="s">
         <v>150</v>
       </c>
-      <c r="D14"/>
+      <c r="D14" s="12">
+        <v>43478</v>
+      </c>
+      <c r="E14"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="12">
-        <v>43478</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="K14" s="13" t="s">
         <v>492</v>
       </c>
@@ -11787,26 +12193,27 @@
         <v>510</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="N14" s="13" t="s">
         <v>487</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>327</v>
       </c>
-      <c r="D15" t="s">
-        <v>598</v>
+      <c r="D15" s="12">
+        <v>43479</v>
+      </c>
+      <c r="E15" t="s">
+        <v>654</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="12">
-        <v>43479</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -11817,16 +12224,17 @@
       <c r="A16">
         <v>3835</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="12">
+        <v>43480</v>
+      </c>
+      <c r="E16" t="s">
         <v>565</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>608</v>
+      <c r="F16" s="3" t="s">
+        <v>604</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="12">
-        <v>43480</v>
-      </c>
+      <c r="J16" s="3"/>
       <c r="K16" s="13" t="s">
         <v>370</v>
       </c>
@@ -11839,16 +12247,17 @@
       <c r="A17">
         <v>3835</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="12">
+        <v>43481</v>
+      </c>
+      <c r="E17" t="s">
         <v>565</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>609</v>
+      <c r="F17" s="3" t="s">
+        <v>605</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="12">
-        <v>43481</v>
-      </c>
+      <c r="J17" s="3"/>
       <c r="K17" s="13" t="s">
         <v>370</v>
       </c>
@@ -11857,33 +12266,33 @@
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
     </row>
-    <row r="18" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3835</v>
       </c>
       <c r="B18" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="12">
+        <v>43482</v>
+      </c>
+      <c r="E18" t="s">
         <v>565</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>615</v>
+      <c r="F18" s="3" t="s">
+        <v>609</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="I18" s="3">
+        <v>655</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="J18" s="3">
         <v>90</v>
-      </c>
-      <c r="J18" s="12">
-        <v>43482</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>370</v>
@@ -11898,21 +12307,22 @@
         <v>3835</v>
       </c>
       <c r="B19" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C19">
         <v>8</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="12">
+        <v>43483</v>
+      </c>
+      <c r="E19" t="s">
         <v>565</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>618</v>
+      <c r="F19" s="3" t="s">
+        <v>610</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="12">
-        <v>43483</v>
-      </c>
+      <c r="J19" s="3"/>
       <c r="K19" s="13" t="s">
         <v>370</v>
       </c>
@@ -11927,20 +12337,20 @@
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
+      <c r="D20" s="12">
+        <v>43484</v>
+      </c>
+      <c r="E20" s="14"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
-      <c r="J20" s="12">
-        <v>43484</v>
-      </c>
+      <c r="J20" s="15"/>
       <c r="K20" s="17" t="s">
         <v>370</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
@@ -11952,52 +12362,52 @@
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
+      <c r="D21" s="12">
+        <v>43485</v>
+      </c>
+      <c r="E21" s="18"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="12">
-        <v>43485</v>
-      </c>
+      <c r="J21" s="19"/>
       <c r="K21" s="13" t="s">
         <v>370</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
     </row>
-    <row r="22" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3835</v>
       </c>
       <c r="B22" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="12">
+        <v>43486</v>
+      </c>
+      <c r="E22" t="s">
         <v>565</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>612</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="I22" s="3">
+        <v>656</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="J22" s="3">
         <v>30</v>
-      </c>
-      <c r="J22" s="12">
-        <v>43486</v>
       </c>
       <c r="K22" s="13" t="s">
         <v>370</v>
@@ -12007,26 +12417,27 @@
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
     </row>
-    <row r="23" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3835</v>
       </c>
       <c r="B23" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C23">
         <v>9</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="12">
+        <v>43487</v>
+      </c>
+      <c r="E23" t="s">
         <v>565</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>621</v>
+      <c r="F23" s="3" t="s">
+        <v>613</v>
       </c>
       <c r="I23" s="3"/>
-      <c r="J23" s="12">
-        <v>43487</v>
-      </c>
+      <c r="J23" s="3"/>
       <c r="K23" s="13" t="s">
         <v>370</v>
       </c>
@@ -12035,35 +12446,36 @@
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
     </row>
-    <row r="24" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3835</v>
       </c>
       <c r="B24" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C24">
         <v>8</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="12">
+        <v>43488</v>
+      </c>
+      <c r="E24" t="s">
         <v>565</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="12">
-        <v>43488</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>622</v>
-      </c>
       <c r="L24" s="13" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="M24" s="13"/>
       <c r="N24" s="13" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="O24" s="13"/>
     </row>
@@ -12072,21 +12484,22 @@
         <v>3835</v>
       </c>
       <c r="B25" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C25">
         <v>11</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="12">
+        <v>43489</v>
+      </c>
+      <c r="E25" t="s">
         <v>565</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>624</v>
+      <c r="F25" s="3" t="s">
+        <v>616</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="12">
-        <v>43489</v>
-      </c>
+      <c r="J25" s="3"/>
       <c r="K25" s="13" t="s">
         <v>370</v>
       </c>
@@ -12095,29 +12508,30 @@
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
     </row>
-    <row r="26" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="B26" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C26">
         <v>8</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="12">
+        <v>43490</v>
+      </c>
+      <c r="E26" t="s">
         <v>565</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>624</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>634</v>
+        <v>616</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>658</v>
       </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="12">
-        <v>43490</v>
-      </c>
+      <c r="J26" s="3"/>
       <c r="K26" s="13" t="s">
         <v>370</v>
       </c>
@@ -12127,11 +12541,12 @@
       <c r="O26" s="13"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D27"/>
+      <c r="D27" s="12">
+        <v>43491</v>
+      </c>
+      <c r="E27"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="12">
-        <v>43491</v>
-      </c>
+      <c r="J27" s="3"/>
       <c r="K27" s="12" t="s">
         <v>370</v>
       </c>
@@ -12141,10 +12556,11 @@
       <c r="O27" s="12"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I28" s="13"/>
-      <c r="J28" s="12">
+      <c r="D28" s="12">
         <v>43492</v>
       </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="13" t="s">
         <v>370</v>
       </c>
@@ -12153,116 +12569,175 @@
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
     </row>
-    <row r="29" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="174" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4269</v>
       </c>
       <c r="B29" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="C29">
         <v>8</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="12">
+        <v>43493</v>
+      </c>
+      <c r="E29" t="s">
         <v>565</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>636</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>637</v>
+        <v>647</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>659</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="12">
-        <v>43493</v>
-      </c>
+      <c r="J29" s="3"/>
       <c r="K29" s="13" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
     </row>
-    <row r="30" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>4269</v>
       </c>
       <c r="B30" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="C30">
         <v>6</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="12">
+        <v>43494</v>
+      </c>
+      <c r="E30" t="s">
         <v>565</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>638</v>
-      </c>
       <c r="F30" s="3" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>641</v>
-      </c>
-      <c r="I30" s="3">
+        <v>662</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="J30" s="3">
         <v>90</v>
       </c>
-      <c r="J30" s="12">
-        <v>43494</v>
-      </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
+      <c r="K30" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="L30" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>630</v>
+      </c>
       <c r="N30" s="29"/>
       <c r="O30" s="29"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
+    <row r="31" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="D31" s="12">
+        <v>43495</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>634</v>
+      </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
-      <c r="J31" s="12">
-        <v>43495</v>
-      </c>
-      <c r="K31" s="25"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="25" t="s">
+        <v>370</v>
+      </c>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D32"/>
+    <row r="32" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>4282</v>
+      </c>
+      <c r="B32" t="s">
+        <v>611</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32" s="12">
+        <v>43496</v>
+      </c>
+      <c r="E32" t="s">
+        <v>565</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>639</v>
+      </c>
       <c r="I32" s="3"/>
-      <c r="J32" s="12">
-        <v>43496</v>
-      </c>
-      <c r="K32" s="13"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D33"/>
+    <row r="33" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B33" t="s">
+        <v>611</v>
+      </c>
+      <c r="C33" t="s">
+        <v>632</v>
+      </c>
+      <c r="D33" s="12">
+        <v>43497</v>
+      </c>
+      <c r="E33" t="s">
+        <v>565</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>640</v>
+      </c>
       <c r="I33" s="3"/>
-      <c r="J33" s="12">
-        <v>43497</v>
-      </c>
-      <c r="K33" s="13"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
@@ -12272,802 +12747,1520 @@
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
+      <c r="D34" s="13">
+        <v>43498</v>
+      </c>
+      <c r="E34" s="22"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
-      <c r="J34" s="12">
-        <v>43498</v>
-      </c>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="O34" s="13"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D35"/>
+      <c r="D35" s="13">
+        <v>43499</v>
+      </c>
+      <c r="E35"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="12">
-        <v>43499</v>
-      </c>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>487</v>
+      </c>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="12">
+    <row r="36" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>4282</v>
+      </c>
+      <c r="B36" t="s">
+        <v>611</v>
+      </c>
+      <c r="C36">
+        <v>6.5</v>
+      </c>
+      <c r="D36" s="13">
         <v>43500</v>
       </c>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="12">
+      <c r="E36" t="s">
+        <v>565</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="J36" s="13">
+        <v>120</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>645</v>
+      </c>
+      <c r="B37" t="s">
+        <v>611</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37" s="13">
         <v>43501</v>
       </c>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="12">
+      <c r="E37" t="s">
+        <v>565</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+    </row>
+    <row r="38" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>4227</v>
+      </c>
+      <c r="B38" t="s">
+        <v>611</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38" s="13">
         <v>43502</v>
       </c>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="12">
+      <c r="E38" t="s">
+        <v>565</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+    </row>
+    <row r="39" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>4287</v>
+      </c>
+      <c r="B39" t="s">
+        <v>611</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39" s="13">
         <v>43503</v>
       </c>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D40"/>
+      <c r="E39" t="s">
+        <v>565</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+    </row>
+    <row r="40" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>4287</v>
+      </c>
+      <c r="B40" t="s">
+        <v>611</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40" s="12">
+        <v>43504</v>
+      </c>
+      <c r="E40" t="s">
+        <v>565</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>670</v>
+      </c>
       <c r="I40" s="3"/>
-      <c r="J40" s="12">
-        <v>43504</v>
-      </c>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>487</v>
+      </c>
       <c r="O40" s="13"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D41"/>
+      <c r="D41" s="12">
+        <v>43505</v>
+      </c>
+      <c r="E41" t="s">
+        <v>150</v>
+      </c>
       <c r="I41" s="3"/>
-      <c r="J41" s="12">
-        <v>43505</v>
-      </c>
-      <c r="K41" s="13"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D42"/>
+    <row r="42" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="D42" s="12">
+        <v>43506</v>
+      </c>
+      <c r="E42" t="s">
+        <v>150</v>
+      </c>
       <c r="I42" s="3"/>
-      <c r="J42" s="12">
-        <v>43506</v>
-      </c>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>487</v>
+      </c>
       <c r="O42" s="13"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D43"/>
+    <row r="43" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>4287</v>
+      </c>
+      <c r="B43" t="s">
+        <v>611</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43" s="12">
+        <v>43507</v>
+      </c>
+      <c r="E43" t="s">
+        <v>565</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>672</v>
+      </c>
       <c r="I43" s="3"/>
-      <c r="J43" s="12">
-        <v>43507</v>
-      </c>
-      <c r="K43" s="13"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D44"/>
+    <row r="44" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>4287</v>
+      </c>
+      <c r="B44" t="s">
+        <v>611</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44" s="12">
+        <v>43508</v>
+      </c>
+      <c r="E44" t="s">
+        <v>565</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>673</v>
+      </c>
       <c r="I44" s="3"/>
-      <c r="J44" s="12">
-        <v>43508</v>
-      </c>
-      <c r="K44" s="13"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="13" t="s">
+        <v>660</v>
+      </c>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D45"/>
+    <row r="45" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>4287</v>
+      </c>
+      <c r="B45" t="s">
+        <v>625</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45" s="12">
+        <v>43509</v>
+      </c>
+      <c r="E45" t="s">
+        <v>565</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>674</v>
+      </c>
       <c r="I45" s="3"/>
-      <c r="J45" s="12">
-        <v>43509</v>
-      </c>
-      <c r="K45" s="13"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="13" t="s">
+        <v>660</v>
+      </c>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D46"/>
+    <row r="46" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>4296</v>
+      </c>
+      <c r="B46" t="s">
+        <v>611</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46" s="12">
+        <v>43510</v>
+      </c>
+      <c r="E46" t="s">
+        <v>565</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>683</v>
+      </c>
       <c r="I46" s="3"/>
-      <c r="J46" s="12">
-        <v>43510</v>
-      </c>
-      <c r="K46" s="13"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D47"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="12">
+        <v>43511</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
       <c r="I47" s="3"/>
-      <c r="J47" s="12">
-        <v>43511</v>
-      </c>
-      <c r="K47" s="13"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D48"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="12">
+        <v>43512</v>
+      </c>
+      <c r="E48" t="s">
+        <v>150</v>
+      </c>
       <c r="I48" s="3"/>
-      <c r="J48" s="12">
-        <v>43512</v>
-      </c>
-      <c r="K48" s="13"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D49"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="12">
+        <v>43513</v>
+      </c>
+      <c r="E49" t="s">
+        <v>150</v>
+      </c>
       <c r="I49" s="3"/>
-      <c r="J49" s="12">
-        <v>43513</v>
-      </c>
-      <c r="K49" s="13"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D50"/>
+      <c r="A50" s="30">
+        <v>3646</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>611</v>
+      </c>
+      <c r="C50" s="30">
+        <v>8</v>
+      </c>
+      <c r="D50" s="12">
+        <v>43514</v>
+      </c>
+      <c r="E50" t="s">
+        <v>680</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>677</v>
+      </c>
       <c r="I50" s="3"/>
-      <c r="J50" s="12">
-        <v>43514</v>
-      </c>
-      <c r="K50" s="13"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D51"/>
+    <row r="51" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>4296</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>611</v>
+      </c>
+      <c r="C51" s="30">
+        <v>8</v>
+      </c>
+      <c r="D51" s="12">
+        <v>43515</v>
+      </c>
+      <c r="E51" t="s">
+        <v>565</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>684</v>
+      </c>
       <c r="I51" s="3"/>
-      <c r="J51" s="12">
-        <v>43515</v>
-      </c>
-      <c r="K51" s="13"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52"/>
+      <c r="A52">
+        <v>4298</v>
+      </c>
+      <c r="B52" t="s">
+        <v>611</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52" s="12">
+        <v>43516</v>
+      </c>
+      <c r="E52" t="s">
+        <v>565</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>678</v>
+      </c>
       <c r="I52" s="3"/>
-      <c r="J52" s="12">
-        <v>43516</v>
-      </c>
-      <c r="K52" s="13"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53"/>
+      <c r="A53">
+        <v>4300</v>
+      </c>
+      <c r="B53" t="s">
+        <v>611</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53" s="12">
+        <v>43517</v>
+      </c>
+      <c r="E53" t="s">
+        <v>565</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>679</v>
+      </c>
       <c r="I53" s="3"/>
-      <c r="J53" s="12">
-        <v>43517</v>
-      </c>
-      <c r="K53" s="13"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L53" s="13"/>
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54"/>
+    <row r="54" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>4301</v>
+      </c>
+      <c r="B54" t="s">
+        <v>611</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54" s="12">
+        <v>43518</v>
+      </c>
+      <c r="E54" t="s">
+        <v>565</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>682</v>
+      </c>
       <c r="I54" s="3"/>
-      <c r="J54" s="12">
-        <v>43518</v>
-      </c>
-      <c r="K54" s="13"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
       <c r="O54" s="13"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55"/>
+      <c r="D55" s="12">
+        <v>43519</v>
+      </c>
+      <c r="E55" t="s">
+        <v>150</v>
+      </c>
       <c r="I55" s="3"/>
-      <c r="J55" s="12">
-        <v>43519</v>
-      </c>
-      <c r="K55" s="13"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
       <c r="O55" s="13"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56"/>
+      <c r="D56" s="12">
+        <v>43520</v>
+      </c>
+      <c r="E56" t="s">
+        <v>150</v>
+      </c>
       <c r="I56" s="3"/>
-      <c r="J56" s="12">
-        <v>43520</v>
-      </c>
-      <c r="K56" s="13"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
       <c r="O56" s="13"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D57"/>
+      <c r="A57">
+        <v>4296</v>
+      </c>
+      <c r="B57" t="s">
+        <v>611</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57" s="12">
+        <v>43521</v>
+      </c>
+      <c r="E57" t="s">
+        <v>565</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>681</v>
+      </c>
       <c r="I57" s="3"/>
-      <c r="J57" s="12">
-        <v>43521</v>
-      </c>
-      <c r="K57" s="13"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
       <c r="O57" s="13"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D58"/>
+      <c r="A58">
+        <v>4306</v>
+      </c>
+      <c r="B58" t="s">
+        <v>625</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58" s="12">
+        <v>43522</v>
+      </c>
+      <c r="E58" t="s">
+        <v>565</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>685</v>
+      </c>
       <c r="I58" s="3"/>
-      <c r="J58" s="12">
-        <v>43522</v>
-      </c>
-      <c r="K58" s="13"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
       <c r="O58" s="13"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D59"/>
+    <row r="59" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>625</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+      <c r="D59" s="12">
+        <v>43523</v>
+      </c>
+      <c r="E59" t="s">
+        <v>565</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>686</v>
+      </c>
       <c r="I59" s="3"/>
-      <c r="J59" s="12">
-        <v>43523</v>
-      </c>
-      <c r="K59" s="13"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D60"/>
+    <row r="60" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>625</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+      <c r="D60" s="12">
+        <v>43524</v>
+      </c>
+      <c r="E60" t="s">
+        <v>565</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>687</v>
+      </c>
       <c r="I60" s="3"/>
-      <c r="J60" s="12">
-        <v>43524</v>
-      </c>
-      <c r="K60" s="13"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L60" s="13"/>
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D61"/>
+    <row r="61" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="D61" s="12">
+        <v>43525</v>
+      </c>
+      <c r="E61" t="s">
+        <v>565</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>687</v>
+      </c>
       <c r="I61" s="3"/>
-      <c r="J61" s="12">
-        <v>43525</v>
-      </c>
-      <c r="K61" s="13"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D62"/>
+      <c r="D62" s="12">
+        <v>43526</v>
+      </c>
+      <c r="E62" t="s">
+        <v>150</v>
+      </c>
       <c r="I62" s="3"/>
-      <c r="J62" s="12">
-        <v>43526</v>
-      </c>
-      <c r="K62" s="13"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L62" s="13"/>
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D63"/>
+      <c r="D63" s="12">
+        <v>43527</v>
+      </c>
+      <c r="E63" t="s">
+        <v>150</v>
+      </c>
       <c r="I63" s="3"/>
-      <c r="J63" s="12">
-        <v>43527</v>
-      </c>
-      <c r="K63" s="13"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L63" s="13"/>
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D64"/>
+    <row r="64" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="D64" s="12">
+        <v>43528</v>
+      </c>
+      <c r="E64" t="s">
+        <v>565</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>687</v>
+      </c>
       <c r="I64" s="3"/>
-      <c r="J64" s="12">
-        <v>43528</v>
-      </c>
-      <c r="K64" s="13"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
     </row>
-    <row r="65" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D65"/>
+    <row r="65" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="D65" s="12">
+        <v>43529</v>
+      </c>
+      <c r="E65" t="s">
+        <v>565</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>687</v>
+      </c>
       <c r="I65" s="3"/>
-      <c r="J65" s="12">
-        <v>43529</v>
-      </c>
-      <c r="K65" s="13"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L65" s="13"/>
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
     </row>
-    <row r="66" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D66"/>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D66" s="12">
+        <v>43530</v>
+      </c>
+      <c r="E66" t="s">
+        <v>458</v>
+      </c>
       <c r="I66" s="3"/>
-      <c r="J66" s="12">
-        <v>43530</v>
-      </c>
-      <c r="K66" s="13"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L66" s="13"/>
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
     </row>
-    <row r="67" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D67"/>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D67" s="12">
+        <v>43531</v>
+      </c>
+      <c r="E67" t="s">
+        <v>458</v>
+      </c>
       <c r="I67" s="3"/>
-      <c r="J67" s="12">
-        <v>43531</v>
-      </c>
-      <c r="K67" s="13"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L67" s="13"/>
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
     </row>
-    <row r="68" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D68"/>
+    <row r="68" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D68" s="12">
+        <v>43532</v>
+      </c>
+      <c r="E68" t="s">
+        <v>565</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>689</v>
+      </c>
       <c r="I68" s="3"/>
-      <c r="J68" s="12">
-        <v>43532</v>
-      </c>
-      <c r="K68" s="13"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L68" s="13"/>
       <c r="M68" s="13"/>
       <c r="N68" s="13"/>
       <c r="O68" s="13"/>
     </row>
-    <row r="69" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D69"/>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D69" s="12">
+        <v>43533</v>
+      </c>
+      <c r="E69" t="s">
+        <v>150</v>
+      </c>
       <c r="I69" s="3"/>
-      <c r="J69" s="12">
-        <v>43533</v>
-      </c>
-      <c r="K69" s="13"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L69" s="13"/>
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
     </row>
-    <row r="70" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D70"/>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D70" s="12">
+        <v>43534</v>
+      </c>
+      <c r="E70" t="s">
+        <v>150</v>
+      </c>
       <c r="I70" s="3"/>
-      <c r="J70" s="12">
-        <v>43534</v>
-      </c>
-      <c r="K70" s="13"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L70" s="13"/>
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
     </row>
-    <row r="71" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D71"/>
+    <row r="71" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="D71" s="12">
+        <v>43535</v>
+      </c>
+      <c r="E71" t="s">
+        <v>565</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>690</v>
+      </c>
       <c r="I71" s="3"/>
-      <c r="J71" s="12">
-        <v>43535</v>
-      </c>
-      <c r="K71" s="13"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L71" s="13"/>
       <c r="M71" s="13"/>
       <c r="N71" s="13"/>
       <c r="O71" s="13"/>
     </row>
-    <row r="72" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D72"/>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>4167</v>
+      </c>
+      <c r="B72" t="s">
+        <v>611</v>
+      </c>
+      <c r="C72">
+        <v>8</v>
+      </c>
+      <c r="D72" s="12">
+        <v>43536</v>
+      </c>
+      <c r="E72" t="s">
+        <v>694</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>693</v>
+      </c>
       <c r="I72" s="3"/>
-      <c r="J72" s="12">
-        <v>43536</v>
-      </c>
-      <c r="K72" s="13"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
     </row>
-    <row r="73" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D73"/>
+    <row r="73" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>625</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73" s="12">
+        <v>43537</v>
+      </c>
+      <c r="E73" t="s">
+        <v>694</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>692</v>
+      </c>
       <c r="I73" s="3"/>
-      <c r="J73" s="12">
-        <v>43537</v>
-      </c>
-      <c r="K73" s="13"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L73" s="13"/>
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
       <c r="O73" s="13"/>
     </row>
-    <row r="74" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D74"/>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D74" s="12">
+        <v>43538</v>
+      </c>
+      <c r="E74" t="s">
+        <v>81</v>
+      </c>
       <c r="I74" s="3"/>
-      <c r="J74" s="12">
-        <v>43538</v>
-      </c>
-      <c r="K74" s="13"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L74" s="13"/>
       <c r="M74" s="13"/>
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
     </row>
-    <row r="75" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D75"/>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D75" s="12">
+        <v>43539</v>
+      </c>
+      <c r="E75" t="s">
+        <v>81</v>
+      </c>
       <c r="I75" s="3"/>
-      <c r="J75" s="12">
-        <v>43539</v>
-      </c>
-      <c r="K75" s="13"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L75" s="13"/>
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
       <c r="O75" s="13"/>
     </row>
-    <row r="76" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D76"/>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D76" s="12">
+        <v>43540</v>
+      </c>
+      <c r="E76" t="s">
+        <v>150</v>
+      </c>
       <c r="I76" s="3"/>
-      <c r="J76" s="12">
-        <v>43540</v>
-      </c>
-      <c r="K76" s="13"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L76" s="13"/>
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
       <c r="O76" s="13"/>
     </row>
-    <row r="77" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D77"/>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D77" s="12">
+        <v>43541</v>
+      </c>
+      <c r="E77" t="s">
+        <v>150</v>
+      </c>
       <c r="I77" s="3"/>
-      <c r="J77" s="12">
-        <v>43541</v>
-      </c>
-      <c r="K77" s="13"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L77" s="13"/>
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
       <c r="O77" s="13"/>
     </row>
-    <row r="78" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D78"/>
+    <row r="78" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>4167</v>
+      </c>
+      <c r="B78" t="s">
+        <v>611</v>
+      </c>
+      <c r="C78">
+        <v>8</v>
+      </c>
+      <c r="D78" s="12">
+        <v>43542</v>
+      </c>
+      <c r="E78" t="s">
+        <v>694</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>695</v>
+      </c>
       <c r="I78" s="3"/>
-      <c r="J78" s="12">
-        <v>43542</v>
-      </c>
-      <c r="K78" s="13"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
       <c r="O78" s="13"/>
     </row>
-    <row r="79" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D79"/>
+    <row r="79" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>4167</v>
+      </c>
+      <c r="B79" t="s">
+        <v>611</v>
+      </c>
+      <c r="C79">
+        <v>8</v>
+      </c>
+      <c r="D79" s="12">
+        <v>43543</v>
+      </c>
+      <c r="E79" t="s">
+        <v>694</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>696</v>
+      </c>
       <c r="I79" s="3"/>
-      <c r="J79" s="12">
-        <v>43543</v>
-      </c>
-      <c r="K79" s="13"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L79" s="13"/>
       <c r="M79" s="13"/>
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
     </row>
-    <row r="80" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D80"/>
+    <row r="80" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>4167</v>
+      </c>
+      <c r="B80" t="s">
+        <v>611</v>
+      </c>
+      <c r="C80">
+        <v>8</v>
+      </c>
+      <c r="D80" s="12">
+        <v>43544</v>
+      </c>
+      <c r="E80" t="s">
+        <v>694</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>698</v>
+      </c>
       <c r="I80" s="3"/>
-      <c r="J80" s="12">
-        <v>43544</v>
-      </c>
-      <c r="K80" s="13"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L80" s="13"/>
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
       <c r="O80" s="13"/>
     </row>
-    <row r="81" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D81"/>
+    <row r="81" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>4167</v>
+      </c>
+      <c r="B81" t="s">
+        <v>611</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81" s="12">
+        <v>43545</v>
+      </c>
+      <c r="E81" t="s">
+        <v>694</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>699</v>
+      </c>
       <c r="I81" s="3"/>
-      <c r="J81" s="12">
-        <v>43545</v>
-      </c>
-      <c r="K81" s="13"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
       <c r="O81" s="13"/>
     </row>
-    <row r="82" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D82"/>
+    <row r="82" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>4167</v>
+      </c>
+      <c r="B82" t="s">
+        <v>611</v>
+      </c>
+      <c r="C82">
+        <v>8</v>
+      </c>
+      <c r="D82" s="12">
+        <v>43546</v>
+      </c>
+      <c r="E82" t="s">
+        <v>694</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>699</v>
+      </c>
       <c r="I82" s="3"/>
-      <c r="J82" s="12">
-        <v>43546</v>
-      </c>
-      <c r="K82" s="13"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L82" s="13"/>
       <c r="M82" s="13"/>
       <c r="N82" s="13"/>
       <c r="O82" s="13"/>
     </row>
-    <row r="83" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D83"/>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D83" s="12">
+        <v>43547</v>
+      </c>
+      <c r="E83" t="s">
+        <v>150</v>
+      </c>
       <c r="I83" s="3"/>
-      <c r="J83" s="12">
-        <v>43547</v>
-      </c>
-      <c r="K83" s="13"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
       <c r="O83" s="13"/>
     </row>
-    <row r="84" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D84"/>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D84" s="12">
+        <v>43548</v>
+      </c>
+      <c r="E84" t="s">
+        <v>150</v>
+      </c>
       <c r="I84" s="3"/>
-      <c r="J84" s="12">
-        <v>43548</v>
-      </c>
-      <c r="K84" s="13"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L84" s="13"/>
       <c r="M84" s="13"/>
       <c r="N84" s="13"/>
       <c r="O84" s="13"/>
     </row>
-    <row r="85" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D85"/>
+    <row r="85" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>625</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="D85" s="12">
+        <v>43549</v>
+      </c>
+      <c r="E85" t="s">
+        <v>694</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>700</v>
+      </c>
       <c r="I85" s="3"/>
-      <c r="J85" s="12">
-        <v>43549</v>
-      </c>
-      <c r="K85" s="13"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L85" s="13"/>
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
       <c r="O85" s="13"/>
     </row>
-    <row r="86" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D86"/>
+    <row r="86" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>625</v>
+      </c>
+      <c r="C86">
+        <v>8</v>
+      </c>
+      <c r="D86" s="12">
+        <v>43550</v>
+      </c>
+      <c r="E86" t="s">
+        <v>565</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>701</v>
+      </c>
       <c r="I86" s="3"/>
-      <c r="J86" s="12">
-        <v>43550</v>
-      </c>
-      <c r="K86" s="13"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L86" s="13"/>
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
       <c r="O86" s="13"/>
     </row>
-    <row r="87" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D87"/>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>625</v>
+      </c>
+      <c r="C87">
+        <v>8</v>
+      </c>
+      <c r="D87" s="12">
+        <v>43551</v>
+      </c>
+      <c r="E87" t="s">
+        <v>565</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>697</v>
+      </c>
       <c r="I87" s="3"/>
-      <c r="J87" s="12">
-        <v>43551</v>
-      </c>
-      <c r="K87" s="13"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L87" s="13"/>
       <c r="M87" s="13"/>
       <c r="N87" s="13"/>
       <c r="O87" s="13"/>
     </row>
-    <row r="88" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D88"/>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>625</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="D88" s="12">
+        <v>43552</v>
+      </c>
+      <c r="E88" t="s">
+        <v>702</v>
+      </c>
       <c r="I88" s="3"/>
-      <c r="J88" s="12">
-        <v>43552</v>
-      </c>
-      <c r="K88" s="13"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L88" s="13"/>
       <c r="M88" s="13"/>
       <c r="N88" s="13"/>
       <c r="O88" s="13"/>
     </row>
-    <row r="89" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D89"/>
+    <row r="89" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>4167</v>
+      </c>
+      <c r="B89" t="s">
+        <v>611</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="D89" s="12">
+        <v>43553</v>
+      </c>
+      <c r="E89" t="s">
+        <v>694</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>703</v>
+      </c>
       <c r="I89" s="3"/>
-      <c r="J89" s="12">
-        <v>43553</v>
-      </c>
-      <c r="K89" s="13"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="L89" s="13"/>
       <c r="M89" s="13"/>
       <c r="N89" s="13"/>
       <c r="O89" s="13"/>
     </row>
-    <row r="90" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D90"/>
+    <row r="90" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D90" s="12">
+        <v>43554</v>
+      </c>
+      <c r="E90" t="s">
+        <v>150</v>
+      </c>
       <c r="I90" s="3"/>
-      <c r="J90" s="12">
-        <v>43554</v>
-      </c>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
-      <c r="O90" s="13"/>
-    </row>
-    <row r="91" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D91"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="L90" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="M90" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="N90" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="O90" s="13" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D91" s="12">
+        <v>43555</v>
+      </c>
+      <c r="E91" t="s">
+        <v>150</v>
+      </c>
       <c r="I91" s="3"/>
-      <c r="J91" s="12">
-        <v>43555</v>
-      </c>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="L91" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="M91" s="13" t="s">
+        <v>709</v>
+      </c>
       <c r="N91" s="13"/>
       <c r="O91" s="13"/>
     </row>
-    <row r="92" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D92"/>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D92" s="12">
+        <v>43556</v>
+      </c>
+      <c r="E92" t="s">
+        <v>694</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>704</v>
+      </c>
       <c r="I92" s="3"/>
-      <c r="J92" s="12">
-        <v>43556</v>
-      </c>
+      <c r="J92" s="3"/>
       <c r="K92" s="13"/>
       <c r="L92" s="13"/>
       <c r="M92" s="13"/>
       <c r="N92" s="13"/>
       <c r="O92" s="13"/>
     </row>
-    <row r="93" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D93"/>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D93" s="12">
+        <v>43557</v>
+      </c>
+      <c r="E93" t="s">
+        <v>694</v>
+      </c>
       <c r="I93" s="3"/>
-      <c r="J93" s="12">
-        <v>43557</v>
-      </c>
+      <c r="J93" s="3"/>
       <c r="K93" s="13"/>
       <c r="L93" s="13"/>
       <c r="M93" s="13"/>
       <c r="N93" s="13"/>
       <c r="O93" s="13"/>
     </row>
-    <row r="94" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D94"/>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D94" s="12">
+        <v>43558</v>
+      </c>
+      <c r="E94" t="s">
+        <v>694</v>
+      </c>
       <c r="I94" s="3"/>
-      <c r="J94" s="12">
-        <v>43558</v>
-      </c>
+      <c r="J94" s="3"/>
       <c r="K94" s="13"/>
       <c r="L94" s="13"/>
       <c r="M94" s="13"/>
       <c r="N94" s="13"/>
       <c r="O94" s="13"/>
     </row>
-    <row r="95" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D95"/>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D95" s="12">
+        <v>43559</v>
+      </c>
+      <c r="E95" t="s">
+        <v>694</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>705</v>
+      </c>
       <c r="I95" s="3"/>
-      <c r="J95" s="12">
-        <v>43559</v>
-      </c>
+      <c r="J95" s="3"/>
       <c r="K95" s="13"/>
       <c r="L95" s="13"/>
       <c r="M95" s="13"/>
       <c r="N95" s="13"/>
       <c r="O95" s="13"/>
     </row>
-    <row r="96" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D96"/>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D96" s="12">
+        <v>43560</v>
+      </c>
+      <c r="E96" t="s">
+        <v>694</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>707</v>
+      </c>
       <c r="I96" s="3"/>
-      <c r="J96" s="12">
-        <v>43560</v>
-      </c>
+      <c r="J96" s="3"/>
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
       <c r="M96" s="12"/>
@@ -13075,11 +14268,14 @@
       <c r="O96" s="12"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D97"/>
+      <c r="D97" s="12">
+        <v>43561</v>
+      </c>
+      <c r="E97" t="s">
+        <v>150</v>
+      </c>
       <c r="I97" s="3"/>
-      <c r="J97" s="12">
-        <v>43561</v>
-      </c>
+      <c r="J97" s="3"/>
       <c r="K97" s="12"/>
       <c r="L97" s="12"/>
       <c r="M97" s="12"/>
@@ -13087,11 +14283,14 @@
       <c r="O97" s="12"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D98"/>
+      <c r="D98" s="12">
+        <v>43562</v>
+      </c>
+      <c r="E98" t="s">
+        <v>150</v>
+      </c>
       <c r="I98" s="3"/>
-      <c r="J98" s="12">
-        <v>43562</v>
-      </c>
+      <c r="J98" s="3"/>
       <c r="K98" s="12"/>
       <c r="L98" s="12"/>
       <c r="M98" s="12"/>
@@ -13099,11 +14298,17 @@
       <c r="O98" s="12"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D99"/>
+      <c r="D99" s="12">
+        <v>43563</v>
+      </c>
+      <c r="E99" t="s">
+        <v>694</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>712</v>
+      </c>
       <c r="I99" s="3"/>
-      <c r="J99" s="12">
-        <v>43563</v>
-      </c>
+      <c r="J99" s="3"/>
       <c r="K99" s="12"/>
       <c r="L99" s="12"/>
       <c r="M99" s="12"/>
@@ -13111,11 +14316,17 @@
       <c r="O99" s="12"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D100"/>
+      <c r="D100" s="12">
+        <v>43564</v>
+      </c>
+      <c r="E100" t="s">
+        <v>694</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>712</v>
+      </c>
       <c r="I100" s="3"/>
-      <c r="J100" s="12">
-        <v>43564</v>
-      </c>
+      <c r="J100" s="3"/>
       <c r="K100" s="12"/>
       <c r="L100" s="12"/>
       <c r="M100" s="12"/>
@@ -13123,11 +14334,17 @@
       <c r="O100" s="12"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D101"/>
+      <c r="D101" s="12">
+        <v>43565</v>
+      </c>
+      <c r="E101" t="s">
+        <v>694</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>712</v>
+      </c>
       <c r="I101" s="3"/>
-      <c r="J101" s="12">
-        <v>43565</v>
-      </c>
+      <c r="J101" s="3"/>
       <c r="K101" s="12"/>
       <c r="L101" s="12"/>
       <c r="M101" s="12"/>
@@ -13135,11 +14352,17 @@
       <c r="O101" s="12"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D102"/>
+      <c r="D102" s="12">
+        <v>43566</v>
+      </c>
+      <c r="E102" t="s">
+        <v>565</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>711</v>
+      </c>
       <c r="I102" s="3"/>
-      <c r="J102" s="12">
-        <v>43566</v>
-      </c>
+      <c r="J102" s="3"/>
       <c r="K102" s="12"/>
       <c r="L102" s="12"/>
       <c r="M102" s="12"/>
@@ -13147,11 +14370,17 @@
       <c r="O102" s="12"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D103"/>
+      <c r="D103" s="12">
+        <v>43567</v>
+      </c>
+      <c r="E103" t="s">
+        <v>565</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>711</v>
+      </c>
       <c r="I103" s="3"/>
-      <c r="J103" s="12">
-        <v>43567</v>
-      </c>
+      <c r="J103" s="3"/>
       <c r="K103" s="12"/>
       <c r="L103" s="12"/>
       <c r="M103" s="12"/>
@@ -13159,11 +14388,14 @@
       <c r="O103" s="12"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D104"/>
+      <c r="D104" s="12">
+        <v>43568</v>
+      </c>
+      <c r="E104" t="s">
+        <v>150</v>
+      </c>
       <c r="I104" s="3"/>
-      <c r="J104" s="12">
-        <v>43568</v>
-      </c>
+      <c r="J104" s="3"/>
       <c r="K104" s="12"/>
       <c r="L104" s="12"/>
       <c r="M104" s="12"/>
@@ -13171,11 +14403,14 @@
       <c r="O104" s="12"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D105"/>
+      <c r="D105" s="12">
+        <v>43569</v>
+      </c>
+      <c r="E105" t="s">
+        <v>150</v>
+      </c>
       <c r="I105" s="3"/>
-      <c r="J105" s="12">
-        <v>43569</v>
-      </c>
+      <c r="J105" s="3"/>
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
       <c r="M105" s="12"/>
@@ -13183,11 +14418,17 @@
       <c r="O105" s="12"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D106"/>
+      <c r="D106" s="12">
+        <v>43570</v>
+      </c>
+      <c r="E106" t="s">
+        <v>694</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>712</v>
+      </c>
       <c r="I106" s="3"/>
-      <c r="J106" s="12">
-        <v>43570</v>
-      </c>
+      <c r="J106" s="3"/>
       <c r="K106" s="12"/>
       <c r="L106" s="12"/>
       <c r="M106" s="12"/>
@@ -13195,11 +14436,17 @@
       <c r="O106" s="12"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D107"/>
+      <c r="D107" s="12">
+        <v>43571</v>
+      </c>
+      <c r="E107" t="s">
+        <v>694</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>712</v>
+      </c>
       <c r="I107" s="3"/>
-      <c r="J107" s="12">
-        <v>43571</v>
-      </c>
+      <c r="J107" s="3"/>
       <c r="K107" s="12"/>
       <c r="L107" s="12"/>
       <c r="M107" s="12"/>
@@ -13207,11 +14454,17 @@
       <c r="O107" s="12"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D108"/>
+      <c r="D108" s="12">
+        <v>43572</v>
+      </c>
+      <c r="E108" t="s">
+        <v>694</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>712</v>
+      </c>
       <c r="I108" s="3"/>
-      <c r="J108" s="12">
-        <v>43572</v>
-      </c>
+      <c r="J108" s="3"/>
       <c r="K108" s="12"/>
       <c r="L108" s="12"/>
       <c r="M108" s="12"/>
@@ -13219,11 +14472,17 @@
       <c r="O108" s="12"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D109"/>
+      <c r="A109" t="s">
+        <v>327</v>
+      </c>
+      <c r="D109" s="12">
+        <v>43573</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>713</v>
+      </c>
       <c r="I109" s="3"/>
-      <c r="J109" s="12">
-        <v>43573</v>
-      </c>
+      <c r="J109" s="3"/>
       <c r="K109" s="12"/>
       <c r="L109" s="12"/>
       <c r="M109" s="12"/>
@@ -13234,13 +14493,14 @@
       <c r="A110" t="s">
         <v>327</v>
       </c>
-      <c r="D110" t="s">
-        <v>599</v>
+      <c r="D110" s="12">
+        <v>43574</v>
+      </c>
+      <c r="E110" t="s">
+        <v>595</v>
       </c>
       <c r="I110" s="3"/>
-      <c r="J110" s="12">
-        <v>43574</v>
-      </c>
+      <c r="J110" s="3"/>
       <c r="K110" s="12"/>
       <c r="L110" s="12"/>
       <c r="M110" s="12"/>
@@ -13248,11 +14508,14 @@
       <c r="O110" s="12"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D111"/>
+      <c r="D111" s="12">
+        <v>43575</v>
+      </c>
+      <c r="E111" t="s">
+        <v>150</v>
+      </c>
       <c r="I111" s="3"/>
-      <c r="J111" s="12">
-        <v>43575</v>
-      </c>
+      <c r="J111" s="3"/>
       <c r="K111" s="12"/>
       <c r="L111" s="12"/>
       <c r="M111" s="12"/>
@@ -13260,11 +14523,14 @@
       <c r="O111" s="12"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D112"/>
+      <c r="D112" s="12">
+        <v>43576</v>
+      </c>
+      <c r="E112" t="s">
+        <v>150</v>
+      </c>
       <c r="I112" s="3"/>
-      <c r="J112" s="12">
-        <v>43576</v>
-      </c>
+      <c r="J112" s="3"/>
       <c r="K112" s="12"/>
       <c r="L112" s="12"/>
       <c r="M112" s="12"/>
@@ -13272,11 +14538,17 @@
       <c r="O112" s="12"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D113"/>
+      <c r="D113" s="12">
+        <v>43577</v>
+      </c>
+      <c r="E113" t="s">
+        <v>694</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>712</v>
+      </c>
       <c r="I113" s="3"/>
-      <c r="J113" s="12">
-        <v>43577</v>
-      </c>
+      <c r="J113" s="3"/>
       <c r="K113" s="12"/>
       <c r="L113" s="12"/>
       <c r="M113" s="12"/>
@@ -13284,11 +14556,17 @@
       <c r="O113" s="12"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D114"/>
+      <c r="A114" t="s">
+        <v>327</v>
+      </c>
+      <c r="D114" s="12">
+        <v>43578</v>
+      </c>
+      <c r="E114" t="s">
+        <v>713</v>
+      </c>
       <c r="I114" s="3"/>
-      <c r="J114" s="12">
-        <v>43578</v>
-      </c>
+      <c r="J114" s="3"/>
       <c r="K114" s="12"/>
       <c r="L114" s="12"/>
       <c r="M114" s="12"/>
@@ -13296,11 +14574,17 @@
       <c r="O114" s="12"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D115"/>
+      <c r="D115" s="12">
+        <v>43579</v>
+      </c>
+      <c r="E115" t="s">
+        <v>694</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>712</v>
+      </c>
       <c r="I115" s="3"/>
-      <c r="J115" s="12">
-        <v>43579</v>
-      </c>
+      <c r="J115" s="3"/>
       <c r="K115" s="12"/>
       <c r="L115" s="12"/>
       <c r="M115" s="12"/>
@@ -13308,11 +14592,12 @@
       <c r="O115" s="12"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D116"/>
+      <c r="D116" s="12">
+        <v>43580</v>
+      </c>
+      <c r="E116"/>
       <c r="I116" s="3"/>
-      <c r="J116" s="12">
-        <v>43580</v>
-      </c>
+      <c r="J116" s="3"/>
       <c r="K116" s="12"/>
       <c r="L116" s="12"/>
       <c r="M116" s="12"/>
@@ -13320,11 +14605,12 @@
       <c r="O116" s="12"/>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D117"/>
+      <c r="D117" s="12">
+        <v>43581</v>
+      </c>
+      <c r="E117"/>
       <c r="I117" s="3"/>
-      <c r="J117" s="12">
-        <v>43581</v>
-      </c>
+      <c r="J117" s="3"/>
       <c r="K117" s="12"/>
       <c r="L117" s="12"/>
       <c r="M117" s="12"/>
@@ -13332,11 +14618,14 @@
       <c r="O117" s="12"/>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D118"/>
+      <c r="D118" s="12">
+        <v>43582</v>
+      </c>
+      <c r="E118" t="s">
+        <v>150</v>
+      </c>
       <c r="I118" s="3"/>
-      <c r="J118" s="12">
-        <v>43582</v>
-      </c>
+      <c r="J118" s="3"/>
       <c r="K118" s="12"/>
       <c r="L118" s="12"/>
       <c r="M118" s="12"/>
@@ -13344,11 +14633,14 @@
       <c r="O118" s="12"/>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D119"/>
+      <c r="D119" s="12">
+        <v>43583</v>
+      </c>
+      <c r="E119" t="s">
+        <v>150</v>
+      </c>
       <c r="I119" s="3"/>
-      <c r="J119" s="12">
-        <v>43583</v>
-      </c>
+      <c r="J119" s="3"/>
       <c r="K119" s="12"/>
       <c r="L119" s="12"/>
       <c r="M119" s="12"/>
@@ -13356,11 +14648,20 @@
       <c r="O119" s="12"/>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D120"/>
+      <c r="B120" t="s">
+        <v>611</v>
+      </c>
+      <c r="D120" s="12">
+        <v>43584</v>
+      </c>
+      <c r="E120" t="s">
+        <v>81</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>714</v>
+      </c>
       <c r="I120" s="3"/>
-      <c r="J120" s="12">
-        <v>43584</v>
-      </c>
+      <c r="J120" s="3"/>
       <c r="K120" s="12"/>
       <c r="L120" s="12"/>
       <c r="M120" s="12"/>
@@ -13368,11 +14669,17 @@
       <c r="O120" s="12"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D121"/>
+      <c r="D121" s="12">
+        <v>43585</v>
+      </c>
+      <c r="E121" t="s">
+        <v>81</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I121" s="3"/>
-      <c r="J121" s="12">
-        <v>43585</v>
-      </c>
+      <c r="J121" s="3"/>
       <c r="K121" s="12"/>
       <c r="L121" s="12"/>
       <c r="M121" s="12"/>
@@ -13383,13 +14690,14 @@
       <c r="A122" t="s">
         <v>327</v>
       </c>
-      <c r="D122" t="s">
-        <v>600</v>
+      <c r="D122" s="12">
+        <v>43586</v>
+      </c>
+      <c r="E122" t="s">
+        <v>596</v>
       </c>
       <c r="I122" s="3"/>
-      <c r="J122" s="12">
-        <v>43586</v>
-      </c>
+      <c r="J122" s="3"/>
       <c r="K122" s="12"/>
       <c r="L122" s="12"/>
       <c r="M122" s="12"/>
@@ -13397,11 +14705,23 @@
       <c r="O122" s="12"/>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D123"/>
+      <c r="A123">
+        <v>4348</v>
+      </c>
+      <c r="B123" t="s">
+        <v>625</v>
+      </c>
+      <c r="D123" s="12">
+        <v>43587</v>
+      </c>
+      <c r="E123" t="s">
+        <v>694</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>715</v>
+      </c>
       <c r="I123" s="3"/>
-      <c r="J123" s="12">
-        <v>43587</v>
-      </c>
+      <c r="J123" s="3"/>
       <c r="K123" s="12"/>
       <c r="L123" s="12"/>
       <c r="M123" s="12"/>
@@ -13409,11 +14729,20 @@
       <c r="O123" s="12"/>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D124"/>
+      <c r="B124" t="s">
+        <v>625</v>
+      </c>
+      <c r="D124" s="12">
+        <v>43588</v>
+      </c>
+      <c r="E124" t="s">
+        <v>716</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>717</v>
+      </c>
       <c r="I124" s="3"/>
-      <c r="J124" s="12">
-        <v>43588</v>
-      </c>
+      <c r="J124" s="3"/>
       <c r="K124" s="12"/>
       <c r="L124" s="12"/>
       <c r="M124" s="12"/>
@@ -13421,11 +14750,14 @@
       <c r="O124" s="12"/>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D125"/>
+      <c r="D125" s="12">
+        <v>43589</v>
+      </c>
+      <c r="E125" t="s">
+        <v>150</v>
+      </c>
       <c r="I125" s="3"/>
-      <c r="J125" s="12">
-        <v>43589</v>
-      </c>
+      <c r="J125" s="3"/>
       <c r="K125" s="12"/>
       <c r="L125" s="12"/>
       <c r="M125" s="12"/>
@@ -13433,11 +14765,14 @@
       <c r="O125" s="12"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D126"/>
+      <c r="D126" s="12">
+        <v>43590</v>
+      </c>
+      <c r="E126" t="s">
+        <v>150</v>
+      </c>
       <c r="I126" s="3"/>
-      <c r="J126" s="12">
-        <v>43590</v>
-      </c>
+      <c r="J126" s="3"/>
       <c r="K126" s="12"/>
       <c r="L126" s="12"/>
       <c r="M126" s="12"/>
@@ -13445,11 +14780,20 @@
       <c r="O126" s="12"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D127"/>
+      <c r="B127" t="s">
+        <v>611</v>
+      </c>
+      <c r="D127" s="12">
+        <v>43591</v>
+      </c>
+      <c r="E127" t="s">
+        <v>720</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>721</v>
+      </c>
       <c r="I127" s="3"/>
-      <c r="J127" s="12">
-        <v>43591</v>
-      </c>
+      <c r="J127" s="3"/>
       <c r="K127" s="12"/>
       <c r="L127" s="12"/>
       <c r="M127" s="12"/>
@@ -13457,203 +14801,344 @@
       <c r="O127" s="12"/>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D128"/>
+      <c r="B128" t="s">
+        <v>611</v>
+      </c>
+      <c r="D128" s="12">
+        <v>43592</v>
+      </c>
+      <c r="E128" t="s">
+        <v>720</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>721</v>
+      </c>
       <c r="I128" s="3"/>
-      <c r="J128" s="12">
-        <v>43592</v>
-      </c>
+      <c r="J128" s="3"/>
       <c r="K128" s="12"/>
       <c r="L128" s="12"/>
       <c r="M128" s="12"/>
       <c r="N128" s="12"/>
       <c r="O128" s="12"/>
     </row>
-    <row r="129" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D129"/>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B129" t="s">
+        <v>611</v>
+      </c>
+      <c r="D129" s="12">
+        <v>43593</v>
+      </c>
+      <c r="E129" t="s">
+        <v>720</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>721</v>
+      </c>
       <c r="I129" s="3"/>
-      <c r="J129" s="12">
-        <v>43593</v>
-      </c>
+      <c r="J129" s="3"/>
       <c r="K129" s="12"/>
       <c r="L129" s="12"/>
       <c r="M129" s="12"/>
       <c r="N129" s="12"/>
       <c r="O129" s="12"/>
     </row>
-    <row r="130" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D130"/>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B130" t="s">
+        <v>611</v>
+      </c>
+      <c r="D130" s="12">
+        <v>43594</v>
+      </c>
+      <c r="E130" t="s">
+        <v>720</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>721</v>
+      </c>
       <c r="I130" s="3"/>
-      <c r="J130" s="12">
-        <v>43594</v>
-      </c>
+      <c r="J130" s="3"/>
       <c r="K130" s="12"/>
       <c r="L130" s="12"/>
       <c r="M130" s="12"/>
       <c r="N130" s="12"/>
       <c r="O130" s="12"/>
     </row>
-    <row r="131" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D131"/>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B131" t="s">
+        <v>611</v>
+      </c>
+      <c r="D131" s="12">
+        <v>43595</v>
+      </c>
+      <c r="E131" t="s">
+        <v>720</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>721</v>
+      </c>
       <c r="I131" s="3"/>
-      <c r="J131" s="12">
-        <v>43595</v>
-      </c>
+      <c r="J131" s="3"/>
       <c r="K131" s="12"/>
       <c r="L131" s="12"/>
       <c r="M131" s="12"/>
       <c r="N131" s="12"/>
       <c r="O131" s="12"/>
     </row>
-    <row r="132" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D132"/>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D132" s="12">
+        <v>43596</v>
+      </c>
+      <c r="E132" t="s">
+        <v>150</v>
+      </c>
       <c r="I132" s="3"/>
-      <c r="J132" s="12">
-        <v>43596</v>
-      </c>
+      <c r="J132" s="3"/>
       <c r="K132" s="12"/>
       <c r="L132" s="12"/>
       <c r="M132" s="12"/>
       <c r="N132" s="12"/>
       <c r="O132" s="12"/>
     </row>
-    <row r="133" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D133"/>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D133" s="12">
+        <v>43597</v>
+      </c>
+      <c r="E133" t="s">
+        <v>150</v>
+      </c>
       <c r="I133" s="3"/>
-      <c r="J133" s="12">
-        <v>43597</v>
-      </c>
+      <c r="J133" s="3"/>
       <c r="K133" s="12"/>
       <c r="L133" s="12"/>
       <c r="M133" s="12"/>
       <c r="N133" s="12"/>
       <c r="O133" s="12"/>
     </row>
-    <row r="134" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D134"/>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>625</v>
+      </c>
+      <c r="D134" s="12">
+        <v>43598</v>
+      </c>
+      <c r="E134" t="s">
+        <v>720</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>721</v>
+      </c>
       <c r="I134" s="3"/>
-      <c r="J134" s="12">
-        <v>43598</v>
-      </c>
+      <c r="J134" s="3"/>
       <c r="K134" s="12"/>
       <c r="L134" s="12"/>
       <c r="M134" s="12"/>
       <c r="N134" s="12"/>
       <c r="O134" s="12"/>
     </row>
-    <row r="135" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D135"/>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B135" t="s">
+        <v>625</v>
+      </c>
+      <c r="D135" s="12">
+        <v>43599</v>
+      </c>
+      <c r="E135" t="s">
+        <v>720</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>721</v>
+      </c>
       <c r="I135" s="3"/>
-      <c r="J135" s="12">
-        <v>43599</v>
-      </c>
+      <c r="J135" s="3"/>
       <c r="K135" s="12"/>
       <c r="L135" s="12"/>
       <c r="M135" s="12"/>
       <c r="N135" s="12"/>
       <c r="O135" s="12"/>
     </row>
-    <row r="136" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D136"/>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B136" t="s">
+        <v>625</v>
+      </c>
+      <c r="D136" s="12">
+        <v>43600</v>
+      </c>
+      <c r="E136" t="s">
+        <v>720</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>721</v>
+      </c>
       <c r="I136" s="3"/>
-      <c r="J136" s="12">
-        <v>43600</v>
-      </c>
+      <c r="J136" s="3"/>
       <c r="K136" s="12"/>
       <c r="L136" s="12"/>
       <c r="M136" s="12"/>
       <c r="N136" s="12"/>
       <c r="O136" s="12"/>
     </row>
-    <row r="137" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D137"/>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B137" t="s">
+        <v>625</v>
+      </c>
+      <c r="D137" s="12">
+        <v>43601</v>
+      </c>
+      <c r="E137" t="s">
+        <v>720</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>721</v>
+      </c>
       <c r="I137" s="3"/>
-      <c r="J137" s="12">
-        <v>43601</v>
-      </c>
+      <c r="J137" s="3"/>
       <c r="K137" s="12"/>
       <c r="L137" s="12"/>
       <c r="M137" s="12"/>
       <c r="N137" s="12"/>
       <c r="O137" s="12"/>
     </row>
-    <row r="138" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D138"/>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
+        <v>625</v>
+      </c>
+      <c r="D138" s="12">
+        <v>43602</v>
+      </c>
+      <c r="E138" t="s">
+        <v>720</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>721</v>
+      </c>
       <c r="I138" s="3"/>
-      <c r="J138" s="12">
-        <v>43602</v>
-      </c>
+      <c r="J138" s="3"/>
       <c r="K138" s="12"/>
       <c r="L138" s="12"/>
       <c r="M138" s="12"/>
       <c r="N138" s="12"/>
       <c r="O138" s="12"/>
     </row>
-    <row r="139" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D139"/>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D139" s="12">
+        <v>43603</v>
+      </c>
+      <c r="E139" t="s">
+        <v>150</v>
+      </c>
       <c r="I139" s="3"/>
-      <c r="J139" s="12">
-        <v>43603</v>
-      </c>
+      <c r="J139" s="3"/>
       <c r="K139" s="12"/>
       <c r="L139" s="12"/>
       <c r="M139" s="12"/>
       <c r="N139" s="12"/>
       <c r="O139" s="12"/>
     </row>
-    <row r="140" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D140"/>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D140" s="12">
+        <v>43604</v>
+      </c>
+      <c r="E140" t="s">
+        <v>150</v>
+      </c>
       <c r="I140" s="3"/>
-      <c r="J140" s="12">
-        <v>43604</v>
-      </c>
+      <c r="J140" s="3"/>
       <c r="K140" s="12"/>
       <c r="L140" s="12"/>
       <c r="M140" s="12"/>
       <c r="N140" s="12"/>
       <c r="O140" s="12"/>
     </row>
-    <row r="141" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D141"/>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>327</v>
+      </c>
+      <c r="B141" t="s">
+        <v>611</v>
+      </c>
+      <c r="D141" s="12">
+        <v>43605</v>
+      </c>
+      <c r="E141" t="s">
+        <v>81</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>719</v>
+      </c>
       <c r="I141" s="3"/>
-      <c r="J141" s="12">
-        <v>43605</v>
-      </c>
+      <c r="J141" s="3"/>
       <c r="K141" s="12"/>
       <c r="L141" s="12"/>
       <c r="M141" s="12"/>
       <c r="N141" s="12"/>
       <c r="O141" s="12"/>
     </row>
-    <row r="142" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D142"/>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>327</v>
+      </c>
+      <c r="B142" t="s">
+        <v>611</v>
+      </c>
+      <c r="D142" s="12">
+        <v>43606</v>
+      </c>
+      <c r="E142" t="s">
+        <v>81</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>719</v>
+      </c>
       <c r="I142" s="3"/>
-      <c r="J142" s="12">
-        <v>43606</v>
-      </c>
+      <c r="J142" s="3"/>
       <c r="K142" s="12"/>
       <c r="L142" s="12"/>
       <c r="M142" s="12"/>
       <c r="N142" s="12"/>
       <c r="O142" s="12"/>
     </row>
-    <row r="143" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D143"/>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>327</v>
+      </c>
+      <c r="B143" t="s">
+        <v>611</v>
+      </c>
+      <c r="D143" s="12">
+        <v>43607</v>
+      </c>
+      <c r="E143" t="s">
+        <v>81</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>719</v>
+      </c>
       <c r="I143" s="3"/>
-      <c r="J143" s="12">
-        <v>43607</v>
-      </c>
+      <c r="J143" s="3"/>
       <c r="K143" s="12"/>
       <c r="L143" s="12"/>
       <c r="M143" s="12"/>
       <c r="N143" s="12"/>
       <c r="O143" s="12"/>
     </row>
-    <row r="144" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D144"/>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>327</v>
+      </c>
+      <c r="B144" t="s">
+        <v>611</v>
+      </c>
+      <c r="D144" s="12">
+        <v>43608</v>
+      </c>
+      <c r="E144" t="s">
+        <v>81</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>719</v>
+      </c>
       <c r="I144" s="3"/>
-      <c r="J144" s="12">
-        <v>43608</v>
-      </c>
+      <c r="J144" s="3"/>
       <c r="K144" s="12"/>
       <c r="L144" s="12"/>
       <c r="M144" s="12"/>
@@ -13661,11 +15146,20 @@
       <c r="O144" s="12"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D145"/>
+      <c r="A145" t="s">
+        <v>327</v>
+      </c>
+      <c r="B145" t="s">
+        <v>611</v>
+      </c>
+      <c r="D145" s="12">
+        <v>43609</v>
+      </c>
+      <c r="E145" t="s">
+        <v>81</v>
+      </c>
       <c r="I145" s="3"/>
-      <c r="J145" s="12">
-        <v>43609</v>
-      </c>
+      <c r="J145" s="3"/>
       <c r="K145" s="12"/>
       <c r="L145" s="12"/>
       <c r="M145" s="12"/>
@@ -13673,11 +15167,14 @@
       <c r="O145" s="12"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D146"/>
+      <c r="D146" s="12">
+        <v>43610</v>
+      </c>
+      <c r="E146" t="s">
+        <v>150</v>
+      </c>
       <c r="I146" s="3"/>
-      <c r="J146" s="12">
-        <v>43610</v>
-      </c>
+      <c r="J146" s="3"/>
       <c r="K146" s="12"/>
       <c r="L146" s="12"/>
       <c r="M146" s="12"/>
@@ -13685,11 +15182,14 @@
       <c r="O146" s="12"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D147"/>
+      <c r="D147" s="12">
+        <v>43611</v>
+      </c>
+      <c r="E147" t="s">
+        <v>150</v>
+      </c>
       <c r="I147" s="3"/>
-      <c r="J147" s="12">
-        <v>43611</v>
-      </c>
+      <c r="J147" s="3"/>
       <c r="K147" s="12"/>
       <c r="L147" s="12"/>
       <c r="M147" s="12"/>
@@ -13697,11 +15197,20 @@
       <c r="O147" s="12"/>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D148"/>
+      <c r="B148" t="s">
+        <v>611</v>
+      </c>
+      <c r="D148" s="12">
+        <v>43612</v>
+      </c>
+      <c r="E148" t="s">
+        <v>81</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>718</v>
+      </c>
       <c r="I148" s="3"/>
-      <c r="J148" s="12">
-        <v>43612</v>
-      </c>
+      <c r="J148" s="3"/>
       <c r="K148" s="12"/>
       <c r="L148" s="12"/>
       <c r="M148" s="12"/>
@@ -13709,11 +15218,20 @@
       <c r="O148" s="12"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D149"/>
+      <c r="B149" t="s">
+        <v>625</v>
+      </c>
+      <c r="D149" s="12">
+        <v>43613</v>
+      </c>
+      <c r="E149" t="s">
+        <v>720</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>722</v>
+      </c>
       <c r="I149" s="3"/>
-      <c r="J149" s="12">
-        <v>43613</v>
-      </c>
+      <c r="J149" s="3"/>
       <c r="K149" s="12"/>
       <c r="L149" s="12"/>
       <c r="M149" s="12"/>
@@ -13721,11 +15239,12 @@
       <c r="O149" s="12"/>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D150"/>
+      <c r="D150" s="12">
+        <v>43614</v>
+      </c>
+      <c r="E150"/>
       <c r="I150" s="3"/>
-      <c r="J150" s="12">
-        <v>43614</v>
-      </c>
+      <c r="J150" s="3"/>
       <c r="K150" s="12"/>
       <c r="L150" s="12"/>
       <c r="M150" s="12"/>
@@ -13733,11 +15252,12 @@
       <c r="O150" s="12"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D151"/>
+      <c r="D151" s="12">
+        <v>43615</v>
+      </c>
+      <c r="E151"/>
       <c r="I151" s="3"/>
-      <c r="J151" s="12">
-        <v>43615</v>
-      </c>
+      <c r="J151" s="3"/>
       <c r="K151" s="12"/>
       <c r="L151" s="12"/>
       <c r="M151" s="12"/>
@@ -13745,11 +15265,23 @@
       <c r="O151" s="12"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D152"/>
+      <c r="A152" t="s">
+        <v>723</v>
+      </c>
+      <c r="B152" t="s">
+        <v>611</v>
+      </c>
+      <c r="D152" s="12">
+        <v>43616</v>
+      </c>
+      <c r="E152" t="s">
+        <v>724</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>725</v>
+      </c>
       <c r="I152" s="3"/>
-      <c r="J152" s="12">
-        <v>43616</v>
-      </c>
+      <c r="J152" s="3"/>
       <c r="K152" s="12"/>
       <c r="L152" s="12"/>
       <c r="M152" s="12"/>
@@ -13757,11 +15289,14 @@
       <c r="O152" s="12"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D153"/>
+      <c r="D153" s="12">
+        <v>43617</v>
+      </c>
+      <c r="E153" t="s">
+        <v>150</v>
+      </c>
       <c r="I153" s="3"/>
-      <c r="J153" s="12">
-        <v>43617</v>
-      </c>
+      <c r="J153" s="3"/>
       <c r="K153" s="12"/>
       <c r="L153" s="12"/>
       <c r="M153" s="12"/>
@@ -13769,11 +15304,14 @@
       <c r="O153" s="12"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D154"/>
+      <c r="D154" s="12">
+        <v>43618</v>
+      </c>
+      <c r="E154" t="s">
+        <v>150</v>
+      </c>
       <c r="I154" s="3"/>
-      <c r="J154" s="12">
-        <v>43618</v>
-      </c>
+      <c r="J154" s="3"/>
       <c r="K154" s="12"/>
       <c r="L154" s="12"/>
       <c r="M154" s="12"/>
@@ -13781,11 +15319,23 @@
       <c r="O154" s="12"/>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D155"/>
+      <c r="A155" t="s">
+        <v>723</v>
+      </c>
+      <c r="B155" t="s">
+        <v>611</v>
+      </c>
+      <c r="D155" s="12">
+        <v>43619</v>
+      </c>
+      <c r="E155" t="s">
+        <v>724</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>725</v>
+      </c>
       <c r="I155" s="3"/>
-      <c r="J155" s="12">
-        <v>43619</v>
-      </c>
+      <c r="J155" s="3"/>
       <c r="K155" s="12"/>
       <c r="L155" s="12"/>
       <c r="M155" s="12"/>
@@ -13793,52 +15343,101 @@
       <c r="O155" s="12"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D156"/>
+      <c r="A156" t="s">
+        <v>723</v>
+      </c>
+      <c r="B156" t="s">
+        <v>611</v>
+      </c>
+      <c r="D156" s="12">
+        <v>43620</v>
+      </c>
+      <c r="E156" t="s">
+        <v>724</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>725</v>
+      </c>
       <c r="I156" s="3"/>
-      <c r="J156" s="12">
-        <v>43620</v>
-      </c>
-      <c r="K156" s="12"/>
-      <c r="L156" s="12"/>
-      <c r="M156" s="12"/>
-      <c r="N156" s="12"/>
+      <c r="J156" s="3"/>
+      <c r="K156" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="L156" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="M156" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="N156" s="12" t="s">
+        <v>446</v>
+      </c>
       <c r="O156" s="12"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>327</v>
       </c>
-      <c r="D157" t="s">
-        <v>601</v>
+      <c r="D157" s="12">
+        <v>43621</v>
+      </c>
+      <c r="E157" t="s">
+        <v>597</v>
       </c>
       <c r="I157" s="3"/>
-      <c r="J157" s="12">
-        <v>43621</v>
-      </c>
-      <c r="K157" s="12"/>
-      <c r="L157" s="12"/>
-      <c r="M157" s="12"/>
-      <c r="N157" s="12"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="L157" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="M157" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="N157" s="12" t="s">
+        <v>446</v>
+      </c>
       <c r="O157" s="12"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D158"/>
+      <c r="B158" t="s">
+        <v>625</v>
+      </c>
+      <c r="D158" s="12">
+        <v>43622</v>
+      </c>
+      <c r="E158" t="s">
+        <v>726</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>727</v>
+      </c>
       <c r="I158" s="3"/>
-      <c r="J158" s="12">
-        <v>43622</v>
-      </c>
-      <c r="K158" s="12"/>
+      <c r="J158" s="3"/>
+      <c r="K158" s="12" t="s">
+        <v>732</v>
+      </c>
       <c r="L158" s="12"/>
       <c r="M158" s="12"/>
       <c r="N158" s="12"/>
       <c r="O158" s="12"/>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D159"/>
+      <c r="B159" t="s">
+        <v>625</v>
+      </c>
+      <c r="D159" s="12">
+        <v>43623</v>
+      </c>
+      <c r="E159" t="s">
+        <v>726</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>727</v>
+      </c>
       <c r="I159" s="3"/>
-      <c r="J159" s="12">
-        <v>43623</v>
-      </c>
+      <c r="J159" s="3"/>
       <c r="K159" s="12"/>
       <c r="L159" s="12"/>
       <c r="M159" s="12"/>
@@ -13846,587 +15445,903 @@
       <c r="O159" s="12"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D160"/>
+      <c r="D160" s="12">
+        <v>43624</v>
+      </c>
+      <c r="E160" t="s">
+        <v>150</v>
+      </c>
       <c r="I160" s="3"/>
-      <c r="J160" s="12">
-        <v>43624</v>
-      </c>
+      <c r="J160" s="3"/>
       <c r="K160" s="12"/>
       <c r="L160" s="12"/>
       <c r="M160" s="12"/>
       <c r="N160" s="12"/>
       <c r="O160" s="12"/>
     </row>
-    <row r="161" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D161"/>
+    <row r="161" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="D161" s="12">
+        <v>43625</v>
+      </c>
+      <c r="E161" t="s">
+        <v>150</v>
+      </c>
       <c r="I161" s="3"/>
-      <c r="J161" s="12">
-        <v>43625</v>
-      </c>
+      <c r="J161" s="3"/>
       <c r="K161" s="12"/>
       <c r="L161" s="12"/>
       <c r="M161" s="12"/>
       <c r="N161" s="12"/>
       <c r="O161" s="12"/>
     </row>
-    <row r="162" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D162"/>
+    <row r="162" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B162" t="s">
+        <v>611</v>
+      </c>
+      <c r="D162" s="12">
+        <v>43626</v>
+      </c>
+      <c r="E162" t="s">
+        <v>726</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>733</v>
+      </c>
       <c r="I162" s="3"/>
-      <c r="J162" s="12">
-        <v>43626</v>
-      </c>
+      <c r="J162" s="3"/>
       <c r="K162" s="12"/>
       <c r="L162" s="12"/>
       <c r="M162" s="12"/>
       <c r="N162" s="12"/>
       <c r="O162" s="12"/>
     </row>
-    <row r="163" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D163"/>
+    <row r="163" spans="2:15" ht="87" x14ac:dyDescent="0.35">
+      <c r="B163" t="s">
+        <v>611</v>
+      </c>
+      <c r="D163" s="12">
+        <v>43627</v>
+      </c>
+      <c r="E163" t="s">
+        <v>726</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>734</v>
+      </c>
       <c r="I163" s="3"/>
-      <c r="J163" s="12">
-        <v>43627</v>
-      </c>
+      <c r="J163" s="3"/>
       <c r="K163" s="12"/>
       <c r="L163" s="12"/>
       <c r="M163" s="12"/>
       <c r="N163" s="12"/>
       <c r="O163" s="12"/>
     </row>
-    <row r="164" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D164"/>
+    <row r="164" spans="2:15" ht="116" x14ac:dyDescent="0.35">
+      <c r="B164" t="s">
+        <v>611</v>
+      </c>
+      <c r="D164" s="12">
+        <v>43628</v>
+      </c>
+      <c r="E164" t="s">
+        <v>726</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>739</v>
+      </c>
       <c r="I164" s="3"/>
-      <c r="J164" s="12">
-        <v>43628</v>
-      </c>
+      <c r="J164" s="3"/>
       <c r="K164" s="12"/>
       <c r="L164" s="12"/>
       <c r="M164" s="12"/>
       <c r="N164" s="12"/>
       <c r="O164" s="12"/>
     </row>
-    <row r="165" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D165"/>
+    <row r="165" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B165" t="s">
+        <v>611</v>
+      </c>
+      <c r="D165" s="12">
+        <v>43629</v>
+      </c>
+      <c r="E165" t="s">
+        <v>726</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>736</v>
+      </c>
       <c r="I165" s="3"/>
-      <c r="J165" s="12">
-        <v>43629</v>
-      </c>
+      <c r="J165" s="3"/>
       <c r="K165" s="12"/>
       <c r="L165" s="12"/>
       <c r="M165" s="12"/>
       <c r="N165" s="12"/>
       <c r="O165" s="12"/>
     </row>
-    <row r="166" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D166"/>
+    <row r="166" spans="2:15" ht="87" x14ac:dyDescent="0.35">
+      <c r="B166" t="s">
+        <v>625</v>
+      </c>
+      <c r="D166" s="12">
+        <v>43630</v>
+      </c>
+      <c r="E166" t="s">
+        <v>726</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>738</v>
+      </c>
       <c r="I166" s="3"/>
-      <c r="J166" s="12">
-        <v>43630</v>
-      </c>
+      <c r="J166" s="3"/>
       <c r="K166" s="12"/>
       <c r="L166" s="12"/>
       <c r="M166" s="12"/>
       <c r="N166" s="12"/>
       <c r="O166" s="12"/>
     </row>
-    <row r="167" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D167"/>
+    <row r="167" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="D167" s="12">
+        <v>43631</v>
+      </c>
+      <c r="E167" t="s">
+        <v>150</v>
+      </c>
       <c r="I167" s="3"/>
-      <c r="J167" s="12">
-        <v>43631</v>
-      </c>
+      <c r="J167" s="3"/>
       <c r="K167" s="12"/>
       <c r="L167" s="12"/>
       <c r="M167" s="12"/>
       <c r="N167" s="12"/>
       <c r="O167" s="12"/>
     </row>
-    <row r="168" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D168"/>
+    <row r="168" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="D168" s="12">
+        <v>43632</v>
+      </c>
+      <c r="E168" t="s">
+        <v>150</v>
+      </c>
       <c r="I168" s="3"/>
-      <c r="J168" s="12">
-        <v>43632</v>
-      </c>
+      <c r="J168" s="3"/>
       <c r="K168" s="12"/>
       <c r="L168" s="12"/>
       <c r="M168" s="12"/>
       <c r="N168" s="12"/>
       <c r="O168" s="12"/>
     </row>
-    <row r="169" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D169"/>
+    <row r="169" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D169" s="12">
+        <v>43633</v>
+      </c>
+      <c r="E169" t="s">
+        <v>726</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>737</v>
+      </c>
       <c r="I169" s="3"/>
-      <c r="J169" s="12">
-        <v>43633</v>
-      </c>
+      <c r="J169" s="3"/>
       <c r="K169" s="12"/>
       <c r="L169" s="12"/>
       <c r="M169" s="12"/>
       <c r="N169" s="12"/>
       <c r="O169" s="12"/>
     </row>
-    <row r="170" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D170"/>
+    <row r="170" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D170" s="12">
+        <v>43634</v>
+      </c>
+      <c r="E170" t="s">
+        <v>726</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>737</v>
+      </c>
       <c r="I170" s="3"/>
-      <c r="J170" s="12">
-        <v>43634</v>
-      </c>
+      <c r="J170" s="3"/>
       <c r="K170" s="12"/>
       <c r="L170" s="12"/>
       <c r="M170" s="12"/>
       <c r="N170" s="12"/>
       <c r="O170" s="12"/>
     </row>
-    <row r="171" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D171"/>
+    <row r="171" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D171" s="12">
+        <v>43635</v>
+      </c>
+      <c r="E171" t="s">
+        <v>726</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>737</v>
+      </c>
       <c r="I171" s="3"/>
-      <c r="J171" s="12">
-        <v>43635</v>
-      </c>
+      <c r="J171" s="3"/>
       <c r="K171" s="12"/>
       <c r="L171" s="12"/>
       <c r="M171" s="12"/>
       <c r="N171" s="12"/>
       <c r="O171" s="12"/>
     </row>
-    <row r="172" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D172"/>
+    <row r="172" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="D172" s="12">
+        <v>43636</v>
+      </c>
+      <c r="E172" t="s">
+        <v>726</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>748</v>
+      </c>
       <c r="I172" s="3"/>
-      <c r="J172" s="12">
-        <v>43636</v>
-      </c>
+      <c r="J172" s="3"/>
       <c r="K172" s="12"/>
       <c r="L172" s="12"/>
       <c r="M172" s="12"/>
       <c r="N172" s="12"/>
       <c r="O172" s="12"/>
     </row>
-    <row r="173" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D173"/>
+    <row r="173" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="D173" s="12">
+        <v>43637</v>
+      </c>
+      <c r="E173" t="s">
+        <v>726</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>747</v>
+      </c>
       <c r="I173" s="3"/>
-      <c r="J173" s="12">
-        <v>43637</v>
-      </c>
+      <c r="J173" s="3"/>
       <c r="K173" s="12"/>
       <c r="L173" s="12"/>
       <c r="M173" s="12"/>
       <c r="N173" s="12"/>
       <c r="O173" s="12"/>
     </row>
-    <row r="174" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D174"/>
+    <row r="174" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="D174" s="12">
+        <v>43638</v>
+      </c>
+      <c r="E174" t="s">
+        <v>150</v>
+      </c>
       <c r="I174" s="3"/>
-      <c r="J174" s="12">
-        <v>43638</v>
-      </c>
+      <c r="J174" s="3"/>
       <c r="K174" s="12"/>
       <c r="L174" s="12"/>
       <c r="M174" s="12"/>
       <c r="N174" s="12"/>
       <c r="O174" s="12"/>
     </row>
-    <row r="175" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D175"/>
+    <row r="175" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="D175" s="12">
+        <v>43639</v>
+      </c>
+      <c r="E175" t="s">
+        <v>150</v>
+      </c>
       <c r="I175" s="3"/>
-      <c r="J175" s="12">
-        <v>43639</v>
-      </c>
+      <c r="J175" s="3"/>
       <c r="K175" s="12"/>
       <c r="L175" s="12"/>
       <c r="M175" s="12"/>
       <c r="N175" s="12"/>
       <c r="O175" s="12"/>
     </row>
-    <row r="176" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D176"/>
+    <row r="176" spans="2:15" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="D176" s="12">
+        <v>43640</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>745</v>
+      </c>
       <c r="I176" s="3"/>
-      <c r="J176" s="12">
-        <v>43640</v>
-      </c>
+      <c r="J176" s="3"/>
       <c r="K176" s="12"/>
       <c r="L176" s="12"/>
       <c r="M176" s="12"/>
       <c r="N176" s="12"/>
       <c r="O176" s="12"/>
     </row>
-    <row r="177" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D177"/>
+    <row r="177" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D177" s="12">
+        <v>43641</v>
+      </c>
+      <c r="E177" t="s">
+        <v>726</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>741</v>
+      </c>
       <c r="I177" s="3"/>
-      <c r="J177" s="12">
-        <v>43641</v>
-      </c>
+      <c r="J177" s="3"/>
       <c r="K177" s="12"/>
       <c r="L177" s="12"/>
       <c r="M177" s="12"/>
       <c r="N177" s="12"/>
       <c r="O177" s="12"/>
     </row>
-    <row r="178" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D178"/>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D178" s="12">
+        <v>43642</v>
+      </c>
+      <c r="E178" t="s">
+        <v>81</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>751</v>
+      </c>
       <c r="I178" s="3"/>
-      <c r="J178" s="12">
-        <v>43642</v>
-      </c>
+      <c r="J178" s="3"/>
       <c r="K178" s="12"/>
       <c r="L178" s="12"/>
       <c r="M178" s="12"/>
       <c r="N178" s="12"/>
       <c r="O178" s="12"/>
     </row>
-    <row r="179" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D179"/>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D179" s="12">
+        <v>43643</v>
+      </c>
+      <c r="E179" t="s">
+        <v>726</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>742</v>
+      </c>
       <c r="I179" s="3"/>
-      <c r="J179" s="12">
-        <v>43643</v>
-      </c>
+      <c r="J179" s="3"/>
       <c r="K179" s="12"/>
       <c r="L179" s="12"/>
       <c r="M179" s="12"/>
       <c r="N179" s="12"/>
       <c r="O179" s="12"/>
     </row>
-    <row r="180" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D180"/>
+    <row r="180" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="D180" s="12">
+        <v>43644</v>
+      </c>
+      <c r="E180" t="s">
+        <v>749</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>759</v>
+      </c>
       <c r="I180" s="3"/>
-      <c r="J180" s="12">
-        <v>43644</v>
-      </c>
+      <c r="J180" s="3"/>
       <c r="K180" s="12"/>
       <c r="L180" s="12"/>
       <c r="M180" s="12"/>
       <c r="N180" s="12"/>
       <c r="O180" s="12"/>
     </row>
-    <row r="181" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D181"/>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D181" s="12">
+        <v>43645</v>
+      </c>
+      <c r="E181" t="s">
+        <v>150</v>
+      </c>
       <c r="I181" s="3"/>
-      <c r="J181" s="12">
-        <v>43645</v>
-      </c>
+      <c r="J181" s="3"/>
       <c r="K181" s="12"/>
       <c r="L181" s="12"/>
       <c r="M181" s="12"/>
       <c r="N181" s="12"/>
       <c r="O181" s="12"/>
     </row>
-    <row r="182" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D182"/>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D182" s="12">
+        <v>43646</v>
+      </c>
+      <c r="E182" t="s">
+        <v>150</v>
+      </c>
       <c r="I182" s="3"/>
-      <c r="J182" s="12">
-        <v>43646</v>
-      </c>
+      <c r="J182" s="3"/>
       <c r="K182" s="12"/>
       <c r="L182" s="12"/>
       <c r="M182" s="12"/>
       <c r="N182" s="12"/>
       <c r="O182" s="12"/>
     </row>
-    <row r="183" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D183"/>
+    <row r="183" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>4398</v>
+      </c>
+      <c r="B183" t="s">
+        <v>764</v>
+      </c>
+      <c r="C183">
+        <v>8</v>
+      </c>
+      <c r="D183" s="12">
+        <v>43647</v>
+      </c>
+      <c r="E183" t="s">
+        <v>753</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>760</v>
+      </c>
       <c r="I183" s="3"/>
-      <c r="J183" s="12">
-        <v>43647</v>
-      </c>
+      <c r="J183" s="3"/>
       <c r="K183" s="12"/>
       <c r="L183" s="12"/>
       <c r="M183" s="12"/>
       <c r="N183" s="12"/>
       <c r="O183" s="12"/>
     </row>
-    <row r="184" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D184"/>
+    <row r="184" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>4398</v>
+      </c>
+      <c r="B184" t="s">
+        <v>764</v>
+      </c>
+      <c r="C184">
+        <v>8</v>
+      </c>
+      <c r="D184" s="12">
+        <v>43648</v>
+      </c>
+      <c r="E184" t="s">
+        <v>753</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>758</v>
+      </c>
       <c r="I184" s="3"/>
-      <c r="J184" s="12">
-        <v>43648</v>
-      </c>
+      <c r="J184" s="3"/>
       <c r="K184" s="12"/>
       <c r="L184" s="12"/>
       <c r="M184" s="12"/>
       <c r="N184" s="12"/>
       <c r="O184" s="12"/>
     </row>
-    <row r="185" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D185"/>
+    <row r="185" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>4398</v>
+      </c>
+      <c r="B185" t="s">
+        <v>764</v>
+      </c>
+      <c r="C185">
+        <v>8</v>
+      </c>
+      <c r="D185" s="12">
+        <v>43649</v>
+      </c>
+      <c r="E185" t="s">
+        <v>753</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>757</v>
+      </c>
       <c r="I185" s="3"/>
-      <c r="J185" s="12">
-        <v>43649</v>
-      </c>
+      <c r="J185" s="3"/>
       <c r="K185" s="12"/>
       <c r="L185" s="12"/>
       <c r="M185" s="12"/>
       <c r="N185" s="12"/>
       <c r="O185" s="12"/>
     </row>
-    <row r="186" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D186"/>
+    <row r="186" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>4398</v>
+      </c>
+      <c r="B186" t="s">
+        <v>764</v>
+      </c>
+      <c r="C186">
+        <v>8</v>
+      </c>
+      <c r="D186" s="12">
+        <v>43650</v>
+      </c>
+      <c r="E186" t="s">
+        <v>753</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>755</v>
+      </c>
       <c r="I186" s="3"/>
-      <c r="J186" s="12">
-        <v>43650</v>
-      </c>
+      <c r="J186" s="3"/>
       <c r="K186" s="12"/>
       <c r="L186" s="12"/>
       <c r="M186" s="12"/>
       <c r="N186" s="12"/>
       <c r="O186" s="12"/>
     </row>
-    <row r="187" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D187"/>
+    <row r="187" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B187" t="s">
+        <v>764</v>
+      </c>
+      <c r="D187" s="12">
+        <v>43651</v>
+      </c>
+      <c r="E187" t="s">
+        <v>752</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>765</v>
+      </c>
       <c r="I187" s="3"/>
-      <c r="J187" s="12">
-        <v>43651</v>
-      </c>
+      <c r="J187" s="3"/>
       <c r="K187" s="12"/>
       <c r="L187" s="12"/>
       <c r="M187" s="12"/>
       <c r="N187" s="12"/>
       <c r="O187" s="12"/>
     </row>
-    <row r="188" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D188"/>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D188" s="12">
+        <v>43652</v>
+      </c>
+      <c r="E188" t="s">
+        <v>150</v>
+      </c>
       <c r="I188" s="3"/>
-      <c r="J188" s="12">
-        <v>43652</v>
-      </c>
+      <c r="J188" s="3"/>
       <c r="K188" s="12"/>
       <c r="L188" s="12"/>
       <c r="M188" s="12"/>
       <c r="N188" s="12"/>
       <c r="O188" s="12"/>
     </row>
-    <row r="189" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D189"/>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D189" s="12">
+        <v>43653</v>
+      </c>
+      <c r="E189" t="s">
+        <v>150</v>
+      </c>
       <c r="I189" s="3"/>
-      <c r="J189" s="12">
-        <v>43653</v>
-      </c>
+      <c r="J189" s="3"/>
       <c r="K189" s="12"/>
       <c r="L189" s="12"/>
       <c r="M189" s="12"/>
       <c r="N189" s="12"/>
       <c r="O189" s="12"/>
     </row>
-    <row r="190" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D190"/>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D190" s="12">
+        <v>43654</v>
+      </c>
+      <c r="E190" t="s">
+        <v>752</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>767</v>
+      </c>
       <c r="I190" s="3"/>
-      <c r="J190" s="12">
-        <v>43654</v>
-      </c>
+      <c r="J190" s="3"/>
       <c r="K190" s="12"/>
       <c r="L190" s="12"/>
       <c r="M190" s="12"/>
       <c r="N190" s="12"/>
       <c r="O190" s="12"/>
     </row>
-    <row r="191" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D191"/>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D191" s="12">
+        <v>43655</v>
+      </c>
+      <c r="E191"/>
       <c r="I191" s="3"/>
-      <c r="J191" s="12">
-        <v>43655</v>
-      </c>
+      <c r="J191" s="3"/>
       <c r="K191" s="12"/>
       <c r="L191" s="12"/>
       <c r="M191" s="12"/>
       <c r="N191" s="12"/>
       <c r="O191" s="12"/>
     </row>
-    <row r="192" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D192"/>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D192" s="12">
+        <v>43656</v>
+      </c>
+      <c r="E192" t="s">
+        <v>768</v>
+      </c>
       <c r="I192" s="3"/>
-      <c r="J192" s="12">
-        <v>43656</v>
-      </c>
+      <c r="J192" s="3"/>
       <c r="K192" s="12"/>
       <c r="L192" s="12"/>
       <c r="M192" s="12"/>
       <c r="N192" s="12"/>
       <c r="O192" s="12"/>
     </row>
-    <row r="193" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D193"/>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D193" s="12">
+        <v>43657</v>
+      </c>
+      <c r="E193" t="s">
+        <v>766</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>769</v>
+      </c>
       <c r="I193" s="3"/>
-      <c r="J193" s="12">
-        <v>43657</v>
-      </c>
+      <c r="J193" s="3"/>
       <c r="K193" s="12"/>
       <c r="L193" s="12"/>
       <c r="M193" s="12"/>
       <c r="N193" s="12"/>
       <c r="O193" s="12"/>
     </row>
-    <row r="194" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D194"/>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D194" s="12">
+        <v>43658</v>
+      </c>
+      <c r="E194" t="s">
+        <v>766</v>
+      </c>
       <c r="I194" s="3"/>
-      <c r="J194" s="12">
-        <v>43658</v>
-      </c>
+      <c r="J194" s="3"/>
       <c r="K194" s="12"/>
       <c r="L194" s="12"/>
       <c r="M194" s="12"/>
       <c r="N194" s="12"/>
       <c r="O194" s="12"/>
     </row>
-    <row r="195" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D195"/>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D195" s="12">
+        <v>43659</v>
+      </c>
+      <c r="E195" t="s">
+        <v>150</v>
+      </c>
       <c r="I195" s="3"/>
-      <c r="J195" s="12">
-        <v>43659</v>
-      </c>
+      <c r="J195" s="3"/>
       <c r="K195" s="12"/>
       <c r="L195" s="12"/>
       <c r="M195" s="12"/>
       <c r="N195" s="12"/>
       <c r="O195" s="12"/>
     </row>
-    <row r="196" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D196"/>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D196" s="12">
+        <v>43660</v>
+      </c>
+      <c r="E196" t="s">
+        <v>150</v>
+      </c>
       <c r="I196" s="3"/>
-      <c r="J196" s="12">
-        <v>43660</v>
-      </c>
+      <c r="J196" s="3"/>
       <c r="K196" s="12"/>
       <c r="L196" s="12"/>
       <c r="M196" s="12"/>
       <c r="N196" s="12"/>
       <c r="O196" s="12"/>
     </row>
-    <row r="197" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D197"/>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D197" s="12">
+        <v>43661</v>
+      </c>
+      <c r="E197" t="s">
+        <v>766</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>770</v>
+      </c>
       <c r="I197" s="3"/>
-      <c r="J197" s="12">
-        <v>43661</v>
-      </c>
+      <c r="J197" s="3"/>
       <c r="K197" s="12"/>
       <c r="L197" s="12"/>
       <c r="M197" s="12"/>
       <c r="N197" s="12"/>
       <c r="O197" s="12"/>
     </row>
-    <row r="198" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D198"/>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B198" t="s">
+        <v>625</v>
+      </c>
+      <c r="C198">
+        <v>8</v>
+      </c>
+      <c r="D198" s="12">
+        <v>43662</v>
+      </c>
+      <c r="E198" t="s">
+        <v>766</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>771</v>
+      </c>
       <c r="I198" s="3"/>
-      <c r="J198" s="12">
-        <v>43662</v>
-      </c>
+      <c r="J198" s="3"/>
       <c r="K198" s="12"/>
       <c r="L198" s="12"/>
       <c r="M198" s="12"/>
       <c r="N198" s="12"/>
       <c r="O198" s="12"/>
     </row>
-    <row r="199" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D199"/>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>4092</v>
+      </c>
+      <c r="B199" t="s">
+        <v>625</v>
+      </c>
+      <c r="C199">
+        <v>8</v>
+      </c>
+      <c r="D199" s="12">
+        <v>43663</v>
+      </c>
+      <c r="E199" t="s">
+        <v>772</v>
+      </c>
       <c r="I199" s="3"/>
-      <c r="J199" s="12">
-        <v>43663</v>
-      </c>
+      <c r="J199" s="3"/>
       <c r="K199" s="12"/>
       <c r="L199" s="12"/>
       <c r="M199" s="12"/>
       <c r="N199" s="12"/>
       <c r="O199" s="12"/>
     </row>
-    <row r="200" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D200"/>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D200" s="12">
+        <v>43664</v>
+      </c>
+      <c r="E200"/>
       <c r="I200" s="3"/>
-      <c r="J200" s="12">
-        <v>43664</v>
-      </c>
+      <c r="J200" s="3"/>
       <c r="K200" s="12"/>
       <c r="L200" s="12"/>
       <c r="M200" s="12"/>
       <c r="N200" s="12"/>
       <c r="O200" s="12"/>
     </row>
-    <row r="201" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D201"/>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D201" s="12">
+        <v>43665</v>
+      </c>
+      <c r="E201"/>
       <c r="I201" s="3"/>
-      <c r="J201" s="12">
-        <v>43665</v>
-      </c>
+      <c r="J201" s="3"/>
       <c r="K201" s="12"/>
       <c r="L201" s="12"/>
       <c r="M201" s="12"/>
       <c r="N201" s="12"/>
       <c r="O201" s="12"/>
     </row>
-    <row r="202" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D202"/>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D202" s="12">
+        <v>43666</v>
+      </c>
+      <c r="E202"/>
       <c r="I202" s="3"/>
-      <c r="J202" s="12">
-        <v>43666</v>
-      </c>
+      <c r="J202" s="3"/>
       <c r="K202" s="12"/>
       <c r="L202" s="12"/>
       <c r="M202" s="12"/>
       <c r="N202" s="12"/>
       <c r="O202" s="12"/>
     </row>
-    <row r="203" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D203"/>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D203" s="12">
+        <v>43667</v>
+      </c>
+      <c r="E203"/>
       <c r="I203" s="3"/>
-      <c r="J203" s="12">
-        <v>43667</v>
-      </c>
+      <c r="J203" s="3"/>
       <c r="K203" s="12"/>
       <c r="L203" s="12"/>
       <c r="M203" s="12"/>
       <c r="N203" s="12"/>
       <c r="O203" s="12"/>
     </row>
-    <row r="204" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D204"/>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D204" s="12">
+        <v>43668</v>
+      </c>
+      <c r="E204"/>
       <c r="I204" s="3"/>
-      <c r="J204" s="12">
-        <v>43668</v>
-      </c>
+      <c r="J204" s="3"/>
       <c r="K204" s="12"/>
       <c r="L204" s="12"/>
       <c r="M204" s="12"/>
       <c r="N204" s="12"/>
       <c r="O204" s="12"/>
     </row>
-    <row r="205" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D205"/>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D205" s="12">
+        <v>43669</v>
+      </c>
+      <c r="E205"/>
       <c r="I205" s="3"/>
-      <c r="J205" s="12">
-        <v>43669</v>
-      </c>
+      <c r="J205" s="3"/>
       <c r="K205" s="12"/>
       <c r="L205" s="12"/>
       <c r="M205" s="12"/>
       <c r="N205" s="12"/>
       <c r="O205" s="12"/>
     </row>
-    <row r="206" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D206"/>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D206" s="12">
+        <v>43670</v>
+      </c>
+      <c r="E206"/>
       <c r="I206" s="3"/>
-      <c r="J206" s="12">
-        <v>43670</v>
-      </c>
+      <c r="J206" s="3"/>
       <c r="K206" s="12"/>
       <c r="L206" s="12"/>
       <c r="M206" s="12"/>
       <c r="N206" s="12"/>
       <c r="O206" s="12"/>
     </row>
-    <row r="207" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D207"/>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D207" s="12">
+        <v>43671</v>
+      </c>
+      <c r="E207"/>
       <c r="I207" s="3"/>
-      <c r="J207" s="12">
-        <v>43671</v>
-      </c>
+      <c r="J207" s="3"/>
       <c r="K207" s="12"/>
       <c r="L207" s="12"/>
       <c r="M207" s="12"/>
       <c r="N207" s="12"/>
       <c r="O207" s="12"/>
     </row>
-    <row r="208" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D208"/>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D208" s="12">
+        <v>43672</v>
+      </c>
+      <c r="E208"/>
       <c r="I208" s="3"/>
-      <c r="J208" s="12">
-        <v>43672</v>
-      </c>
+      <c r="J208" s="3"/>
       <c r="K208" s="12"/>
       <c r="L208" s="12"/>
       <c r="M208" s="12"/>
@@ -14434,11 +16349,12 @@
       <c r="O208" s="12"/>
     </row>
     <row r="209" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D209"/>
+      <c r="D209" s="12">
+        <v>43673</v>
+      </c>
+      <c r="E209"/>
       <c r="I209" s="3"/>
-      <c r="J209" s="12">
-        <v>43673</v>
-      </c>
+      <c r="J209" s="3"/>
       <c r="K209" s="12"/>
       <c r="L209" s="12"/>
       <c r="M209" s="12"/>
@@ -14446,11 +16362,12 @@
       <c r="O209" s="12"/>
     </row>
     <row r="210" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D210"/>
+      <c r="D210" s="12">
+        <v>43674</v>
+      </c>
+      <c r="E210"/>
       <c r="I210" s="3"/>
-      <c r="J210" s="12">
-        <v>43674</v>
-      </c>
+      <c r="J210" s="3"/>
       <c r="K210" s="12"/>
       <c r="L210" s="12"/>
       <c r="M210" s="12"/>
@@ -14458,11 +16375,12 @@
       <c r="O210" s="12"/>
     </row>
     <row r="211" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D211"/>
+      <c r="D211" s="12">
+        <v>43675</v>
+      </c>
+      <c r="E211"/>
       <c r="I211" s="3"/>
-      <c r="J211" s="12">
-        <v>43675</v>
-      </c>
+      <c r="J211" s="3"/>
       <c r="K211" s="12"/>
       <c r="L211" s="12"/>
       <c r="M211" s="12"/>
@@ -14470,11 +16388,12 @@
       <c r="O211" s="12"/>
     </row>
     <row r="212" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D212"/>
+      <c r="D212" s="12">
+        <v>43676</v>
+      </c>
+      <c r="E212"/>
       <c r="I212" s="3"/>
-      <c r="J212" s="12">
-        <v>43676</v>
-      </c>
+      <c r="J212" s="3"/>
       <c r="K212" s="12"/>
       <c r="L212" s="12"/>
       <c r="M212" s="12"/>
@@ -14482,11 +16401,12 @@
       <c r="O212" s="12"/>
     </row>
     <row r="213" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D213"/>
+      <c r="D213" s="12">
+        <v>43677</v>
+      </c>
+      <c r="E213"/>
       <c r="I213" s="3"/>
-      <c r="J213" s="12">
-        <v>43677</v>
-      </c>
+      <c r="J213" s="3"/>
       <c r="K213" s="12"/>
       <c r="L213" s="12"/>
       <c r="M213" s="12"/>
@@ -14494,11 +16414,12 @@
       <c r="O213" s="12"/>
     </row>
     <row r="214" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D214"/>
+      <c r="D214" s="12">
+        <v>43678</v>
+      </c>
+      <c r="E214"/>
       <c r="I214" s="3"/>
-      <c r="J214" s="12">
-        <v>43678</v>
-      </c>
+      <c r="J214" s="3"/>
       <c r="K214" s="12"/>
       <c r="L214" s="12"/>
       <c r="M214" s="12"/>
@@ -14506,11 +16427,12 @@
       <c r="O214" s="12"/>
     </row>
     <row r="215" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D215"/>
+      <c r="D215" s="12">
+        <v>43679</v>
+      </c>
+      <c r="E215"/>
       <c r="I215" s="3"/>
-      <c r="J215" s="12">
-        <v>43679</v>
-      </c>
+      <c r="J215" s="3"/>
       <c r="K215" s="12"/>
       <c r="L215" s="12"/>
       <c r="M215" s="12"/>
@@ -14518,11 +16440,12 @@
       <c r="O215" s="12"/>
     </row>
     <row r="216" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D216"/>
+      <c r="D216" s="12">
+        <v>43680</v>
+      </c>
+      <c r="E216"/>
       <c r="I216" s="3"/>
-      <c r="J216" s="12">
-        <v>43680</v>
-      </c>
+      <c r="J216" s="3"/>
       <c r="K216" s="12"/>
       <c r="L216" s="12"/>
       <c r="M216" s="12"/>
@@ -14530,11 +16453,12 @@
       <c r="O216" s="12"/>
     </row>
     <row r="217" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D217"/>
+      <c r="D217" s="12">
+        <v>43681</v>
+      </c>
+      <c r="E217"/>
       <c r="I217" s="3"/>
-      <c r="J217" s="12">
-        <v>43681</v>
-      </c>
+      <c r="J217" s="3"/>
       <c r="K217" s="12"/>
       <c r="L217" s="12"/>
       <c r="M217" s="12"/>
@@ -14542,11 +16466,12 @@
       <c r="O217" s="12"/>
     </row>
     <row r="218" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D218"/>
+      <c r="D218" s="12">
+        <v>43682</v>
+      </c>
+      <c r="E218"/>
       <c r="I218" s="3"/>
-      <c r="J218" s="12">
-        <v>43682</v>
-      </c>
+      <c r="J218" s="3"/>
       <c r="K218" s="12"/>
       <c r="L218" s="12"/>
       <c r="M218" s="12"/>
@@ -14554,11 +16479,12 @@
       <c r="O218" s="12"/>
     </row>
     <row r="219" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D219"/>
+      <c r="D219" s="12">
+        <v>43683</v>
+      </c>
+      <c r="E219"/>
       <c r="I219" s="3"/>
-      <c r="J219" s="12">
-        <v>43683</v>
-      </c>
+      <c r="J219" s="3"/>
       <c r="K219" s="12"/>
       <c r="L219" s="12"/>
       <c r="M219" s="12"/>
@@ -14566,11 +16492,12 @@
       <c r="O219" s="12"/>
     </row>
     <row r="220" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D220"/>
+      <c r="D220" s="12">
+        <v>43684</v>
+      </c>
+      <c r="E220"/>
       <c r="I220" s="3"/>
-      <c r="J220" s="12">
-        <v>43684</v>
-      </c>
+      <c r="J220" s="3"/>
       <c r="K220" s="12"/>
       <c r="L220" s="12"/>
       <c r="M220" s="12"/>
@@ -14578,11 +16505,12 @@
       <c r="O220" s="12"/>
     </row>
     <row r="221" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D221"/>
+      <c r="D221" s="12">
+        <v>43685</v>
+      </c>
+      <c r="E221"/>
       <c r="I221" s="3"/>
-      <c r="J221" s="12">
-        <v>43685</v>
-      </c>
+      <c r="J221" s="3"/>
       <c r="K221" s="12"/>
       <c r="L221" s="12"/>
       <c r="M221" s="12"/>
@@ -14590,11 +16518,12 @@
       <c r="O221" s="12"/>
     </row>
     <row r="222" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D222"/>
+      <c r="D222" s="12">
+        <v>43686</v>
+      </c>
+      <c r="E222"/>
       <c r="I222" s="3"/>
-      <c r="J222" s="12">
-        <v>43686</v>
-      </c>
+      <c r="J222" s="3"/>
       <c r="K222" s="12"/>
       <c r="L222" s="12"/>
       <c r="M222" s="12"/>
@@ -14602,11 +16531,12 @@
       <c r="O222" s="12"/>
     </row>
     <row r="223" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D223"/>
+      <c r="D223" s="12">
+        <v>43687</v>
+      </c>
+      <c r="E223"/>
       <c r="I223" s="3"/>
-      <c r="J223" s="12">
-        <v>43687</v>
-      </c>
+      <c r="J223" s="3"/>
       <c r="K223" s="12"/>
       <c r="L223" s="12"/>
       <c r="M223" s="12"/>
@@ -14614,11 +16544,12 @@
       <c r="O223" s="12"/>
     </row>
     <row r="224" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D224"/>
+      <c r="D224" s="12">
+        <v>43688</v>
+      </c>
+      <c r="E224"/>
       <c r="I224" s="3"/>
-      <c r="J224" s="12">
-        <v>43688</v>
-      </c>
+      <c r="J224" s="3"/>
       <c r="K224" s="12"/>
       <c r="L224" s="12"/>
       <c r="M224" s="12"/>
@@ -14626,11 +16557,12 @@
       <c r="O224" s="12"/>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D225"/>
+      <c r="D225" s="12">
+        <v>43689</v>
+      </c>
+      <c r="E225"/>
       <c r="I225" s="3"/>
-      <c r="J225" s="12">
-        <v>43689</v>
-      </c>
+      <c r="J225" s="3"/>
       <c r="K225" s="12"/>
       <c r="L225" s="12"/>
       <c r="M225" s="12"/>
@@ -14638,11 +16570,12 @@
       <c r="O225" s="12"/>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D226"/>
+      <c r="D226" s="12">
+        <v>43690</v>
+      </c>
+      <c r="E226"/>
       <c r="I226" s="3"/>
-      <c r="J226" s="12">
-        <v>43690</v>
-      </c>
+      <c r="J226" s="3"/>
       <c r="K226" s="12"/>
       <c r="L226" s="12"/>
       <c r="M226" s="12"/>
@@ -14650,11 +16583,12 @@
       <c r="O226" s="12"/>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D227"/>
+      <c r="D227" s="12">
+        <v>43691</v>
+      </c>
+      <c r="E227"/>
       <c r="I227" s="3"/>
-      <c r="J227" s="12">
-        <v>43691</v>
-      </c>
+      <c r="J227" s="3"/>
       <c r="K227" s="12"/>
       <c r="L227" s="12"/>
       <c r="M227" s="12"/>
@@ -14665,13 +16599,14 @@
       <c r="A228" t="s">
         <v>327</v>
       </c>
-      <c r="D228" t="s">
-        <v>602</v>
+      <c r="D228" s="12">
+        <v>43692</v>
+      </c>
+      <c r="E228" t="s">
+        <v>598</v>
       </c>
       <c r="I228" s="3"/>
-      <c r="J228" s="12">
-        <v>43692</v>
-      </c>
+      <c r="J228" s="3"/>
       <c r="K228" s="12"/>
       <c r="L228" s="12"/>
       <c r="M228" s="12"/>
@@ -14679,11 +16614,12 @@
       <c r="O228" s="12"/>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D229"/>
+      <c r="D229" s="12">
+        <v>43693</v>
+      </c>
+      <c r="E229"/>
       <c r="I229" s="3"/>
-      <c r="J229" s="12">
-        <v>43693</v>
-      </c>
+      <c r="J229" s="3"/>
       <c r="K229" s="12"/>
       <c r="L229" s="12"/>
       <c r="M229" s="12"/>
@@ -14691,11 +16627,12 @@
       <c r="O229" s="12"/>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D230"/>
+      <c r="D230" s="12">
+        <v>43694</v>
+      </c>
+      <c r="E230"/>
       <c r="I230" s="3"/>
-      <c r="J230" s="12">
-        <v>43694</v>
-      </c>
+      <c r="J230" s="3"/>
       <c r="K230" s="12"/>
       <c r="L230" s="12"/>
       <c r="M230" s="12"/>
@@ -14703,11 +16640,12 @@
       <c r="O230" s="12"/>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D231"/>
+      <c r="D231" s="12">
+        <v>43695</v>
+      </c>
+      <c r="E231"/>
       <c r="I231" s="3"/>
-      <c r="J231" s="12">
-        <v>43695</v>
-      </c>
+      <c r="J231" s="3"/>
       <c r="K231" s="12"/>
       <c r="L231" s="12"/>
       <c r="M231" s="12"/>
@@ -14715,11 +16653,12 @@
       <c r="O231" s="12"/>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D232"/>
+      <c r="D232" s="12">
+        <v>43696</v>
+      </c>
+      <c r="E232"/>
       <c r="I232" s="3"/>
-      <c r="J232" s="12">
-        <v>43696</v>
-      </c>
+      <c r="J232" s="3"/>
       <c r="K232" s="12"/>
       <c r="L232" s="12"/>
       <c r="M232" s="12"/>
@@ -14727,11 +16666,12 @@
       <c r="O232" s="12"/>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D233"/>
+      <c r="D233" s="12">
+        <v>43697</v>
+      </c>
+      <c r="E233"/>
       <c r="I233" s="3"/>
-      <c r="J233" s="12">
-        <v>43697</v>
-      </c>
+      <c r="J233" s="3"/>
       <c r="K233" s="12"/>
       <c r="L233" s="12"/>
       <c r="M233" s="12"/>
@@ -14739,11 +16679,12 @@
       <c r="O233" s="12"/>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D234"/>
+      <c r="D234" s="12">
+        <v>43698</v>
+      </c>
+      <c r="E234"/>
       <c r="I234" s="3"/>
-      <c r="J234" s="12">
-        <v>43698</v>
-      </c>
+      <c r="J234" s="3"/>
       <c r="K234" s="12"/>
       <c r="L234" s="12"/>
       <c r="M234" s="12"/>
@@ -14751,11 +16692,12 @@
       <c r="O234" s="12"/>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D235"/>
+      <c r="D235" s="12">
+        <v>43699</v>
+      </c>
+      <c r="E235"/>
       <c r="I235" s="3"/>
-      <c r="J235" s="12">
-        <v>43699</v>
-      </c>
+      <c r="J235" s="3"/>
       <c r="K235" s="12"/>
       <c r="L235" s="12"/>
       <c r="M235" s="12"/>
@@ -14763,11 +16705,12 @@
       <c r="O235" s="12"/>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D236"/>
+      <c r="D236" s="12">
+        <v>43700</v>
+      </c>
+      <c r="E236"/>
       <c r="I236" s="3"/>
-      <c r="J236" s="12">
-        <v>43700</v>
-      </c>
+      <c r="J236" s="3"/>
       <c r="K236" s="12"/>
       <c r="L236" s="12"/>
       <c r="M236" s="12"/>
@@ -14775,11 +16718,12 @@
       <c r="O236" s="12"/>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D237"/>
+      <c r="D237" s="12">
+        <v>43701</v>
+      </c>
+      <c r="E237"/>
       <c r="I237" s="3"/>
-      <c r="J237" s="12">
-        <v>43701</v>
-      </c>
+      <c r="J237" s="3"/>
       <c r="K237" s="12"/>
       <c r="L237" s="12"/>
       <c r="M237" s="12"/>
@@ -14787,11 +16731,12 @@
       <c r="O237" s="12"/>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D238"/>
+      <c r="D238" s="12">
+        <v>43702</v>
+      </c>
+      <c r="E238"/>
       <c r="I238" s="3"/>
-      <c r="J238" s="12">
-        <v>43702</v>
-      </c>
+      <c r="J238" s="3"/>
       <c r="K238" s="12"/>
       <c r="L238" s="12"/>
       <c r="M238" s="12"/>
@@ -14799,11 +16744,12 @@
       <c r="O238" s="12"/>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D239"/>
+      <c r="D239" s="12">
+        <v>43703</v>
+      </c>
+      <c r="E239"/>
       <c r="I239" s="3"/>
-      <c r="J239" s="12">
-        <v>43703</v>
-      </c>
+      <c r="J239" s="3"/>
       <c r="K239" s="12"/>
       <c r="L239" s="12"/>
       <c r="M239" s="12"/>
@@ -14811,11 +16757,12 @@
       <c r="O239" s="12"/>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D240"/>
+      <c r="D240" s="12">
+        <v>43704</v>
+      </c>
+      <c r="E240"/>
       <c r="I240" s="3"/>
-      <c r="J240" s="12">
-        <v>43704</v>
-      </c>
+      <c r="J240" s="3"/>
       <c r="K240" s="12"/>
       <c r="L240" s="12"/>
       <c r="M240" s="12"/>
@@ -14823,11 +16770,12 @@
       <c r="O240" s="12"/>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D241"/>
+      <c r="D241" s="12">
+        <v>43705</v>
+      </c>
+      <c r="E241"/>
       <c r="I241" s="3"/>
-      <c r="J241" s="12">
-        <v>43705</v>
-      </c>
+      <c r="J241" s="3"/>
       <c r="K241" s="12"/>
       <c r="L241" s="12"/>
       <c r="M241" s="12"/>
@@ -14835,11 +16783,12 @@
       <c r="O241" s="12"/>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D242"/>
+      <c r="D242" s="12">
+        <v>43706</v>
+      </c>
+      <c r="E242"/>
       <c r="I242" s="3"/>
-      <c r="J242" s="12">
-        <v>43706</v>
-      </c>
+      <c r="J242" s="3"/>
       <c r="K242" s="12"/>
       <c r="L242" s="12"/>
       <c r="M242" s="12"/>
@@ -14847,11 +16796,12 @@
       <c r="O242" s="12"/>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D243"/>
+      <c r="D243" s="12">
+        <v>43707</v>
+      </c>
+      <c r="E243"/>
       <c r="I243" s="3"/>
-      <c r="J243" s="12">
-        <v>43707</v>
-      </c>
+      <c r="J243" s="3"/>
       <c r="K243" s="12"/>
       <c r="L243" s="12"/>
       <c r="M243" s="12"/>
@@ -14859,11 +16809,12 @@
       <c r="O243" s="12"/>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D244"/>
+      <c r="D244" s="12">
+        <v>43708</v>
+      </c>
+      <c r="E244"/>
       <c r="I244" s="3"/>
-      <c r="J244" s="12">
-        <v>43708</v>
-      </c>
+      <c r="J244" s="3"/>
       <c r="K244" s="12"/>
       <c r="L244" s="12"/>
       <c r="M244" s="12"/>
@@ -14871,11 +16822,12 @@
       <c r="O244" s="12"/>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D245"/>
+      <c r="D245" s="12">
+        <v>43709</v>
+      </c>
+      <c r="E245"/>
       <c r="I245" s="3"/>
-      <c r="J245" s="12">
-        <v>43709</v>
-      </c>
+      <c r="J245" s="3"/>
       <c r="K245" s="12"/>
       <c r="L245" s="12"/>
       <c r="M245" s="12"/>
@@ -14886,13 +16838,14 @@
       <c r="A246" t="s">
         <v>327</v>
       </c>
-      <c r="D246" t="s">
-        <v>603</v>
+      <c r="D246" s="12">
+        <v>43710</v>
+      </c>
+      <c r="E246" t="s">
+        <v>599</v>
       </c>
       <c r="I246" s="3"/>
-      <c r="J246" s="12">
-        <v>43710</v>
-      </c>
+      <c r="J246" s="3"/>
       <c r="K246" s="12"/>
       <c r="L246" s="12"/>
       <c r="M246" s="12"/>
@@ -14900,11 +16853,12 @@
       <c r="O246" s="12"/>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D247"/>
+      <c r="D247" s="12">
+        <v>43711</v>
+      </c>
+      <c r="E247"/>
       <c r="I247" s="3"/>
-      <c r="J247" s="12">
-        <v>43711</v>
-      </c>
+      <c r="J247" s="3"/>
       <c r="K247" s="12"/>
       <c r="L247" s="12"/>
       <c r="M247" s="12"/>
@@ -14912,11 +16866,12 @@
       <c r="O247" s="12"/>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D248"/>
+      <c r="D248" s="12">
+        <v>43712</v>
+      </c>
+      <c r="E248"/>
       <c r="I248" s="3"/>
-      <c r="J248" s="12">
-        <v>43712</v>
-      </c>
+      <c r="J248" s="3"/>
       <c r="K248" s="12"/>
       <c r="L248" s="12"/>
       <c r="M248" s="12"/>
@@ -14924,11 +16879,12 @@
       <c r="O248" s="12"/>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D249"/>
+      <c r="D249" s="12">
+        <v>43713</v>
+      </c>
+      <c r="E249"/>
       <c r="I249" s="3"/>
-      <c r="J249" s="12">
-        <v>43713</v>
-      </c>
+      <c r="J249" s="3"/>
       <c r="K249" s="12"/>
       <c r="L249" s="12"/>
       <c r="M249" s="12"/>
@@ -14936,11 +16892,12 @@
       <c r="O249" s="12"/>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D250"/>
+      <c r="D250" s="12">
+        <v>43714</v>
+      </c>
+      <c r="E250"/>
       <c r="I250" s="3"/>
-      <c r="J250" s="12">
-        <v>43714</v>
-      </c>
+      <c r="J250" s="3"/>
       <c r="K250" s="12"/>
       <c r="L250" s="12"/>
       <c r="M250" s="12"/>
@@ -14948,11 +16905,12 @@
       <c r="O250" s="12"/>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D251"/>
+      <c r="D251" s="12">
+        <v>43715</v>
+      </c>
+      <c r="E251"/>
       <c r="I251" s="3"/>
-      <c r="J251" s="12">
-        <v>43715</v>
-      </c>
+      <c r="J251" s="3"/>
       <c r="K251" s="12"/>
       <c r="L251" s="12"/>
       <c r="M251" s="12"/>
@@ -14960,11 +16918,12 @@
       <c r="O251" s="12"/>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D252"/>
+      <c r="D252" s="12">
+        <v>43716</v>
+      </c>
+      <c r="E252"/>
       <c r="I252" s="3"/>
-      <c r="J252" s="12">
-        <v>43716</v>
-      </c>
+      <c r="J252" s="3"/>
       <c r="K252" s="12"/>
       <c r="L252" s="12"/>
       <c r="M252" s="12"/>
@@ -14972,11 +16931,12 @@
       <c r="O252" s="12"/>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D253"/>
+      <c r="D253" s="12">
+        <v>43717</v>
+      </c>
+      <c r="E253"/>
       <c r="I253" s="3"/>
-      <c r="J253" s="12">
-        <v>43717</v>
-      </c>
+      <c r="J253" s="3"/>
       <c r="K253" s="12"/>
       <c r="L253" s="12"/>
       <c r="M253" s="12"/>
@@ -14984,11 +16944,12 @@
       <c r="O253" s="12"/>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D254"/>
+      <c r="D254" s="12">
+        <v>43718</v>
+      </c>
+      <c r="E254"/>
       <c r="I254" s="3"/>
-      <c r="J254" s="12">
-        <v>43718</v>
-      </c>
+      <c r="J254" s="3"/>
       <c r="K254" s="12"/>
       <c r="L254" s="12"/>
       <c r="M254" s="12"/>
@@ -14996,11 +16957,12 @@
       <c r="O254" s="12"/>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D255"/>
+      <c r="D255" s="12">
+        <v>43719</v>
+      </c>
+      <c r="E255"/>
       <c r="I255" s="3"/>
-      <c r="J255" s="12">
-        <v>43719</v>
-      </c>
+      <c r="J255" s="3"/>
       <c r="K255" s="12"/>
       <c r="L255" s="12"/>
       <c r="M255" s="12"/>
@@ -15008,11 +16970,12 @@
       <c r="O255" s="12"/>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D256"/>
+      <c r="D256" s="12">
+        <v>43720</v>
+      </c>
+      <c r="E256"/>
       <c r="I256" s="3"/>
-      <c r="J256" s="12">
-        <v>43720</v>
-      </c>
+      <c r="J256" s="3"/>
       <c r="K256" s="12"/>
       <c r="L256" s="12"/>
       <c r="M256" s="12"/>
@@ -15020,11 +16983,12 @@
       <c r="O256" s="12"/>
     </row>
     <row r="257" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D257"/>
+      <c r="D257" s="12">
+        <v>43721</v>
+      </c>
+      <c r="E257"/>
       <c r="I257" s="3"/>
-      <c r="J257" s="12">
-        <v>43721</v>
-      </c>
+      <c r="J257" s="3"/>
       <c r="K257" s="12"/>
       <c r="L257" s="12"/>
       <c r="M257" s="12"/>
@@ -15032,11 +16996,12 @@
       <c r="O257" s="12"/>
     </row>
     <row r="258" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D258"/>
+      <c r="D258" s="12">
+        <v>43722</v>
+      </c>
+      <c r="E258"/>
       <c r="I258" s="3"/>
-      <c r="J258" s="12">
-        <v>43722</v>
-      </c>
+      <c r="J258" s="3"/>
       <c r="K258" s="12"/>
       <c r="L258" s="12"/>
       <c r="M258" s="12"/>
@@ -15044,11 +17009,12 @@
       <c r="O258" s="12"/>
     </row>
     <row r="259" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D259"/>
+      <c r="D259" s="12">
+        <v>43723</v>
+      </c>
+      <c r="E259"/>
       <c r="I259" s="3"/>
-      <c r="J259" s="12">
-        <v>43723</v>
-      </c>
+      <c r="J259" s="3"/>
       <c r="K259" s="12"/>
       <c r="L259" s="12"/>
       <c r="M259" s="12"/>
@@ -15056,11 +17022,12 @@
       <c r="O259" s="12"/>
     </row>
     <row r="260" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D260"/>
+      <c r="D260" s="12">
+        <v>43724</v>
+      </c>
+      <c r="E260"/>
       <c r="I260" s="3"/>
-      <c r="J260" s="12">
-        <v>43724</v>
-      </c>
+      <c r="J260" s="3"/>
       <c r="K260" s="12"/>
       <c r="L260" s="12"/>
       <c r="M260" s="12"/>
@@ -15068,11 +17035,12 @@
       <c r="O260" s="12"/>
     </row>
     <row r="261" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D261"/>
+      <c r="D261" s="12">
+        <v>43725</v>
+      </c>
+      <c r="E261"/>
       <c r="I261" s="3"/>
-      <c r="J261" s="12">
-        <v>43725</v>
-      </c>
+      <c r="J261" s="3"/>
       <c r="K261" s="12"/>
       <c r="L261" s="12"/>
       <c r="M261" s="12"/>
@@ -15080,11 +17048,12 @@
       <c r="O261" s="12"/>
     </row>
     <row r="262" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D262"/>
+      <c r="D262" s="12">
+        <v>43726</v>
+      </c>
+      <c r="E262"/>
       <c r="I262" s="3"/>
-      <c r="J262" s="12">
-        <v>43726</v>
-      </c>
+      <c r="J262" s="3"/>
       <c r="K262" s="12"/>
       <c r="L262" s="12"/>
       <c r="M262" s="12"/>
@@ -15092,11 +17061,12 @@
       <c r="O262" s="12"/>
     </row>
     <row r="263" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D263"/>
+      <c r="D263" s="12">
+        <v>43727</v>
+      </c>
+      <c r="E263"/>
       <c r="I263" s="3"/>
-      <c r="J263" s="12">
-        <v>43727</v>
-      </c>
+      <c r="J263" s="3"/>
       <c r="K263" s="12"/>
       <c r="L263" s="12"/>
       <c r="M263" s="12"/>
@@ -15104,11 +17074,12 @@
       <c r="O263" s="12"/>
     </row>
     <row r="264" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D264"/>
+      <c r="D264" s="12">
+        <v>43728</v>
+      </c>
+      <c r="E264"/>
       <c r="I264" s="3"/>
-      <c r="J264" s="12">
-        <v>43728</v>
-      </c>
+      <c r="J264" s="3"/>
       <c r="K264" s="12"/>
       <c r="L264" s="12"/>
       <c r="M264" s="12"/>
@@ -15116,11 +17087,12 @@
       <c r="O264" s="12"/>
     </row>
     <row r="265" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D265"/>
+      <c r="D265" s="12">
+        <v>43729</v>
+      </c>
+      <c r="E265"/>
       <c r="I265" s="3"/>
-      <c r="J265" s="12">
-        <v>43729</v>
-      </c>
+      <c r="J265" s="3"/>
       <c r="K265" s="12"/>
       <c r="L265" s="12"/>
       <c r="M265" s="12"/>
@@ -15128,11 +17100,12 @@
       <c r="O265" s="12"/>
     </row>
     <row r="266" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D266"/>
+      <c r="D266" s="12">
+        <v>43730</v>
+      </c>
+      <c r="E266"/>
       <c r="I266" s="3"/>
-      <c r="J266" s="12">
-        <v>43730</v>
-      </c>
+      <c r="J266" s="3"/>
       <c r="K266" s="12"/>
       <c r="L266" s="12"/>
       <c r="M266" s="12"/>
@@ -15140,11 +17113,12 @@
       <c r="O266" s="12"/>
     </row>
     <row r="267" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D267"/>
+      <c r="D267" s="12">
+        <v>43731</v>
+      </c>
+      <c r="E267"/>
       <c r="I267" s="3"/>
-      <c r="J267" s="12">
-        <v>43731</v>
-      </c>
+      <c r="J267" s="3"/>
       <c r="K267" s="12"/>
       <c r="L267" s="12"/>
       <c r="M267" s="12"/>
@@ -15152,11 +17126,12 @@
       <c r="O267" s="12"/>
     </row>
     <row r="268" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D268"/>
+      <c r="D268" s="12">
+        <v>43732</v>
+      </c>
+      <c r="E268"/>
       <c r="I268" s="3"/>
-      <c r="J268" s="12">
-        <v>43732</v>
-      </c>
+      <c r="J268" s="3"/>
       <c r="K268" s="12"/>
       <c r="L268" s="12"/>
       <c r="M268" s="12"/>
@@ -15164,11 +17139,12 @@
       <c r="O268" s="12"/>
     </row>
     <row r="269" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D269"/>
+      <c r="D269" s="12">
+        <v>43733</v>
+      </c>
+      <c r="E269"/>
       <c r="I269" s="3"/>
-      <c r="J269" s="12">
-        <v>43733</v>
-      </c>
+      <c r="J269" s="3"/>
       <c r="K269" s="12"/>
       <c r="L269" s="12"/>
       <c r="M269" s="12"/>
@@ -15176,11 +17152,12 @@
       <c r="O269" s="12"/>
     </row>
     <row r="270" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D270"/>
+      <c r="D270" s="12">
+        <v>43734</v>
+      </c>
+      <c r="E270"/>
       <c r="I270" s="3"/>
-      <c r="J270" s="12">
-        <v>43734</v>
-      </c>
+      <c r="J270" s="3"/>
       <c r="K270" s="12"/>
       <c r="L270" s="12"/>
       <c r="M270" s="12"/>
@@ -15188,11 +17165,12 @@
       <c r="O270" s="12"/>
     </row>
     <row r="271" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D271"/>
+      <c r="D271" s="12">
+        <v>43735</v>
+      </c>
+      <c r="E271"/>
       <c r="I271" s="3"/>
-      <c r="J271" s="12">
-        <v>43735</v>
-      </c>
+      <c r="J271" s="3"/>
       <c r="K271" s="12"/>
       <c r="L271" s="12"/>
       <c r="M271" s="12"/>
@@ -15200,11 +17178,12 @@
       <c r="O271" s="12"/>
     </row>
     <row r="272" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D272"/>
+      <c r="D272" s="12">
+        <v>43736</v>
+      </c>
+      <c r="E272"/>
       <c r="I272" s="3"/>
-      <c r="J272" s="12">
-        <v>43736</v>
-      </c>
+      <c r="J272" s="3"/>
       <c r="K272" s="12"/>
       <c r="L272" s="12"/>
       <c r="M272" s="12"/>
@@ -15212,11 +17191,12 @@
       <c r="O272" s="12"/>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D273"/>
+      <c r="D273" s="12">
+        <v>43737</v>
+      </c>
+      <c r="E273"/>
       <c r="I273" s="3"/>
-      <c r="J273" s="12">
-        <v>43737</v>
-      </c>
+      <c r="J273" s="3"/>
       <c r="K273" s="12"/>
       <c r="L273" s="12"/>
       <c r="M273" s="12"/>
@@ -15224,11 +17204,12 @@
       <c r="O273" s="12"/>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D274"/>
+      <c r="D274" s="12">
+        <v>43738</v>
+      </c>
+      <c r="E274"/>
       <c r="I274" s="3"/>
-      <c r="J274" s="12">
-        <v>43738</v>
-      </c>
+      <c r="J274" s="3"/>
       <c r="K274" s="12"/>
       <c r="L274" s="12"/>
       <c r="M274" s="12"/>
@@ -15236,11 +17217,12 @@
       <c r="O274" s="12"/>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D275"/>
+      <c r="D275" s="12">
+        <v>43739</v>
+      </c>
+      <c r="E275"/>
       <c r="I275" s="3"/>
-      <c r="J275" s="12">
-        <v>43739</v>
-      </c>
+      <c r="J275" s="3"/>
       <c r="K275" s="12"/>
       <c r="L275" s="12"/>
       <c r="M275" s="12"/>
@@ -15251,13 +17233,14 @@
       <c r="A276" t="s">
         <v>327</v>
       </c>
-      <c r="D276" t="s">
-        <v>604</v>
+      <c r="D276" s="12">
+        <v>43740</v>
+      </c>
+      <c r="E276" t="s">
+        <v>600</v>
       </c>
       <c r="I276" s="3"/>
-      <c r="J276" s="12">
-        <v>43740</v>
-      </c>
+      <c r="J276" s="3"/>
       <c r="K276" s="12"/>
       <c r="L276" s="12"/>
       <c r="M276" s="12"/>
@@ -15265,11 +17248,12 @@
       <c r="O276" s="12"/>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D277"/>
+      <c r="D277" s="12">
+        <v>43741</v>
+      </c>
+      <c r="E277"/>
       <c r="I277" s="3"/>
-      <c r="J277" s="12">
-        <v>43741</v>
-      </c>
+      <c r="J277" s="3"/>
       <c r="K277" s="12"/>
       <c r="L277" s="12"/>
       <c r="M277" s="12"/>
@@ -15277,11 +17261,12 @@
       <c r="O277" s="12"/>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D278"/>
+      <c r="D278" s="12">
+        <v>43742</v>
+      </c>
+      <c r="E278"/>
       <c r="I278" s="3"/>
-      <c r="J278" s="12">
-        <v>43742</v>
-      </c>
+      <c r="J278" s="3"/>
       <c r="K278" s="12"/>
       <c r="L278" s="12"/>
       <c r="M278" s="12"/>
@@ -15289,11 +17274,12 @@
       <c r="O278" s="12"/>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D279"/>
+      <c r="D279" s="12">
+        <v>43743</v>
+      </c>
+      <c r="E279"/>
       <c r="I279" s="3"/>
-      <c r="J279" s="12">
-        <v>43743</v>
-      </c>
+      <c r="J279" s="3"/>
       <c r="K279" s="12"/>
       <c r="L279" s="12"/>
       <c r="M279" s="12"/>
@@ -15301,11 +17287,12 @@
       <c r="O279" s="12"/>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D280"/>
+      <c r="D280" s="12">
+        <v>43744</v>
+      </c>
+      <c r="E280"/>
       <c r="I280" s="3"/>
-      <c r="J280" s="12">
-        <v>43744</v>
-      </c>
+      <c r="J280" s="3"/>
       <c r="K280" s="12"/>
       <c r="L280" s="12"/>
       <c r="M280" s="12"/>
@@ -15316,13 +17303,14 @@
       <c r="A281" t="s">
         <v>327</v>
       </c>
-      <c r="D281" t="s">
-        <v>605</v>
+      <c r="D281" s="12">
+        <v>43745</v>
+      </c>
+      <c r="E281" t="s">
+        <v>601</v>
       </c>
       <c r="I281" s="3"/>
-      <c r="J281" s="12">
-        <v>43745</v>
-      </c>
+      <c r="J281" s="3"/>
       <c r="K281" s="12"/>
       <c r="L281" s="12"/>
       <c r="M281" s="12"/>
@@ -15333,13 +17321,14 @@
       <c r="A282" t="s">
         <v>327</v>
       </c>
-      <c r="D282" t="s">
-        <v>605</v>
+      <c r="D282" s="12">
+        <v>43746</v>
+      </c>
+      <c r="E282" t="s">
+        <v>601</v>
       </c>
       <c r="I282" s="3"/>
-      <c r="J282" s="12">
-        <v>43746</v>
-      </c>
+      <c r="J282" s="3"/>
       <c r="K282" s="12"/>
       <c r="L282" s="12"/>
       <c r="M282" s="12"/>
@@ -15347,11 +17336,12 @@
       <c r="O282" s="12"/>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D283"/>
+      <c r="D283" s="12">
+        <v>43747</v>
+      </c>
+      <c r="E283"/>
       <c r="I283" s="3"/>
-      <c r="J283" s="12">
-        <v>43747</v>
-      </c>
+      <c r="J283" s="3"/>
       <c r="K283" s="12"/>
       <c r="L283" s="12"/>
       <c r="M283" s="12"/>
@@ -15359,11 +17349,12 @@
       <c r="O283" s="12"/>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D284"/>
+      <c r="D284" s="12">
+        <v>43748</v>
+      </c>
+      <c r="E284"/>
       <c r="I284" s="3"/>
-      <c r="J284" s="12">
-        <v>43748</v>
-      </c>
+      <c r="J284" s="3"/>
       <c r="K284" s="12"/>
       <c r="L284" s="12"/>
       <c r="M284" s="12"/>
@@ -15371,11 +17362,12 @@
       <c r="O284" s="12"/>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D285"/>
+      <c r="D285" s="12">
+        <v>43749</v>
+      </c>
+      <c r="E285"/>
       <c r="I285" s="3"/>
-      <c r="J285" s="12">
-        <v>43749</v>
-      </c>
+      <c r="J285" s="3"/>
       <c r="K285" s="12"/>
       <c r="L285" s="12"/>
       <c r="M285" s="12"/>
@@ -15383,11 +17375,12 @@
       <c r="O285" s="12"/>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D286"/>
+      <c r="D286" s="12">
+        <v>43750</v>
+      </c>
+      <c r="E286"/>
       <c r="I286" s="3"/>
-      <c r="J286" s="12">
-        <v>43750</v>
-      </c>
+      <c r="J286" s="3"/>
       <c r="K286" s="12"/>
       <c r="L286" s="12"/>
       <c r="M286" s="12"/>
@@ -15395,11 +17388,12 @@
       <c r="O286" s="12"/>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D287"/>
+      <c r="D287" s="12">
+        <v>43751</v>
+      </c>
+      <c r="E287"/>
       <c r="I287" s="3"/>
-      <c r="J287" s="12">
-        <v>43751</v>
-      </c>
+      <c r="J287" s="3"/>
       <c r="K287" s="12"/>
       <c r="L287" s="12"/>
       <c r="M287" s="12"/>
@@ -15407,11 +17401,12 @@
       <c r="O287" s="12"/>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D288"/>
+      <c r="D288" s="12">
+        <v>43752</v>
+      </c>
+      <c r="E288"/>
       <c r="I288" s="3"/>
-      <c r="J288" s="12">
-        <v>43752</v>
-      </c>
+      <c r="J288" s="3"/>
       <c r="K288" s="12"/>
       <c r="L288" s="12"/>
       <c r="M288" s="12"/>
@@ -15419,11 +17414,12 @@
       <c r="O288" s="12"/>
     </row>
     <row r="289" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D289"/>
+      <c r="D289" s="12">
+        <v>43753</v>
+      </c>
+      <c r="E289"/>
       <c r="I289" s="3"/>
-      <c r="J289" s="12">
-        <v>43753</v>
-      </c>
+      <c r="J289" s="3"/>
       <c r="K289" s="12"/>
       <c r="L289" s="12"/>
       <c r="M289" s="12"/>
@@ -15431,11 +17427,12 @@
       <c r="O289" s="12"/>
     </row>
     <row r="290" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D290"/>
+      <c r="D290" s="12">
+        <v>43754</v>
+      </c>
+      <c r="E290"/>
       <c r="I290" s="3"/>
-      <c r="J290" s="12">
-        <v>43754</v>
-      </c>
+      <c r="J290" s="3"/>
       <c r="K290" s="12"/>
       <c r="L290" s="12"/>
       <c r="M290" s="12"/>
@@ -15443,11 +17440,12 @@
       <c r="O290" s="12"/>
     </row>
     <row r="291" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D291"/>
+      <c r="D291" s="12">
+        <v>43755</v>
+      </c>
+      <c r="E291"/>
       <c r="I291" s="3"/>
-      <c r="J291" s="12">
-        <v>43755</v>
-      </c>
+      <c r="J291" s="3"/>
       <c r="K291" s="12"/>
       <c r="L291" s="12"/>
       <c r="M291" s="12"/>
@@ -15455,11 +17453,12 @@
       <c r="O291" s="12"/>
     </row>
     <row r="292" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D292"/>
+      <c r="D292" s="12">
+        <v>43756</v>
+      </c>
+      <c r="E292"/>
       <c r="I292" s="3"/>
-      <c r="J292" s="12">
-        <v>43756</v>
-      </c>
+      <c r="J292" s="3"/>
       <c r="K292" s="12"/>
       <c r="L292" s="12"/>
       <c r="M292" s="12"/>
@@ -15467,11 +17466,12 @@
       <c r="O292" s="12"/>
     </row>
     <row r="293" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D293"/>
+      <c r="D293" s="12">
+        <v>43757</v>
+      </c>
+      <c r="E293"/>
       <c r="I293" s="3"/>
-      <c r="J293" s="12">
-        <v>43757</v>
-      </c>
+      <c r="J293" s="3"/>
       <c r="K293" s="12"/>
       <c r="L293" s="12"/>
       <c r="M293" s="12"/>
@@ -15479,11 +17479,12 @@
       <c r="O293" s="12"/>
     </row>
     <row r="294" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D294"/>
+      <c r="D294" s="12">
+        <v>43758</v>
+      </c>
+      <c r="E294"/>
       <c r="I294" s="3"/>
-      <c r="J294" s="12">
-        <v>43758</v>
-      </c>
+      <c r="J294" s="3"/>
       <c r="K294" s="12"/>
       <c r="L294" s="12"/>
       <c r="M294" s="12"/>
@@ -15491,11 +17492,12 @@
       <c r="O294" s="12"/>
     </row>
     <row r="295" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D295"/>
+      <c r="D295" s="12">
+        <v>43759</v>
+      </c>
+      <c r="E295"/>
       <c r="I295" s="3"/>
-      <c r="J295" s="12">
-        <v>43759</v>
-      </c>
+      <c r="J295" s="3"/>
       <c r="K295" s="12"/>
       <c r="L295" s="12"/>
       <c r="M295" s="12"/>
@@ -15503,11 +17505,12 @@
       <c r="O295" s="12"/>
     </row>
     <row r="296" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D296"/>
+      <c r="D296" s="12">
+        <v>43760</v>
+      </c>
+      <c r="E296"/>
       <c r="I296" s="3"/>
-      <c r="J296" s="12">
-        <v>43760</v>
-      </c>
+      <c r="J296" s="3"/>
       <c r="K296" s="12"/>
       <c r="L296" s="12"/>
       <c r="M296" s="12"/>
@@ -15515,11 +17518,12 @@
       <c r="O296" s="12"/>
     </row>
     <row r="297" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D297"/>
+      <c r="D297" s="12">
+        <v>43761</v>
+      </c>
+      <c r="E297"/>
       <c r="I297" s="3"/>
-      <c r="J297" s="12">
-        <v>43761</v>
-      </c>
+      <c r="J297" s="3"/>
       <c r="K297" s="12"/>
       <c r="L297" s="12"/>
       <c r="M297" s="12"/>
@@ -15527,11 +17531,12 @@
       <c r="O297" s="12"/>
     </row>
     <row r="298" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D298"/>
+      <c r="D298" s="12">
+        <v>43762</v>
+      </c>
+      <c r="E298"/>
       <c r="I298" s="3"/>
-      <c r="J298" s="12">
-        <v>43762</v>
-      </c>
+      <c r="J298" s="3"/>
       <c r="K298" s="12"/>
       <c r="L298" s="12"/>
       <c r="M298" s="12"/>
@@ -15539,11 +17544,12 @@
       <c r="O298" s="12"/>
     </row>
     <row r="299" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D299"/>
+      <c r="D299" s="12">
+        <v>43763</v>
+      </c>
+      <c r="E299"/>
       <c r="I299" s="3"/>
-      <c r="J299" s="12">
-        <v>43763</v>
-      </c>
+      <c r="J299" s="3"/>
       <c r="K299" s="12"/>
       <c r="L299" s="12"/>
       <c r="M299" s="12"/>
@@ -15551,11 +17557,12 @@
       <c r="O299" s="12"/>
     </row>
     <row r="300" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D300"/>
+      <c r="D300" s="12">
+        <v>43764</v>
+      </c>
+      <c r="E300"/>
       <c r="I300" s="3"/>
-      <c r="J300" s="12">
-        <v>43764</v>
-      </c>
+      <c r="J300" s="3"/>
       <c r="K300" s="12"/>
       <c r="L300" s="12"/>
       <c r="M300" s="12"/>
@@ -15563,11 +17570,12 @@
       <c r="O300" s="12"/>
     </row>
     <row r="301" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D301"/>
+      <c r="D301" s="12">
+        <v>43765</v>
+      </c>
+      <c r="E301"/>
       <c r="I301" s="3"/>
-      <c r="J301" s="12">
-        <v>43765</v>
-      </c>
+      <c r="J301" s="3"/>
       <c r="K301" s="12"/>
       <c r="L301" s="12"/>
       <c r="M301" s="12"/>
@@ -15575,11 +17583,12 @@
       <c r="O301" s="12"/>
     </row>
     <row r="302" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D302"/>
+      <c r="D302" s="12">
+        <v>43766</v>
+      </c>
+      <c r="E302"/>
       <c r="I302" s="3"/>
-      <c r="J302" s="12">
-        <v>43766</v>
-      </c>
+      <c r="J302" s="3"/>
       <c r="K302" s="12"/>
       <c r="L302" s="12"/>
       <c r="M302" s="12"/>
@@ -15587,11 +17596,12 @@
       <c r="O302" s="12"/>
     </row>
     <row r="303" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D303"/>
+      <c r="D303" s="12">
+        <v>43767</v>
+      </c>
+      <c r="E303"/>
       <c r="I303" s="3"/>
-      <c r="J303" s="12">
-        <v>43767</v>
-      </c>
+      <c r="J303" s="3"/>
       <c r="K303" s="12"/>
       <c r="L303" s="12"/>
       <c r="M303" s="12"/>
@@ -15599,11 +17609,12 @@
       <c r="O303" s="12"/>
     </row>
     <row r="304" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D304"/>
+      <c r="D304" s="12">
+        <v>43768</v>
+      </c>
+      <c r="E304"/>
       <c r="I304" s="3"/>
-      <c r="J304" s="12">
-        <v>43768</v>
-      </c>
+      <c r="J304" s="3"/>
       <c r="K304" s="12"/>
       <c r="L304" s="12"/>
       <c r="M304" s="12"/>
@@ -15611,11 +17622,12 @@
       <c r="O304" s="12"/>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D305"/>
+      <c r="D305" s="12">
+        <v>43769</v>
+      </c>
+      <c r="E305"/>
       <c r="I305" s="3"/>
-      <c r="J305" s="12">
-        <v>43769</v>
-      </c>
+      <c r="J305" s="3"/>
       <c r="K305" s="12"/>
       <c r="L305" s="12"/>
       <c r="M305" s="12"/>
@@ -15626,13 +17638,14 @@
       <c r="A306" t="s">
         <v>327</v>
       </c>
-      <c r="D306" t="s">
-        <v>606</v>
+      <c r="D306" s="12">
+        <v>43770</v>
+      </c>
+      <c r="E306" t="s">
+        <v>602</v>
       </c>
       <c r="I306" s="3"/>
-      <c r="J306" s="12">
-        <v>43770</v>
-      </c>
+      <c r="J306" s="3"/>
       <c r="K306" s="12"/>
       <c r="L306" s="12"/>
       <c r="M306" s="12"/>
@@ -15640,11 +17653,12 @@
       <c r="O306" s="12"/>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D307"/>
+      <c r="D307" s="12">
+        <v>43771</v>
+      </c>
+      <c r="E307"/>
       <c r="I307" s="3"/>
-      <c r="J307" s="12">
-        <v>43771</v>
-      </c>
+      <c r="J307" s="3"/>
       <c r="K307" s="12"/>
       <c r="L307" s="12"/>
       <c r="M307" s="12"/>
@@ -15652,11 +17666,12 @@
       <c r="O307" s="12"/>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D308"/>
+      <c r="D308" s="12">
+        <v>43772</v>
+      </c>
+      <c r="E308"/>
       <c r="I308" s="3"/>
-      <c r="J308" s="12">
-        <v>43772</v>
-      </c>
+      <c r="J308" s="3"/>
       <c r="K308" s="12"/>
       <c r="L308" s="12"/>
       <c r="M308" s="12"/>
@@ -15664,11 +17679,12 @@
       <c r="O308" s="12"/>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D309"/>
+      <c r="D309" s="12">
+        <v>43773</v>
+      </c>
+      <c r="E309"/>
       <c r="I309" s="3"/>
-      <c r="J309" s="12">
-        <v>43773</v>
-      </c>
+      <c r="J309" s="3"/>
       <c r="K309" s="12"/>
       <c r="L309" s="12"/>
       <c r="M309" s="12"/>
@@ -15676,11 +17692,12 @@
       <c r="O309" s="12"/>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D310"/>
+      <c r="D310" s="12">
+        <v>43774</v>
+      </c>
+      <c r="E310"/>
       <c r="I310" s="3"/>
-      <c r="J310" s="12">
-        <v>43774</v>
-      </c>
+      <c r="J310" s="3"/>
       <c r="K310" s="12"/>
       <c r="L310" s="12"/>
       <c r="M310" s="12"/>
@@ -15688,11 +17705,12 @@
       <c r="O310" s="12"/>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D311"/>
+      <c r="D311" s="12">
+        <v>43775</v>
+      </c>
+      <c r="E311"/>
       <c r="I311" s="3"/>
-      <c r="J311" s="12">
-        <v>43775</v>
-      </c>
+      <c r="J311" s="3"/>
       <c r="K311" s="12"/>
       <c r="L311" s="12"/>
       <c r="M311" s="12"/>
@@ -15700,11 +17718,12 @@
       <c r="O311" s="12"/>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D312"/>
+      <c r="D312" s="12">
+        <v>43776</v>
+      </c>
+      <c r="E312"/>
       <c r="I312" s="3"/>
-      <c r="J312" s="12">
-        <v>43776</v>
-      </c>
+      <c r="J312" s="3"/>
       <c r="K312" s="12"/>
       <c r="L312" s="12"/>
       <c r="M312" s="12"/>
@@ -15712,11 +17731,12 @@
       <c r="O312" s="12"/>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D313"/>
+      <c r="D313" s="12">
+        <v>43777</v>
+      </c>
+      <c r="E313"/>
       <c r="I313" s="3"/>
-      <c r="J313" s="12">
-        <v>43777</v>
-      </c>
+      <c r="J313" s="3"/>
       <c r="K313" s="12"/>
       <c r="L313" s="12"/>
       <c r="M313" s="12"/>
@@ -15724,11 +17744,12 @@
       <c r="O313" s="12"/>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D314"/>
+      <c r="D314" s="12">
+        <v>43778</v>
+      </c>
+      <c r="E314"/>
       <c r="I314" s="3"/>
-      <c r="J314" s="12">
-        <v>43778</v>
-      </c>
+      <c r="J314" s="3"/>
       <c r="K314" s="12"/>
       <c r="L314" s="12"/>
       <c r="M314" s="12"/>
@@ -15736,11 +17757,12 @@
       <c r="O314" s="12"/>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D315"/>
+      <c r="D315" s="12">
+        <v>43779</v>
+      </c>
+      <c r="E315"/>
       <c r="I315" s="3"/>
-      <c r="J315" s="12">
-        <v>43779</v>
-      </c>
+      <c r="J315" s="3"/>
       <c r="K315" s="12"/>
       <c r="L315" s="12"/>
       <c r="M315" s="12"/>
@@ -15748,11 +17770,12 @@
       <c r="O315" s="12"/>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D316"/>
+      <c r="D316" s="12">
+        <v>43780</v>
+      </c>
+      <c r="E316"/>
       <c r="I316" s="3"/>
-      <c r="J316" s="12">
-        <v>43780</v>
-      </c>
+      <c r="J316" s="3"/>
       <c r="K316" s="12"/>
       <c r="L316" s="12"/>
       <c r="M316" s="12"/>
@@ -15760,11 +17783,12 @@
       <c r="O316" s="12"/>
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D317"/>
+      <c r="D317" s="12">
+        <v>43781</v>
+      </c>
+      <c r="E317"/>
       <c r="I317" s="3"/>
-      <c r="J317" s="12">
-        <v>43781</v>
-      </c>
+      <c r="J317" s="3"/>
       <c r="K317" s="12"/>
       <c r="L317" s="12"/>
       <c r="M317" s="12"/>
@@ -15772,11 +17796,12 @@
       <c r="O317" s="12"/>
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D318"/>
+      <c r="D318" s="12">
+        <v>43782</v>
+      </c>
+      <c r="E318"/>
       <c r="I318" s="3"/>
-      <c r="J318" s="12">
-        <v>43782</v>
-      </c>
+      <c r="J318" s="3"/>
       <c r="K318" s="12"/>
       <c r="L318" s="12"/>
       <c r="M318" s="12"/>
@@ -15784,11 +17809,12 @@
       <c r="O318" s="12"/>
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D319"/>
+      <c r="D319" s="12">
+        <v>43783</v>
+      </c>
+      <c r="E319"/>
       <c r="I319" s="3"/>
-      <c r="J319" s="12">
-        <v>43783</v>
-      </c>
+      <c r="J319" s="3"/>
       <c r="K319" s="12"/>
       <c r="L319" s="12"/>
       <c r="M319" s="12"/>
@@ -15796,11 +17822,12 @@
       <c r="O319" s="12"/>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D320"/>
+      <c r="D320" s="12">
+        <v>43784</v>
+      </c>
+      <c r="E320"/>
       <c r="I320" s="3"/>
-      <c r="J320" s="12">
-        <v>43784</v>
-      </c>
+      <c r="J320" s="3"/>
       <c r="K320" s="12"/>
       <c r="L320" s="12"/>
       <c r="M320" s="12"/>
@@ -15808,11 +17835,12 @@
       <c r="O320" s="12"/>
     </row>
     <row r="321" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D321"/>
+      <c r="D321" s="12">
+        <v>43785</v>
+      </c>
+      <c r="E321"/>
       <c r="I321" s="3"/>
-      <c r="J321" s="12">
-        <v>43785</v>
-      </c>
+      <c r="J321" s="3"/>
       <c r="K321" s="12"/>
       <c r="L321" s="12"/>
       <c r="M321" s="12"/>
@@ -15820,11 +17848,12 @@
       <c r="O321" s="12"/>
     </row>
     <row r="322" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D322"/>
+      <c r="D322" s="12">
+        <v>43786</v>
+      </c>
+      <c r="E322"/>
       <c r="I322" s="3"/>
-      <c r="J322" s="12">
-        <v>43786</v>
-      </c>
+      <c r="J322" s="3"/>
       <c r="K322" s="12"/>
       <c r="L322" s="12"/>
       <c r="M322" s="12"/>
@@ -15832,11 +17861,12 @@
       <c r="O322" s="12"/>
     </row>
     <row r="323" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D323"/>
+      <c r="D323" s="12">
+        <v>43787</v>
+      </c>
+      <c r="E323"/>
       <c r="I323" s="3"/>
-      <c r="J323" s="12">
-        <v>43787</v>
-      </c>
+      <c r="J323" s="3"/>
       <c r="K323" s="12"/>
       <c r="L323" s="12"/>
       <c r="M323" s="12"/>
@@ -15844,11 +17874,12 @@
       <c r="O323" s="12"/>
     </row>
     <row r="324" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D324"/>
+      <c r="D324" s="12">
+        <v>43788</v>
+      </c>
+      <c r="E324"/>
       <c r="I324" s="3"/>
-      <c r="J324" s="12">
-        <v>43788</v>
-      </c>
+      <c r="J324" s="3"/>
       <c r="K324" s="12"/>
       <c r="L324" s="12"/>
       <c r="M324" s="12"/>
@@ -15856,11 +17887,12 @@
       <c r="O324" s="12"/>
     </row>
     <row r="325" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D325"/>
+      <c r="D325" s="12">
+        <v>43789</v>
+      </c>
+      <c r="E325"/>
       <c r="I325" s="3"/>
-      <c r="J325" s="12">
-        <v>43789</v>
-      </c>
+      <c r="J325" s="3"/>
       <c r="K325" s="12"/>
       <c r="L325" s="12"/>
       <c r="M325" s="12"/>
@@ -15868,11 +17900,12 @@
       <c r="O325" s="12"/>
     </row>
     <row r="326" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D326"/>
+      <c r="D326" s="12">
+        <v>43790</v>
+      </c>
+      <c r="E326"/>
       <c r="I326" s="3"/>
-      <c r="J326" s="12">
-        <v>43790</v>
-      </c>
+      <c r="J326" s="3"/>
       <c r="K326" s="12"/>
       <c r="L326" s="12"/>
       <c r="M326" s="12"/>
@@ -15880,11 +17913,12 @@
       <c r="O326" s="12"/>
     </row>
     <row r="327" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D327"/>
+      <c r="D327" s="12">
+        <v>43791</v>
+      </c>
+      <c r="E327"/>
       <c r="I327" s="3"/>
-      <c r="J327" s="12">
-        <v>43791</v>
-      </c>
+      <c r="J327" s="3"/>
       <c r="K327" s="12"/>
       <c r="L327" s="12"/>
       <c r="M327" s="12"/>
@@ -15892,11 +17926,12 @@
       <c r="O327" s="12"/>
     </row>
     <row r="328" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D328"/>
+      <c r="D328" s="12">
+        <v>43792</v>
+      </c>
+      <c r="E328"/>
       <c r="I328" s="3"/>
-      <c r="J328" s="12">
-        <v>43792</v>
-      </c>
+      <c r="J328" s="3"/>
       <c r="K328" s="12"/>
       <c r="L328" s="12"/>
       <c r="M328" s="12"/>
@@ -15904,11 +17939,12 @@
       <c r="O328" s="12"/>
     </row>
     <row r="329" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D329"/>
+      <c r="D329" s="12">
+        <v>43793</v>
+      </c>
+      <c r="E329"/>
       <c r="I329" s="3"/>
-      <c r="J329" s="12">
-        <v>43793</v>
-      </c>
+      <c r="J329" s="3"/>
       <c r="K329" s="12"/>
       <c r="L329" s="12"/>
       <c r="M329" s="12"/>
@@ -15916,11 +17952,12 @@
       <c r="O329" s="12"/>
     </row>
     <row r="330" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D330"/>
+      <c r="D330" s="12">
+        <v>43794</v>
+      </c>
+      <c r="E330"/>
       <c r="I330" s="3"/>
-      <c r="J330" s="12">
-        <v>43794</v>
-      </c>
+      <c r="J330" s="3"/>
       <c r="K330" s="12"/>
       <c r="L330" s="12"/>
       <c r="M330" s="12"/>
@@ -15928,11 +17965,12 @@
       <c r="O330" s="12"/>
     </row>
     <row r="331" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D331"/>
+      <c r="D331" s="12">
+        <v>43795</v>
+      </c>
+      <c r="E331"/>
       <c r="I331" s="3"/>
-      <c r="J331" s="12">
-        <v>43795</v>
-      </c>
+      <c r="J331" s="3"/>
       <c r="K331" s="12"/>
       <c r="L331" s="12"/>
       <c r="M331" s="12"/>
@@ -15940,11 +17978,12 @@
       <c r="O331" s="12"/>
     </row>
     <row r="332" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D332"/>
+      <c r="D332" s="12">
+        <v>43796</v>
+      </c>
+      <c r="E332"/>
       <c r="I332" s="3"/>
-      <c r="J332" s="12">
-        <v>43796</v>
-      </c>
+      <c r="J332" s="3"/>
       <c r="K332" s="12"/>
       <c r="L332" s="12"/>
       <c r="M332" s="12"/>
@@ -15952,11 +17991,12 @@
       <c r="O332" s="12"/>
     </row>
     <row r="333" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D333"/>
+      <c r="D333" s="12">
+        <v>43797</v>
+      </c>
+      <c r="E333"/>
       <c r="I333" s="3"/>
-      <c r="J333" s="12">
-        <v>43797</v>
-      </c>
+      <c r="J333" s="3"/>
       <c r="K333" s="12"/>
       <c r="L333" s="12"/>
       <c r="M333" s="12"/>
@@ -15964,11 +18004,12 @@
       <c r="O333" s="12"/>
     </row>
     <row r="334" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D334"/>
+      <c r="D334" s="12">
+        <v>43798</v>
+      </c>
+      <c r="E334"/>
       <c r="I334" s="3"/>
-      <c r="J334" s="12">
-        <v>43798</v>
-      </c>
+      <c r="J334" s="3"/>
       <c r="K334" s="12"/>
       <c r="L334" s="12"/>
       <c r="M334" s="12"/>
@@ -15976,11 +18017,12 @@
       <c r="O334" s="12"/>
     </row>
     <row r="335" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D335"/>
+      <c r="D335" s="12">
+        <v>43799</v>
+      </c>
+      <c r="E335"/>
       <c r="I335" s="3"/>
-      <c r="J335" s="12">
-        <v>43799</v>
-      </c>
+      <c r="J335" s="3"/>
       <c r="K335" s="12"/>
       <c r="L335" s="12"/>
       <c r="M335" s="12"/>
@@ -15988,11 +18030,12 @@
       <c r="O335" s="12"/>
     </row>
     <row r="336" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D336"/>
+      <c r="D336" s="12">
+        <v>43800</v>
+      </c>
+      <c r="E336"/>
       <c r="I336" s="3"/>
-      <c r="J336" s="12">
-        <v>43800</v>
-      </c>
+      <c r="J336" s="3"/>
       <c r="K336" s="12"/>
       <c r="L336" s="12"/>
       <c r="M336" s="12"/>
@@ -16000,11 +18043,12 @@
       <c r="O336" s="12"/>
     </row>
     <row r="337" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D337"/>
+      <c r="D337" s="12">
+        <v>43801</v>
+      </c>
+      <c r="E337"/>
       <c r="I337" s="3"/>
-      <c r="J337" s="12">
-        <v>43801</v>
-      </c>
+      <c r="J337" s="3"/>
       <c r="K337" s="12"/>
       <c r="L337" s="12"/>
       <c r="M337" s="12"/>
@@ -16012,11 +18056,12 @@
       <c r="O337" s="12"/>
     </row>
     <row r="338" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D338"/>
+      <c r="D338" s="12">
+        <v>43802</v>
+      </c>
+      <c r="E338"/>
       <c r="I338" s="3"/>
-      <c r="J338" s="12">
-        <v>43802</v>
-      </c>
+      <c r="J338" s="3"/>
       <c r="K338" s="12"/>
       <c r="L338" s="12"/>
       <c r="M338" s="12"/>
@@ -16024,11 +18069,12 @@
       <c r="O338" s="12"/>
     </row>
     <row r="339" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D339"/>
+      <c r="D339" s="12">
+        <v>43803</v>
+      </c>
+      <c r="E339"/>
       <c r="I339" s="3"/>
-      <c r="J339" s="12">
-        <v>43803</v>
-      </c>
+      <c r="J339" s="3"/>
       <c r="K339" s="12"/>
       <c r="L339" s="12"/>
       <c r="M339" s="12"/>
@@ -16036,11 +18082,12 @@
       <c r="O339" s="12"/>
     </row>
     <row r="340" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D340"/>
+      <c r="D340" s="12">
+        <v>43804</v>
+      </c>
+      <c r="E340"/>
       <c r="I340" s="3"/>
-      <c r="J340" s="12">
-        <v>43804</v>
-      </c>
+      <c r="J340" s="3"/>
       <c r="K340" s="12"/>
       <c r="L340" s="12"/>
       <c r="M340" s="12"/>
@@ -16048,11 +18095,12 @@
       <c r="O340" s="12"/>
     </row>
     <row r="341" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D341"/>
+      <c r="D341" s="12">
+        <v>43805</v>
+      </c>
+      <c r="E341"/>
       <c r="I341" s="3"/>
-      <c r="J341" s="12">
-        <v>43805</v>
-      </c>
+      <c r="J341" s="3"/>
       <c r="K341" s="12"/>
       <c r="L341" s="12"/>
       <c r="M341" s="12"/>
@@ -16060,11 +18108,12 @@
       <c r="O341" s="12"/>
     </row>
     <row r="342" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D342"/>
+      <c r="D342" s="12">
+        <v>43806</v>
+      </c>
+      <c r="E342"/>
       <c r="I342" s="3"/>
-      <c r="J342" s="12">
-        <v>43806</v>
-      </c>
+      <c r="J342" s="3"/>
       <c r="K342" s="12"/>
       <c r="L342" s="12"/>
       <c r="M342" s="12"/>
@@ -16072,11 +18121,12 @@
       <c r="O342" s="12"/>
     </row>
     <row r="343" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D343"/>
+      <c r="D343" s="12">
+        <v>43807</v>
+      </c>
+      <c r="E343"/>
       <c r="I343" s="3"/>
-      <c r="J343" s="12">
-        <v>43807</v>
-      </c>
+      <c r="J343" s="3"/>
       <c r="K343" s="12"/>
       <c r="L343" s="12"/>
       <c r="M343" s="12"/>
@@ -16084,11 +18134,12 @@
       <c r="O343" s="12"/>
     </row>
     <row r="344" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D344"/>
+      <c r="D344" s="12">
+        <v>43808</v>
+      </c>
+      <c r="E344"/>
       <c r="I344" s="3"/>
-      <c r="J344" s="12">
-        <v>43808</v>
-      </c>
+      <c r="J344" s="3"/>
       <c r="K344" s="12"/>
       <c r="L344" s="12"/>
       <c r="M344" s="12"/>
@@ -16096,11 +18147,12 @@
       <c r="O344" s="12"/>
     </row>
     <row r="345" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D345"/>
+      <c r="D345" s="12">
+        <v>43809</v>
+      </c>
+      <c r="E345"/>
       <c r="I345" s="3"/>
-      <c r="J345" s="12">
-        <v>43809</v>
-      </c>
+      <c r="J345" s="3"/>
       <c r="K345" s="12"/>
       <c r="L345" s="12"/>
       <c r="M345" s="12"/>
@@ -16108,11 +18160,12 @@
       <c r="O345" s="12"/>
     </row>
     <row r="346" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D346"/>
+      <c r="D346" s="12">
+        <v>43810</v>
+      </c>
+      <c r="E346"/>
       <c r="I346" s="3"/>
-      <c r="J346" s="12">
-        <v>43810</v>
-      </c>
+      <c r="J346" s="3"/>
       <c r="K346" s="12"/>
       <c r="L346" s="12"/>
       <c r="M346" s="12"/>
@@ -16120,11 +18173,12 @@
       <c r="O346" s="12"/>
     </row>
     <row r="347" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D347"/>
+      <c r="D347" s="12">
+        <v>43811</v>
+      </c>
+      <c r="E347"/>
       <c r="I347" s="3"/>
-      <c r="J347" s="12">
-        <v>43811</v>
-      </c>
+      <c r="J347" s="3"/>
       <c r="K347" s="12"/>
       <c r="L347" s="12"/>
       <c r="M347" s="12"/>
@@ -16132,11 +18186,12 @@
       <c r="O347" s="12"/>
     </row>
     <row r="348" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D348"/>
+      <c r="D348" s="12">
+        <v>43812</v>
+      </c>
+      <c r="E348"/>
       <c r="I348" s="3"/>
-      <c r="J348" s="12">
-        <v>43812</v>
-      </c>
+      <c r="J348" s="3"/>
       <c r="K348" s="12"/>
       <c r="L348" s="12"/>
       <c r="M348" s="12"/>
@@ -16144,11 +18199,12 @@
       <c r="O348" s="12"/>
     </row>
     <row r="349" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D349"/>
+      <c r="D349" s="12">
+        <v>43813</v>
+      </c>
+      <c r="E349"/>
       <c r="I349" s="3"/>
-      <c r="J349" s="12">
-        <v>43813</v>
-      </c>
+      <c r="J349" s="3"/>
       <c r="K349" s="12"/>
       <c r="L349" s="12"/>
       <c r="M349" s="12"/>
@@ -16156,11 +18212,12 @@
       <c r="O349" s="12"/>
     </row>
     <row r="350" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D350"/>
+      <c r="D350" s="12">
+        <v>43814</v>
+      </c>
+      <c r="E350"/>
       <c r="I350" s="3"/>
-      <c r="J350" s="12">
-        <v>43814</v>
-      </c>
+      <c r="J350" s="3"/>
       <c r="K350" s="12"/>
       <c r="L350" s="12"/>
       <c r="M350" s="12"/>
@@ -16168,11 +18225,12 @@
       <c r="O350" s="12"/>
     </row>
     <row r="351" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D351"/>
+      <c r="D351" s="12">
+        <v>43815</v>
+      </c>
+      <c r="E351"/>
       <c r="I351" s="3"/>
-      <c r="J351" s="12">
-        <v>43815</v>
-      </c>
+      <c r="J351" s="3"/>
       <c r="K351" s="12"/>
       <c r="L351" s="12"/>
       <c r="M351" s="12"/>
@@ -16180,11 +18238,12 @@
       <c r="O351" s="12"/>
     </row>
     <row r="352" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D352"/>
+      <c r="D352" s="12">
+        <v>43816</v>
+      </c>
+      <c r="E352"/>
       <c r="I352" s="3"/>
-      <c r="J352" s="12">
-        <v>43816</v>
-      </c>
+      <c r="J352" s="3"/>
       <c r="K352" s="12"/>
       <c r="L352" s="12"/>
       <c r="M352" s="12"/>
@@ -16192,11 +18251,12 @@
       <c r="O352" s="12"/>
     </row>
     <row r="353" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D353"/>
+      <c r="D353" s="12">
+        <v>43817</v>
+      </c>
+      <c r="E353"/>
       <c r="I353" s="3"/>
-      <c r="J353" s="12">
-        <v>43817</v>
-      </c>
+      <c r="J353" s="3"/>
       <c r="K353" s="12"/>
       <c r="L353" s="12"/>
       <c r="M353" s="12"/>
@@ -16204,11 +18264,12 @@
       <c r="O353" s="12"/>
     </row>
     <row r="354" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D354"/>
+      <c r="D354" s="12">
+        <v>43818</v>
+      </c>
+      <c r="E354"/>
       <c r="I354" s="3"/>
-      <c r="J354" s="12">
-        <v>43818</v>
-      </c>
+      <c r="J354" s="3"/>
       <c r="K354" s="12"/>
       <c r="L354" s="12"/>
       <c r="M354" s="12"/>
@@ -16216,11 +18277,12 @@
       <c r="O354" s="12"/>
     </row>
     <row r="355" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D355"/>
+      <c r="D355" s="12">
+        <v>43819</v>
+      </c>
+      <c r="E355"/>
       <c r="I355" s="3"/>
-      <c r="J355" s="12">
-        <v>43819</v>
-      </c>
+      <c r="J355" s="3"/>
       <c r="K355" s="12"/>
       <c r="L355" s="12"/>
       <c r="M355" s="12"/>
@@ -16228,11 +18290,12 @@
       <c r="O355" s="12"/>
     </row>
     <row r="356" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D356"/>
+      <c r="D356" s="12">
+        <v>43820</v>
+      </c>
+      <c r="E356"/>
       <c r="I356" s="3"/>
-      <c r="J356" s="12">
-        <v>43820</v>
-      </c>
+      <c r="J356" s="3"/>
       <c r="K356" s="12"/>
       <c r="L356" s="12"/>
       <c r="M356" s="12"/>
@@ -16240,11 +18303,12 @@
       <c r="O356" s="12"/>
     </row>
     <row r="357" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D357"/>
+      <c r="D357" s="12">
+        <v>43821</v>
+      </c>
+      <c r="E357"/>
       <c r="I357" s="3"/>
-      <c r="J357" s="12">
-        <v>43821</v>
-      </c>
+      <c r="J357" s="3"/>
       <c r="K357" s="12"/>
       <c r="L357" s="12"/>
       <c r="M357" s="12"/>
@@ -16252,11 +18316,12 @@
       <c r="O357" s="12"/>
     </row>
     <row r="358" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D358"/>
+      <c r="D358" s="12">
+        <v>43822</v>
+      </c>
+      <c r="E358"/>
       <c r="I358" s="3"/>
-      <c r="J358" s="12">
-        <v>43822</v>
-      </c>
+      <c r="J358" s="3"/>
       <c r="K358" s="12"/>
       <c r="L358" s="12"/>
       <c r="M358" s="12"/>
@@ -16264,11 +18329,12 @@
       <c r="O358" s="12"/>
     </row>
     <row r="359" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D359"/>
+      <c r="D359" s="12">
+        <v>43823</v>
+      </c>
+      <c r="E359"/>
       <c r="I359" s="3"/>
-      <c r="J359" s="12">
-        <v>43823</v>
-      </c>
+      <c r="J359" s="3"/>
       <c r="K359" s="12"/>
       <c r="L359" s="12"/>
       <c r="M359" s="12"/>
@@ -16276,11 +18342,12 @@
       <c r="O359" s="12"/>
     </row>
     <row r="360" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D360"/>
+      <c r="D360" s="12">
+        <v>43824</v>
+      </c>
+      <c r="E360"/>
       <c r="I360" s="3"/>
-      <c r="J360" s="12">
-        <v>43824</v>
-      </c>
+      <c r="J360" s="3"/>
       <c r="K360" s="12"/>
       <c r="L360" s="12"/>
       <c r="M360" s="12"/>
@@ -16288,11 +18355,12 @@
       <c r="O360" s="12"/>
     </row>
     <row r="361" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D361"/>
+      <c r="D361" s="12">
+        <v>43825</v>
+      </c>
+      <c r="E361"/>
       <c r="I361" s="3"/>
-      <c r="J361" s="12">
-        <v>43825</v>
-      </c>
+      <c r="J361" s="3"/>
       <c r="K361" s="12"/>
       <c r="L361" s="12"/>
       <c r="M361" s="12"/>
@@ -16300,11 +18368,12 @@
       <c r="O361" s="12"/>
     </row>
     <row r="362" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D362"/>
+      <c r="D362" s="12">
+        <v>43826</v>
+      </c>
+      <c r="E362"/>
       <c r="I362" s="3"/>
-      <c r="J362" s="12">
-        <v>43826</v>
-      </c>
+      <c r="J362" s="3"/>
       <c r="K362" s="12"/>
       <c r="L362" s="12"/>
       <c r="M362" s="12"/>
@@ -16312,11 +18381,12 @@
       <c r="O362" s="12"/>
     </row>
     <row r="363" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D363"/>
+      <c r="D363" s="12">
+        <v>43827</v>
+      </c>
+      <c r="E363"/>
       <c r="I363" s="3"/>
-      <c r="J363" s="12">
-        <v>43827</v>
-      </c>
+      <c r="J363" s="3"/>
       <c r="K363" s="12"/>
       <c r="L363" s="12"/>
       <c r="M363" s="12"/>
@@ -16324,11 +18394,12 @@
       <c r="O363" s="12"/>
     </row>
     <row r="364" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D364"/>
+      <c r="D364" s="12">
+        <v>43828</v>
+      </c>
+      <c r="E364"/>
       <c r="I364" s="3"/>
-      <c r="J364" s="12">
-        <v>43828</v>
-      </c>
+      <c r="J364" s="3"/>
       <c r="K364" s="12"/>
       <c r="L364" s="12"/>
       <c r="M364" s="12"/>
@@ -16336,11 +18407,12 @@
       <c r="O364" s="12"/>
     </row>
     <row r="365" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D365"/>
+      <c r="D365" s="12">
+        <v>43829</v>
+      </c>
+      <c r="E365"/>
       <c r="I365" s="3"/>
-      <c r="J365" s="12">
-        <v>43829</v>
-      </c>
+      <c r="J365" s="3"/>
       <c r="K365" s="12"/>
       <c r="L365" s="12"/>
       <c r="M365" s="12"/>
@@ -16348,11 +18420,12 @@
       <c r="O365" s="12"/>
     </row>
     <row r="366" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D366"/>
+      <c r="D366" s="12">
+        <v>43830</v>
+      </c>
+      <c r="E366"/>
       <c r="I366" s="3"/>
-      <c r="J366" s="12">
-        <v>43830</v>
-      </c>
+      <c r="J366" s="3"/>
       <c r="K366" s="12"/>
       <c r="L366" s="12"/>
       <c r="M366" s="12"/>
@@ -16360,9 +18433,14 @@
       <c r="O366" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:O366">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$J$2:$J$366="Saturday"</formula>
+  <conditionalFormatting sqref="H86:J86 A86:F86 B85:J85 A2:J84 A87:J108 G109:J109 A109:E109 H164:J164 F176:J176 A176:D176 A165:J175 A110:J163 K2:O366 A164:F164 A193:D193 A177:J192 A195:J366 A194:E194 G194:J194 F193:J193">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>$D$2:$D$366="Saturday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E193">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$D$2:$D$366="Saturday"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16377,8 +18455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FC887F-8E9D-4AF0-BE32-21959CBDE91E}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16503,15 +18581,30 @@
       <c r="B13" s="3" t="s">
         <v>392</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>393</v>
       </c>
+      <c r="C14" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>394</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">

--- a/src/Documents/Day_log_work.xlsx
+++ b/src/Documents/Day_log_work.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Practice\src\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE1D692-4DA4-4321-BEB6-56CC1980EBA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24559CE5-E7A0-4E90-926D-1F15F409ECCA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="790">
   <si>
     <t>Ticket_id</t>
   </si>
@@ -2361,6 +2361,57 @@
   </si>
   <si>
     <t>elasticsearch upgrade 5.6.7 to 6.6.x</t>
+  </si>
+  <si>
+    <t>CSD java upgrade 11</t>
+  </si>
+  <si>
+    <t>help to ramesh fix dependency error</t>
+  </si>
+  <si>
+    <t>nss kibana upgrade</t>
+  </si>
+  <si>
+    <t>created branch 5.6.15 needs merge from nss-custmizations</t>
+  </si>
+  <si>
+    <t>elasticsearch upgrade 5.6.7 to 5.6.15</t>
+  </si>
+  <si>
+    <t>listed out all binaries required for upgrade</t>
+  </si>
+  <si>
+    <t>kibanarpm build nss-kibanarpmbuilder fixed</t>
+  </si>
+  <si>
+    <t>merge started</t>
+  </si>
+  <si>
+    <t>merge finished</t>
+  </si>
+  <si>
+    <t>CSD +NSS</t>
+  </si>
+  <si>
+    <t>nss-release es upgrade + CSD- mem leak tool</t>
+  </si>
+  <si>
+    <t>leave half day</t>
+  </si>
+  <si>
+    <t>CSD</t>
+  </si>
+  <si>
+    <t>mem leak tool</t>
+  </si>
+  <si>
+    <t>NSS</t>
+  </si>
+  <si>
+    <t>es upgrade to 7.2.1</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -2513,20 +2564,6 @@
   </cellStyles>
   <dxfs count="25">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
@@ -2561,6 +2598,20 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2632,24 +2683,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EECD88A-5DB9-4833-8254-B78DC7FB627D}" name="Table1" displayName="Table1" ref="A1:O366" insertRowShift="1" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EECD88A-5DB9-4833-8254-B78DC7FB627D}" name="Table1" displayName="Table1" ref="A1:O366" insertRowShift="1" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:O366" xr:uid="{50381C2B-692E-44E3-B17A-131055E6A301}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{3EBDD3E1-F2CC-427C-8493-79B46012BC7F}" name="Jira"/>
     <tableColumn id="15" xr3:uid="{897DC266-B78C-4503-B584-45A9CCDDC82F}" name="Filled Timesheet"/>
     <tableColumn id="16" xr3:uid="{CA4E639E-3EDD-4888-AA97-B8709DD77403}" name="Hrs worked"/>
-    <tableColumn id="8" xr3:uid="{AD082FEF-270F-4188-9427-9E35A1DE736B}" name="Date" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{AD082FEF-270F-4188-9427-9E35A1DE736B}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{65D0D0A5-4FD3-4B13-951E-CDE51E1CF773}" name="Module"/>
-    <tableColumn id="3" xr3:uid="{A5E0F4C0-4B08-48D2-A7E6-6B9BECF4ECA9}" name="Description" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{CB257B31-E5FB-4154-97D9-706C0D4868F5}" name="Comment" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{42ED0B51-FADB-4EB2-B6B1-DFA17DAA2334}" name="Meeting/Discussions" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{9B81D202-FAE2-4D7F-8AAC-7221B9E69147}" name="Meeting Time" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{66D3673C-658E-4F2E-9E51-788535716948}" name="Meeting Duration in minute" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{22C99BC4-7F7A-4043-A73A-88AF59705D67}" name="Language/Tool" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{D289CED3-84A9-482A-87CA-DEEB1E666F76}" name="Learning Topic" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{29166040-ACF9-45B6-80C2-498E74A9703A}" name="Topic Description" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00C2FD09-172B-497E-AC86-82D5C5D2943A}" name="Code Practice" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{86C7DE83-01CA-4794-ADE1-8E558D895F21}" name="Status" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A5E0F4C0-4B08-48D2-A7E6-6B9BECF4ECA9}" name="Description" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{CB257B31-E5FB-4154-97D9-706C0D4868F5}" name="Comment" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{42ED0B51-FADB-4EB2-B6B1-DFA17DAA2334}" name="Meeting/Discussions" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{9B81D202-FAE2-4D7F-8AAC-7221B9E69147}" name="Meeting Time" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{66D3673C-658E-4F2E-9E51-788535716948}" name="Meeting Duration in minute" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{22C99BC4-7F7A-4043-A73A-88AF59705D67}" name="Language/Tool" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{D289CED3-84A9-482A-87CA-DEEB1E666F76}" name="Learning Topic" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{29166040-ACF9-45B6-80C2-498E74A9703A}" name="Topic Description" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00C2FD09-172B-497E-AC86-82D5C5D2943A}" name="Code Practice" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{86C7DE83-01CA-4794-ADE1-8E558D895F21}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11775,8 +11826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA16314-1EBD-45FC-BE59-12C57F1884F2}">
   <dimension ref="A1:R366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="C198" sqref="C198"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="E236" sqref="E236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16232,10 +16283,18 @@
       <c r="O199" s="12"/>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B200" t="s">
+        <v>625</v>
+      </c>
+      <c r="C200">
+        <v>8</v>
+      </c>
       <c r="D200" s="12">
         <v>43664</v>
       </c>
-      <c r="E200"/>
+      <c r="E200" t="s">
+        <v>777</v>
+      </c>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
       <c r="K200" s="12"/>
@@ -16245,10 +16304,21 @@
       <c r="O200" s="12"/>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B201" t="s">
+        <v>625</v>
+      </c>
+      <c r="C201">
+        <v>8</v>
+      </c>
       <c r="D201" s="12">
         <v>43665</v>
       </c>
-      <c r="E201"/>
+      <c r="E201" t="s">
+        <v>777</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>778</v>
+      </c>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
       <c r="K201" s="12"/>
@@ -16261,7 +16331,9 @@
       <c r="D202" s="12">
         <v>43666</v>
       </c>
-      <c r="E202"/>
+      <c r="E202" t="s">
+        <v>150</v>
+      </c>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
       <c r="K202" s="12"/>
@@ -16274,7 +16346,9 @@
       <c r="D203" s="12">
         <v>43667</v>
       </c>
-      <c r="E203"/>
+      <c r="E203" t="s">
+        <v>150</v>
+      </c>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
       <c r="K203" s="12"/>
@@ -16284,10 +16358,21 @@
       <c r="O203" s="12"/>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B204" t="s">
+        <v>625</v>
+      </c>
+      <c r="C204">
+        <v>8</v>
+      </c>
       <c r="D204" s="12">
         <v>43668</v>
       </c>
-      <c r="E204"/>
+      <c r="E204" t="s">
+        <v>773</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>774</v>
+      </c>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="12"/>
@@ -16296,11 +16381,22 @@
       <c r="N204" s="12"/>
       <c r="O204" s="12"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B205" t="s">
+        <v>625</v>
+      </c>
+      <c r="C205">
+        <v>8</v>
+      </c>
       <c r="D205" s="12">
         <v>43669</v>
       </c>
-      <c r="E205"/>
+      <c r="E205" t="s">
+        <v>775</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>776</v>
+      </c>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="12"/>
@@ -16310,10 +16406,21 @@
       <c r="O205" s="12"/>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B206" t="s">
+        <v>625</v>
+      </c>
+      <c r="C206">
+        <v>8</v>
+      </c>
       <c r="D206" s="12">
         <v>43670</v>
       </c>
-      <c r="E206"/>
+      <c r="E206" t="s">
+        <v>775</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>780</v>
+      </c>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="12"/>
@@ -16323,10 +16430,21 @@
       <c r="O206" s="12"/>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B207" t="s">
+        <v>625</v>
+      </c>
+      <c r="C207">
+        <v>8</v>
+      </c>
       <c r="D207" s="12">
         <v>43671</v>
       </c>
-      <c r="E207"/>
+      <c r="E207" t="s">
+        <v>775</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>781</v>
+      </c>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="12"/>
@@ -16335,11 +16453,22 @@
       <c r="N207" s="12"/>
       <c r="O207" s="12"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B208" t="s">
+        <v>625</v>
+      </c>
+      <c r="C208">
+        <v>8</v>
+      </c>
       <c r="D208" s="12">
         <v>43672</v>
       </c>
-      <c r="E208"/>
+      <c r="E208" t="s">
+        <v>775</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>779</v>
+      </c>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="12"/>
@@ -16348,11 +16477,13 @@
       <c r="N208" s="12"/>
       <c r="O208" s="12"/>
     </row>
-    <row r="209" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D209" s="12">
         <v>43673</v>
       </c>
-      <c r="E209"/>
+      <c r="E209" t="s">
+        <v>150</v>
+      </c>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
       <c r="K209" s="12"/>
@@ -16361,11 +16492,13 @@
       <c r="N209" s="12"/>
       <c r="O209" s="12"/>
     </row>
-    <row r="210" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D210" s="12">
         <v>43674</v>
       </c>
-      <c r="E210"/>
+      <c r="E210" t="s">
+        <v>150</v>
+      </c>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
       <c r="K210" s="12"/>
@@ -16374,11 +16507,19 @@
       <c r="N210" s="12"/>
       <c r="O210" s="12"/>
     </row>
-    <row r="211" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B211" t="s">
+        <v>625</v>
+      </c>
+      <c r="C211">
+        <v>8</v>
+      </c>
       <c r="D211" s="12">
         <v>43675</v>
       </c>
-      <c r="E211"/>
+      <c r="E211" t="s">
+        <v>775</v>
+      </c>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
       <c r="K211" s="12"/>
@@ -16387,11 +16528,19 @@
       <c r="N211" s="12"/>
       <c r="O211" s="12"/>
     </row>
-    <row r="212" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B212" t="s">
+        <v>625</v>
+      </c>
+      <c r="C212">
+        <v>8</v>
+      </c>
       <c r="D212" s="12">
         <v>43676</v>
       </c>
-      <c r="E212"/>
+      <c r="E212" t="s">
+        <v>775</v>
+      </c>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
       <c r="K212" s="12"/>
@@ -16400,11 +16549,16 @@
       <c r="N212" s="12"/>
       <c r="O212" s="12"/>
     </row>
-    <row r="213" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B213" t="s">
+        <v>611</v>
+      </c>
       <c r="D213" s="12">
         <v>43677</v>
       </c>
-      <c r="E213"/>
+      <c r="E213" t="s">
+        <v>81</v>
+      </c>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
       <c r="K213" s="12"/>
@@ -16413,11 +16567,16 @@
       <c r="N213" s="12"/>
       <c r="O213" s="12"/>
     </row>
-    <row r="214" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B214" t="s">
+        <v>789</v>
+      </c>
       <c r="D214" s="12">
         <v>43678</v>
       </c>
-      <c r="E214"/>
+      <c r="E214" t="s">
+        <v>81</v>
+      </c>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
       <c r="K214" s="12"/>
@@ -16426,11 +16585,16 @@
       <c r="N214" s="12"/>
       <c r="O214" s="12"/>
     </row>
-    <row r="215" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B215" t="s">
+        <v>789</v>
+      </c>
       <c r="D215" s="12">
         <v>43679</v>
       </c>
-      <c r="E215"/>
+      <c r="E215" t="s">
+        <v>81</v>
+      </c>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
       <c r="K215" s="12"/>
@@ -16439,11 +16603,13 @@
       <c r="N215" s="12"/>
       <c r="O215" s="12"/>
     </row>
-    <row r="216" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D216" s="12">
         <v>43680</v>
       </c>
-      <c r="E216"/>
+      <c r="E216" t="s">
+        <v>150</v>
+      </c>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
       <c r="K216" s="12"/>
@@ -16452,11 +16618,13 @@
       <c r="N216" s="12"/>
       <c r="O216" s="12"/>
     </row>
-    <row r="217" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D217" s="12">
         <v>43681</v>
       </c>
-      <c r="E217"/>
+      <c r="E217" t="s">
+        <v>150</v>
+      </c>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
       <c r="K217" s="12"/>
@@ -16465,11 +16633,16 @@
       <c r="N217" s="12"/>
       <c r="O217" s="12"/>
     </row>
-    <row r="218" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B218" t="s">
+        <v>789</v>
+      </c>
       <c r="D218" s="12">
         <v>43682</v>
       </c>
-      <c r="E218"/>
+      <c r="E218" t="s">
+        <v>81</v>
+      </c>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
       <c r="K218" s="12"/>
@@ -16478,11 +16651,16 @@
       <c r="N218" s="12"/>
       <c r="O218" s="12"/>
     </row>
-    <row r="219" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B219" t="s">
+        <v>789</v>
+      </c>
       <c r="D219" s="12">
         <v>43683</v>
       </c>
-      <c r="E219"/>
+      <c r="E219" t="s">
+        <v>81</v>
+      </c>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
       <c r="K219" s="12"/>
@@ -16491,11 +16669,16 @@
       <c r="N219" s="12"/>
       <c r="O219" s="12"/>
     </row>
-    <row r="220" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B220" t="s">
+        <v>789</v>
+      </c>
       <c r="D220" s="12">
         <v>43684</v>
       </c>
-      <c r="E220"/>
+      <c r="E220" t="s">
+        <v>81</v>
+      </c>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
       <c r="K220" s="12"/>
@@ -16504,11 +16687,19 @@
       <c r="N220" s="12"/>
       <c r="O220" s="12"/>
     </row>
-    <row r="221" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B221" t="s">
+        <v>764</v>
+      </c>
       <c r="D221" s="12">
         <v>43685</v>
       </c>
-      <c r="E221"/>
+      <c r="E221" t="s">
+        <v>782</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
       <c r="K221" s="12"/>
@@ -16517,11 +16708,19 @@
       <c r="N221" s="12"/>
       <c r="O221" s="12"/>
     </row>
-    <row r="222" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B222" t="s">
+        <v>764</v>
+      </c>
       <c r="D222" s="12">
         <v>43686</v>
       </c>
-      <c r="E222"/>
+      <c r="E222" t="s">
+        <v>785</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>786</v>
+      </c>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
       <c r="K222" s="12"/>
@@ -16530,11 +16729,13 @@
       <c r="N222" s="12"/>
       <c r="O222" s="12"/>
     </row>
-    <row r="223" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D223" s="12">
         <v>43687</v>
       </c>
-      <c r="E223"/>
+      <c r="E223" t="s">
+        <v>150</v>
+      </c>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
       <c r="K223" s="12"/>
@@ -16543,11 +16744,13 @@
       <c r="N223" s="12"/>
       <c r="O223" s="12"/>
     </row>
-    <row r="224" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D224" s="12">
         <v>43688</v>
       </c>
-      <c r="E224"/>
+      <c r="E224" t="s">
+        <v>150</v>
+      </c>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
       <c r="K224" s="12"/>
@@ -16557,10 +16760,21 @@
       <c r="O224" s="12"/>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B225" t="s">
+        <v>789</v>
+      </c>
+      <c r="C225">
+        <v>4</v>
+      </c>
       <c r="D225" s="12">
         <v>43689</v>
       </c>
-      <c r="E225"/>
+      <c r="E225" t="s">
+        <v>784</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>786</v>
+      </c>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
       <c r="K225" s="12"/>
@@ -16570,10 +16784,18 @@
       <c r="O225" s="12"/>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B226" t="s">
+        <v>625</v>
+      </c>
       <c r="D226" s="12">
         <v>43690</v>
       </c>
-      <c r="E226"/>
+      <c r="E226" t="s">
+        <v>785</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>786</v>
+      </c>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
       <c r="K226" s="12"/>
@@ -16583,10 +16805,18 @@
       <c r="O226" s="12"/>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B227" t="s">
+        <v>625</v>
+      </c>
       <c r="D227" s="12">
         <v>43691</v>
       </c>
-      <c r="E227"/>
+      <c r="E227" t="s">
+        <v>785</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>786</v>
+      </c>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
       <c r="K227" s="12"/>
@@ -16614,10 +16844,21 @@
       <c r="O228" s="12"/>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B229" t="s">
+        <v>625</v>
+      </c>
+      <c r="C229">
+        <v>8</v>
+      </c>
       <c r="D229" s="12">
         <v>43693</v>
       </c>
-      <c r="E229"/>
+      <c r="E229" t="s">
+        <v>787</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>788</v>
+      </c>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
       <c r="K229" s="12"/>
@@ -16630,7 +16871,9 @@
       <c r="D230" s="12">
         <v>43694</v>
       </c>
-      <c r="E230"/>
+      <c r="E230" t="s">
+        <v>150</v>
+      </c>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="12"/>
@@ -16643,7 +16886,9 @@
       <c r="D231" s="12">
         <v>43695</v>
       </c>
-      <c r="E231"/>
+      <c r="E231" t="s">
+        <v>150</v>
+      </c>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
       <c r="K231" s="12"/>
@@ -18433,13 +18678,13 @@
       <c r="O366" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H86:J86 A86:F86 B85:J85 A2:J84 A87:J108 G109:J109 A109:E109 H164:J164 F176:J176 A176:D176 A165:J175 A110:J163 K2:O366 A164:F164 A193:D193 A177:J192 A195:J366 A194:E194 G194:J194 F193:J193">
-    <cfRule type="expression" dxfId="1" priority="6">
+  <conditionalFormatting sqref="H86:J86 A86:F86 B85:J85 A2:J84 A87:J108 G109:J109 A109:E109 H164:J164 F176:J176 A176:D176 A165:J175 A110:J163 K2:O366 A164:F164 A193:D193 A177:J192 A194:E194 G194:J194 F193:J193 A195:J366">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>$D$2:$D$366="Saturday"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E193">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$D$2:$D$366="Saturday"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/Documents/Day_log_work.xlsx
+++ b/src/Documents/Day_log_work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Practice\src\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24559CE5-E7A0-4E90-926D-1F15F409ECCA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15510E6-7EDB-41E2-A79B-700B5F3DE997}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="821">
   <si>
     <t>Ticket_id</t>
   </si>
@@ -2412,6 +2412,99 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>keycloak upgrade to 6.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es upgrade to 7.2.1 es started </t>
+  </si>
+  <si>
+    <t>es upgrade to 7.2.1 sg-config failing</t>
+  </si>
+  <si>
+    <t>spring  upgrade help to neeraj binder api fix</t>
+  </si>
+  <si>
+    <t>es upgrade search guard failed to come up reported to search guard</t>
+  </si>
+  <si>
+    <t>trying 7.3.0 version</t>
+  </si>
+  <si>
+    <t>temple: urukunda</t>
+  </si>
+  <si>
+    <t>4414;4092</t>
+  </si>
+  <si>
+    <t>kibana rpm build 5.6.15</t>
+  </si>
+  <si>
+    <t>lodash patch</t>
+  </si>
+  <si>
+    <t>lodash patch timelion removal</t>
+  </si>
+  <si>
+    <t>unit and integration test all modules</t>
+  </si>
+  <si>
+    <t>es fail with  class not found error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search guard templates upgrade </t>
+  </si>
+  <si>
+    <t>es fixed by add correct jar then got sgadmin incomatible version problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSL not loaded by ES </t>
+  </si>
+  <si>
+    <t>flowDirection issue fix data is not stored in ES</t>
+  </si>
+  <si>
+    <t>auditlogs not coming,  started certificate mgt</t>
+  </si>
+  <si>
+    <t>certmgmnt,postconfig check,auditlogs check</t>
+  </si>
+  <si>
+    <t>keycloak auth fail in esync</t>
+  </si>
+  <si>
+    <t>binder api fix lastsynctime and nextsynctime and keycloak auth token issue fix</t>
+  </si>
+  <si>
+    <t>esync testcase fix</t>
+  </si>
+  <si>
+    <t>kibana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES DB index template </t>
+  </si>
+  <si>
+    <t>fuentd and keyclaok and auditlogs</t>
+  </si>
+  <si>
+    <t>4442 | 4444| 4445</t>
+  </si>
+  <si>
+    <t>Rollback</t>
+  </si>
+  <si>
+    <t>keycloak rollback fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sick </t>
+  </si>
+  <si>
+    <t xml:space="preserve">party malli </t>
+  </si>
+  <si>
+    <t>kibana visuatigation fail in CI</t>
   </si>
 </sst>
 </file>
@@ -11826,8 +11919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA16314-1EBD-45FC-BE59-12C57F1884F2}">
   <dimension ref="A1:R366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="E236" sqref="E236"/>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="B289" sqref="B289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16844,8 +16937,11 @@
       <c r="O228" s="12"/>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>4092</v>
+      </c>
       <c r="B229" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="C229">
         <v>8</v>
@@ -16898,10 +16994,22 @@
       <c r="O231" s="12"/>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>4092</v>
+      </c>
+      <c r="B232" t="s">
+        <v>611</v>
+      </c>
+      <c r="C232">
+        <v>8</v>
+      </c>
       <c r="D232" s="12">
         <v>43696</v>
       </c>
       <c r="E232"/>
+      <c r="F232" s="3" t="s">
+        <v>788</v>
+      </c>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
       <c r="K232" s="12"/>
@@ -16911,10 +17019,19 @@
       <c r="O232" s="12"/>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>4092</v>
+      </c>
+      <c r="B233" t="s">
+        <v>611</v>
+      </c>
       <c r="D233" s="12">
         <v>43697</v>
       </c>
       <c r="E233"/>
+      <c r="F233" s="3" t="s">
+        <v>788</v>
+      </c>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
       <c r="K233" s="12"/>
@@ -16924,10 +17041,24 @@
       <c r="O233" s="12"/>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>3978</v>
+      </c>
+      <c r="B234" t="s">
+        <v>611</v>
+      </c>
+      <c r="C234">
+        <v>8</v>
+      </c>
       <c r="D234" s="12">
         <v>43698</v>
       </c>
-      <c r="E234"/>
+      <c r="E234" t="s">
+        <v>787</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>790</v>
+      </c>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="12"/>
@@ -16937,10 +17068,24 @@
       <c r="O234" s="12"/>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>3978</v>
+      </c>
+      <c r="B235" t="s">
+        <v>611</v>
+      </c>
+      <c r="C235">
+        <v>8</v>
+      </c>
       <c r="D235" s="12">
         <v>43699</v>
       </c>
-      <c r="E235"/>
+      <c r="E235" t="s">
+        <v>787</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>790</v>
+      </c>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="12"/>
@@ -16950,10 +17095,24 @@
       <c r="O235" s="12"/>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>4092</v>
+      </c>
+      <c r="B236" t="s">
+        <v>611</v>
+      </c>
+      <c r="C236">
+        <v>8</v>
+      </c>
       <c r="D236" s="12">
         <v>43700</v>
       </c>
-      <c r="E236"/>
+      <c r="E236" t="s">
+        <v>787</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>788</v>
+      </c>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
       <c r="K236" s="12"/>
@@ -16966,7 +17125,9 @@
       <c r="D237" s="12">
         <v>43701</v>
       </c>
-      <c r="E237"/>
+      <c r="E237" t="s">
+        <v>150</v>
+      </c>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
       <c r="K237" s="12"/>
@@ -16979,7 +17140,9 @@
       <c r="D238" s="12">
         <v>43702</v>
       </c>
-      <c r="E238"/>
+      <c r="E238" t="s">
+        <v>150</v>
+      </c>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
       <c r="K238" s="12"/>
@@ -16992,7 +17155,12 @@
       <c r="D239" s="12">
         <v>43703</v>
       </c>
-      <c r="E239"/>
+      <c r="E239" t="s">
+        <v>81</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>796</v>
+      </c>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
       <c r="K239" s="12"/>
@@ -17002,10 +17170,24 @@
       <c r="O239" s="12"/>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>4092</v>
+      </c>
+      <c r="B240" t="s">
+        <v>611</v>
+      </c>
+      <c r="C240">
+        <v>8</v>
+      </c>
       <c r="D240" s="12">
         <v>43704</v>
       </c>
-      <c r="E240"/>
+      <c r="E240" t="s">
+        <v>787</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>788</v>
+      </c>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
       <c r="K240" s="12"/>
@@ -17015,10 +17197,24 @@
       <c r="O240" s="12"/>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>4092</v>
+      </c>
+      <c r="B241" t="s">
+        <v>611</v>
+      </c>
+      <c r="C241">
+        <v>8</v>
+      </c>
       <c r="D241" s="12">
         <v>43705</v>
       </c>
-      <c r="E241"/>
+      <c r="E241" t="s">
+        <v>787</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>791</v>
+      </c>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
       <c r="K241" s="12"/>
@@ -17028,10 +17224,24 @@
       <c r="O241" s="12"/>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>4092</v>
+      </c>
+      <c r="B242" t="s">
+        <v>611</v>
+      </c>
+      <c r="C242">
+        <v>8</v>
+      </c>
       <c r="D242" s="12">
         <v>43706</v>
       </c>
-      <c r="E242"/>
+      <c r="E242" t="s">
+        <v>787</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>792</v>
+      </c>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
       <c r="K242" s="12"/>
@@ -17041,10 +17251,24 @@
       <c r="O242" s="12"/>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>4385</v>
+      </c>
+      <c r="B243" t="s">
+        <v>611</v>
+      </c>
+      <c r="C243">
+        <v>8</v>
+      </c>
       <c r="D243" s="12">
         <v>43707</v>
       </c>
-      <c r="E243"/>
+      <c r="E243" t="s">
+        <v>787</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>793</v>
+      </c>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
       <c r="K243" s="12"/>
@@ -17057,7 +17281,9 @@
       <c r="D244" s="12">
         <v>43708</v>
       </c>
-      <c r="E244"/>
+      <c r="E244" t="s">
+        <v>150</v>
+      </c>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
       <c r="K244" s="12"/>
@@ -17070,7 +17296,9 @@
       <c r="D245" s="12">
         <v>43709</v>
       </c>
-      <c r="E245"/>
+      <c r="E245" t="s">
+        <v>150</v>
+      </c>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
       <c r="K245" s="12"/>
@@ -17097,11 +17325,25 @@
       <c r="N246" s="12"/>
       <c r="O246" s="12"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>4092</v>
+      </c>
+      <c r="B247" t="s">
+        <v>611</v>
+      </c>
+      <c r="C247">
+        <v>8</v>
+      </c>
       <c r="D247" s="12">
         <v>43711</v>
       </c>
-      <c r="E247"/>
+      <c r="E247" t="s">
+        <v>787</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>794</v>
+      </c>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
       <c r="K247" s="12"/>
@@ -17111,10 +17353,24 @@
       <c r="O247" s="12"/>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>4092</v>
+      </c>
+      <c r="B248" t="s">
+        <v>611</v>
+      </c>
+      <c r="C248">
+        <v>8</v>
+      </c>
       <c r="D248" s="12">
         <v>43712</v>
       </c>
-      <c r="E248"/>
+      <c r="E248" t="s">
+        <v>787</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>795</v>
+      </c>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
       <c r="K248" s="12"/>
@@ -17124,10 +17380,22 @@
       <c r="O248" s="12"/>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>4092</v>
+      </c>
+      <c r="B249" t="s">
+        <v>611</v>
+      </c>
+      <c r="C249">
+        <v>8</v>
+      </c>
       <c r="D249" s="12">
         <v>43713</v>
       </c>
       <c r="E249"/>
+      <c r="F249" s="3" t="s">
+        <v>802</v>
+      </c>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
       <c r="K249" s="12"/>
@@ -17136,11 +17404,23 @@
       <c r="N249" s="12"/>
       <c r="O249" s="12"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>4092</v>
+      </c>
+      <c r="B250" t="s">
+        <v>611</v>
+      </c>
+      <c r="C250">
+        <v>8</v>
+      </c>
       <c r="D250" s="12">
         <v>43714</v>
       </c>
       <c r="E250"/>
+      <c r="F250" s="3" t="s">
+        <v>804</v>
+      </c>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
       <c r="K250" s="12"/>
@@ -17153,7 +17433,9 @@
       <c r="D251" s="12">
         <v>43715</v>
       </c>
-      <c r="E251"/>
+      <c r="E251" t="s">
+        <v>150</v>
+      </c>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
       <c r="K251" s="12"/>
@@ -17166,7 +17448,9 @@
       <c r="D252" s="12">
         <v>43716</v>
       </c>
-      <c r="E252"/>
+      <c r="E252" t="s">
+        <v>150</v>
+      </c>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
       <c r="K252" s="12"/>
@@ -17176,10 +17460,22 @@
       <c r="O252" s="12"/>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>4092</v>
+      </c>
+      <c r="B253" t="s">
+        <v>611</v>
+      </c>
+      <c r="C253">
+        <v>8</v>
+      </c>
       <c r="D253" s="12">
         <v>43717</v>
       </c>
       <c r="E253"/>
+      <c r="F253" s="3" t="s">
+        <v>803</v>
+      </c>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
       <c r="K253" s="12"/>
@@ -17189,10 +17485,22 @@
       <c r="O253" s="12"/>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>4092</v>
+      </c>
+      <c r="B254" t="s">
+        <v>611</v>
+      </c>
+      <c r="C254">
+        <v>8</v>
+      </c>
       <c r="D254" s="12">
         <v>43718</v>
       </c>
       <c r="E254"/>
+      <c r="F254" s="3" t="s">
+        <v>803</v>
+      </c>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
       <c r="K254" s="12"/>
@@ -17202,10 +17510,22 @@
       <c r="O254" s="12"/>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>4092</v>
+      </c>
+      <c r="B255" t="s">
+        <v>611</v>
+      </c>
+      <c r="C255">
+        <v>8</v>
+      </c>
       <c r="D255" s="12">
         <v>43719</v>
       </c>
       <c r="E255"/>
+      <c r="F255" s="3" t="s">
+        <v>803</v>
+      </c>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
       <c r="K255" s="12"/>
@@ -17215,10 +17535,22 @@
       <c r="O255" s="12"/>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>4092</v>
+      </c>
+      <c r="B256" t="s">
+        <v>611</v>
+      </c>
+      <c r="C256">
+        <v>8</v>
+      </c>
       <c r="D256" s="12">
         <v>43720</v>
       </c>
       <c r="E256"/>
+      <c r="F256" s="3" t="s">
+        <v>805</v>
+      </c>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
       <c r="K256" s="12"/>
@@ -17227,11 +17559,23 @@
       <c r="N256" s="12"/>
       <c r="O256" s="12"/>
     </row>
-    <row r="257" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>4092</v>
+      </c>
+      <c r="B257" t="s">
+        <v>611</v>
+      </c>
+      <c r="C257">
+        <v>8</v>
+      </c>
       <c r="D257" s="12">
         <v>43721</v>
       </c>
       <c r="E257"/>
+      <c r="F257" s="3" t="s">
+        <v>805</v>
+      </c>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
       <c r="K257" s="12"/>
@@ -17240,11 +17584,13 @@
       <c r="N257" s="12"/>
       <c r="O257" s="12"/>
     </row>
-    <row r="258" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D258" s="12">
         <v>43722</v>
       </c>
-      <c r="E258"/>
+      <c r="E258" t="s">
+        <v>150</v>
+      </c>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
       <c r="K258" s="12"/>
@@ -17253,11 +17599,13 @@
       <c r="N258" s="12"/>
       <c r="O258" s="12"/>
     </row>
-    <row r="259" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D259" s="12">
         <v>43723</v>
       </c>
-      <c r="E259"/>
+      <c r="E259" t="s">
+        <v>150</v>
+      </c>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
       <c r="K259" s="12"/>
@@ -17266,11 +17614,25 @@
       <c r="N259" s="12"/>
       <c r="O259" s="12"/>
     </row>
-    <row r="260" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A260" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B260" t="s">
+        <v>611</v>
+      </c>
+      <c r="C260">
+        <v>8</v>
+      </c>
       <c r="D260" s="12">
         <v>43724</v>
       </c>
-      <c r="E260"/>
+      <c r="E260" t="s">
+        <v>812</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>798</v>
+      </c>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
       <c r="K260" s="12"/>
@@ -17279,11 +17641,25 @@
       <c r="N260" s="12"/>
       <c r="O260" s="12"/>
     </row>
-    <row r="261" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A261" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B261" t="s">
+        <v>611</v>
+      </c>
+      <c r="C261">
+        <v>8</v>
+      </c>
       <c r="D261" s="12">
         <v>43725</v>
       </c>
-      <c r="E261"/>
+      <c r="E261" t="s">
+        <v>812</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>799</v>
+      </c>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
       <c r="K261" s="12"/>
@@ -17292,11 +17668,25 @@
       <c r="N261" s="12"/>
       <c r="O261" s="12"/>
     </row>
-    <row r="262" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A262" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B262" t="s">
+        <v>611</v>
+      </c>
+      <c r="C262">
+        <v>8</v>
+      </c>
       <c r="D262" s="12">
         <v>43726</v>
       </c>
-      <c r="E262"/>
+      <c r="E262" t="s">
+        <v>812</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>799</v>
+      </c>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
       <c r="K262" s="12"/>
@@ -17305,11 +17695,25 @@
       <c r="N262" s="12"/>
       <c r="O262" s="12"/>
     </row>
-    <row r="263" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A263" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B263" t="s">
+        <v>611</v>
+      </c>
+      <c r="C263">
+        <v>8</v>
+      </c>
       <c r="D263" s="12">
         <v>43727</v>
       </c>
-      <c r="E263"/>
+      <c r="E263" t="s">
+        <v>812</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
       <c r="K263" s="12"/>
@@ -17318,11 +17722,25 @@
       <c r="N263" s="12"/>
       <c r="O263" s="12"/>
     </row>
-    <row r="264" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A264" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B264" t="s">
+        <v>611</v>
+      </c>
+      <c r="C264">
+        <v>8</v>
+      </c>
       <c r="D264" s="12">
         <v>43728</v>
       </c>
-      <c r="E264"/>
+      <c r="E264" t="s">
+        <v>787</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>801</v>
+      </c>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
       <c r="K264" s="12"/>
@@ -17331,11 +17749,13 @@
       <c r="N264" s="12"/>
       <c r="O264" s="12"/>
     </row>
-    <row r="265" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D265" s="12">
         <v>43729</v>
       </c>
-      <c r="E265"/>
+      <c r="E265" t="s">
+        <v>150</v>
+      </c>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
       <c r="K265" s="12"/>
@@ -17344,11 +17764,13 @@
       <c r="N265" s="12"/>
       <c r="O265" s="12"/>
     </row>
-    <row r="266" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D266" s="12">
         <v>43730</v>
       </c>
-      <c r="E266"/>
+      <c r="E266" t="s">
+        <v>150</v>
+      </c>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
       <c r="K266" s="12"/>
@@ -17357,11 +17779,25 @@
       <c r="N266" s="12"/>
       <c r="O266" s="12"/>
     </row>
-    <row r="267" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>4434</v>
+      </c>
+      <c r="B267" t="s">
+        <v>611</v>
+      </c>
+      <c r="C267">
+        <v>8</v>
+      </c>
       <c r="D267" s="12">
         <v>43731</v>
       </c>
-      <c r="E267"/>
+      <c r="E267" t="s">
+        <v>813</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>806</v>
+      </c>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
       <c r="K267" s="12"/>
@@ -17370,11 +17806,25 @@
       <c r="N267" s="12"/>
       <c r="O267" s="12"/>
     </row>
-    <row r="268" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>4440</v>
+      </c>
+      <c r="B268" t="s">
+        <v>611</v>
+      </c>
+      <c r="C268">
+        <v>8</v>
+      </c>
       <c r="D268" s="12">
         <v>43732</v>
       </c>
-      <c r="E268"/>
+      <c r="E268" t="s">
+        <v>814</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>807</v>
+      </c>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
       <c r="K268" s="12"/>
@@ -17383,11 +17833,23 @@
       <c r="N268" s="12"/>
       <c r="O268" s="12"/>
     </row>
-    <row r="269" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>4440</v>
+      </c>
+      <c r="B269" t="s">
+        <v>611</v>
+      </c>
+      <c r="C269">
+        <v>8</v>
+      </c>
       <c r="D269" s="12">
         <v>43733</v>
       </c>
       <c r="E269"/>
+      <c r="F269" s="3" t="s">
+        <v>808</v>
+      </c>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
       <c r="K269" s="12"/>
@@ -17396,11 +17858,23 @@
       <c r="N269" s="12"/>
       <c r="O269" s="12"/>
     </row>
-    <row r="270" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>4442</v>
+      </c>
+      <c r="B270" t="s">
+        <v>611</v>
+      </c>
+      <c r="C270">
+        <v>8</v>
+      </c>
       <c r="D270" s="12">
         <v>43734</v>
       </c>
       <c r="E270"/>
+      <c r="F270" s="3" t="s">
+        <v>809</v>
+      </c>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
       <c r="K270" s="12"/>
@@ -17409,11 +17883,23 @@
       <c r="N270" s="12"/>
       <c r="O270" s="12"/>
     </row>
-    <row r="271" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>4442</v>
+      </c>
+      <c r="B271" t="s">
+        <v>611</v>
+      </c>
+      <c r="C271">
+        <v>8</v>
+      </c>
       <c r="D271" s="12">
         <v>43735</v>
       </c>
       <c r="E271"/>
+      <c r="F271" s="3" t="s">
+        <v>809</v>
+      </c>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
       <c r="K271" s="12"/>
@@ -17422,11 +17908,23 @@
       <c r="N271" s="12"/>
       <c r="O271" s="12"/>
     </row>
-    <row r="272" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>4442</v>
+      </c>
+      <c r="B272" t="s">
+        <v>611</v>
+      </c>
+      <c r="C272">
+        <v>8</v>
+      </c>
       <c r="D272" s="12">
         <v>43736</v>
       </c>
       <c r="E272"/>
+      <c r="F272" s="3" t="s">
+        <v>809</v>
+      </c>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
       <c r="K272" s="12"/>
@@ -17436,10 +17934,22 @@
       <c r="O272" s="12"/>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>4442</v>
+      </c>
+      <c r="B273" t="s">
+        <v>611</v>
+      </c>
+      <c r="C273">
+        <v>8</v>
+      </c>
       <c r="D273" s="12">
         <v>43737</v>
       </c>
       <c r="E273"/>
+      <c r="F273" s="3" t="s">
+        <v>809</v>
+      </c>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
       <c r="K273" s="12"/>
@@ -17448,11 +17958,23 @@
       <c r="N273" s="12"/>
       <c r="O273" s="12"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>4445</v>
+      </c>
+      <c r="B274" t="s">
+        <v>611</v>
+      </c>
+      <c r="C274">
+        <v>8</v>
+      </c>
       <c r="D274" s="12">
         <v>43738</v>
       </c>
       <c r="E274"/>
+      <c r="F274" s="3" t="s">
+        <v>810</v>
+      </c>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
       <c r="K274" s="12"/>
@@ -17462,10 +17984,22 @@
       <c r="O274" s="12"/>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>815</v>
+      </c>
+      <c r="B275" t="s">
+        <v>611</v>
+      </c>
+      <c r="C275">
+        <v>8</v>
+      </c>
       <c r="D275" s="12">
         <v>43739</v>
       </c>
       <c r="E275"/>
+      <c r="F275" s="3" t="s">
+        <v>811</v>
+      </c>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
       <c r="K275" s="12"/>
@@ -17484,6 +18018,9 @@
       <c r="E276" t="s">
         <v>600</v>
       </c>
+      <c r="F276" s="3" t="s">
+        <v>819</v>
+      </c>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
       <c r="K276" s="12"/>
@@ -17493,10 +18030,18 @@
       <c r="O276" s="12"/>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B277" t="s">
+        <v>611</v>
+      </c>
       <c r="D277" s="12">
         <v>43741</v>
       </c>
-      <c r="E277"/>
+      <c r="E277" t="s">
+        <v>81</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>818</v>
+      </c>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
       <c r="K277" s="12"/>
@@ -17506,10 +18051,15 @@
       <c r="O277" s="12"/>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B278" t="s">
+        <v>611</v>
+      </c>
       <c r="D278" s="12">
         <v>43742</v>
       </c>
-      <c r="E278"/>
+      <c r="E278" t="s">
+        <v>81</v>
+      </c>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
       <c r="K278" s="12"/>
@@ -17522,7 +18072,9 @@
       <c r="D279" s="12">
         <v>43743</v>
       </c>
-      <c r="E279"/>
+      <c r="E279" t="s">
+        <v>150</v>
+      </c>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
       <c r="K279" s="12"/>
@@ -17535,7 +18087,9 @@
       <c r="D280" s="12">
         <v>43744</v>
       </c>
-      <c r="E280"/>
+      <c r="E280" t="s">
+        <v>150</v>
+      </c>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
       <c r="K280" s="12"/>
@@ -17581,10 +18135,24 @@
       <c r="O282" s="12"/>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>4444</v>
+      </c>
+      <c r="B283" t="s">
+        <v>611</v>
+      </c>
+      <c r="C283">
+        <v>8</v>
+      </c>
       <c r="D283" s="12">
         <v>43747</v>
       </c>
-      <c r="E283"/>
+      <c r="E283" t="s">
+        <v>816</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>817</v>
+      </c>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
       <c r="K283" s="12"/>
@@ -17594,10 +18162,21 @@
       <c r="O283" s="12"/>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>4444</v>
+      </c>
+      <c r="B284" t="s">
+        <v>611</v>
+      </c>
+      <c r="C284">
+        <v>8</v>
+      </c>
       <c r="D284" s="12">
         <v>43748</v>
       </c>
-      <c r="E284"/>
+      <c r="E284" t="s">
+        <v>816</v>
+      </c>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
       <c r="K284" s="12"/>
@@ -17607,10 +18186,18 @@
       <c r="O284" s="12"/>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B285" t="s">
+        <v>611</v>
+      </c>
+      <c r="C285">
+        <v>8</v>
+      </c>
       <c r="D285" s="12">
         <v>43749</v>
       </c>
-      <c r="E285"/>
+      <c r="E285" t="s">
+        <v>816</v>
+      </c>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
       <c r="K285" s="12"/>
@@ -17620,10 +18207,18 @@
       <c r="O285" s="12"/>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B286" t="s">
+        <v>611</v>
+      </c>
+      <c r="C286">
+        <v>8</v>
+      </c>
       <c r="D286" s="12">
         <v>43750</v>
       </c>
-      <c r="E286"/>
+      <c r="E286" t="s">
+        <v>816</v>
+      </c>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
       <c r="K286" s="12"/>
@@ -17633,10 +18228,18 @@
       <c r="O286" s="12"/>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B287" t="s">
+        <v>611</v>
+      </c>
+      <c r="C287">
+        <v>8</v>
+      </c>
       <c r="D287" s="12">
         <v>43751</v>
       </c>
-      <c r="E287"/>
+      <c r="E287" t="s">
+        <v>816</v>
+      </c>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
       <c r="K287" s="12"/>
@@ -17658,11 +18261,22 @@
       <c r="N288" s="12"/>
       <c r="O288" s="12"/>
     </row>
-    <row r="289" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>4450</v>
+      </c>
+      <c r="B289" t="s">
+        <v>611</v>
+      </c>
+      <c r="C289">
+        <v>8</v>
+      </c>
       <c r="D289" s="12">
         <v>43753</v>
       </c>
-      <c r="E289"/>
+      <c r="E289" t="s">
+        <v>820</v>
+      </c>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
       <c r="K289" s="12"/>
@@ -17671,7 +18285,7 @@
       <c r="N289" s="12"/>
       <c r="O289" s="12"/>
     </row>
-    <row r="290" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D290" s="12">
         <v>43754</v>
       </c>
@@ -17684,7 +18298,7 @@
       <c r="N290" s="12"/>
       <c r="O290" s="12"/>
     </row>
-    <row r="291" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D291" s="12">
         <v>43755</v>
       </c>
@@ -17697,7 +18311,7 @@
       <c r="N291" s="12"/>
       <c r="O291" s="12"/>
     </row>
-    <row r="292" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D292" s="12">
         <v>43756</v>
       </c>
@@ -17710,7 +18324,7 @@
       <c r="N292" s="12"/>
       <c r="O292" s="12"/>
     </row>
-    <row r="293" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D293" s="12">
         <v>43757</v>
       </c>
@@ -17723,7 +18337,7 @@
       <c r="N293" s="12"/>
       <c r="O293" s="12"/>
     </row>
-    <row r="294" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D294" s="12">
         <v>43758</v>
       </c>
@@ -17736,7 +18350,7 @@
       <c r="N294" s="12"/>
       <c r="O294" s="12"/>
     </row>
-    <row r="295" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D295" s="12">
         <v>43759</v>
       </c>
@@ -17749,7 +18363,7 @@
       <c r="N295" s="12"/>
       <c r="O295" s="12"/>
     </row>
-    <row r="296" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D296" s="12">
         <v>43760</v>
       </c>
@@ -17762,7 +18376,7 @@
       <c r="N296" s="12"/>
       <c r="O296" s="12"/>
     </row>
-    <row r="297" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D297" s="12">
         <v>43761</v>
       </c>
@@ -17775,7 +18389,7 @@
       <c r="N297" s="12"/>
       <c r="O297" s="12"/>
     </row>
-    <row r="298" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D298" s="12">
         <v>43762</v>
       </c>
@@ -17788,7 +18402,7 @@
       <c r="N298" s="12"/>
       <c r="O298" s="12"/>
     </row>
-    <row r="299" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D299" s="12">
         <v>43763</v>
       </c>
@@ -17801,7 +18415,7 @@
       <c r="N299" s="12"/>
       <c r="O299" s="12"/>
     </row>
-    <row r="300" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D300" s="12">
         <v>43764</v>
       </c>
@@ -17814,7 +18428,7 @@
       <c r="N300" s="12"/>
       <c r="O300" s="12"/>
     </row>
-    <row r="301" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D301" s="12">
         <v>43765</v>
       </c>
@@ -17827,7 +18441,7 @@
       <c r="N301" s="12"/>
       <c r="O301" s="12"/>
     </row>
-    <row r="302" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D302" s="12">
         <v>43766</v>
       </c>
@@ -17840,7 +18454,7 @@
       <c r="N302" s="12"/>
       <c r="O302" s="12"/>
     </row>
-    <row r="303" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D303" s="12">
         <v>43767</v>
       </c>
@@ -17853,7 +18467,7 @@
       <c r="N303" s="12"/>
       <c r="O303" s="12"/>
     </row>
-    <row r="304" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D304" s="12">
         <v>43768</v>
       </c>

--- a/src/Documents/Day_log_work.xlsx
+++ b/src/Documents/Day_log_work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Practice\src\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15510E6-7EDB-41E2-A79B-700B5F3DE997}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7BFA80-0B9F-4D39-BB76-C480DB692DBC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="827">
   <si>
     <t>Ticket_id</t>
   </si>
@@ -2505,6 +2505,24 @@
   </si>
   <si>
     <t>kibana visuatigation fail in CI</t>
+  </si>
+  <si>
+    <t>support for 3uk</t>
+  </si>
+  <si>
+    <t>node not ready</t>
+  </si>
+  <si>
+    <t>spring training</t>
+  </si>
+  <si>
+    <t>spring training + 5g csd</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>csd</t>
   </si>
 </sst>
 </file>
@@ -11919,8 +11937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA16314-1EBD-45FC-BE59-12C57F1884F2}">
   <dimension ref="A1:R366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="B289" sqref="B289"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="C305" sqref="C305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11942,7 +11960,7 @@
     <col min="18" max="18" width="38.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="174" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>317</v>
       </c>
@@ -12044,7 +12062,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3817</v>
       </c>
@@ -12073,7 +12091,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3817</v>
       </c>
@@ -12183,7 +12201,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3835</v>
       </c>
@@ -12276,7 +12294,7 @@
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3835</v>
       </c>
@@ -12410,7 +12428,7 @@
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
     </row>
-    <row r="18" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="174" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3835</v>
       </c>
@@ -12525,7 +12543,7 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
     </row>
-    <row r="22" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3835</v>
       </c>
@@ -12652,7 +12670,7 @@
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
     </row>
-    <row r="26" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>617</v>
       </c>
@@ -12713,7 +12731,7 @@
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
     </row>
-    <row r="29" spans="1:15" ht="174" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4269</v>
       </c>
@@ -12749,7 +12767,7 @@
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
     </row>
-    <row r="30" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="145" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>4269</v>
       </c>
@@ -12823,7 +12841,7 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
     </row>
-    <row r="32" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4282</v>
       </c>
@@ -12855,7 +12873,7 @@
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
     </row>
-    <row r="33" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>633</v>
       </c>
@@ -12935,7 +12953,7 @@
       </c>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="232" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4282</v>
       </c>
@@ -13003,7 +13021,7 @@
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
     </row>
-    <row r="38" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>4227</v>
       </c>
@@ -13035,7 +13053,7 @@
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
     </row>
-    <row r="39" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4287</v>
       </c>
@@ -13146,7 +13164,7 @@
       </c>
       <c r="O42" s="13"/>
     </row>
-    <row r="43" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>4287</v>
       </c>
@@ -13742,7 +13760,7 @@
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
     </row>
-    <row r="68" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="D68" s="12">
         <v>43532</v>
       </c>
@@ -13851,7 +13869,7 @@
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
     </row>
-    <row r="73" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>625</v>
       </c>
@@ -13948,7 +13966,7 @@
       <c r="N77" s="13"/>
       <c r="O77" s="13"/>
     </row>
-    <row r="78" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>4167</v>
       </c>
@@ -13980,7 +13998,7 @@
       <c r="N78" s="13"/>
       <c r="O78" s="13"/>
     </row>
-    <row r="79" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>4167</v>
       </c>
@@ -14012,7 +14030,7 @@
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
     </row>
-    <row r="80" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>4167</v>
       </c>
@@ -14044,7 +14062,7 @@
       <c r="N80" s="13"/>
       <c r="O80" s="13"/>
     </row>
-    <row r="81" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>4167</v>
       </c>
@@ -14076,7 +14094,7 @@
       <c r="N81" s="13"/>
       <c r="O81" s="13"/>
     </row>
-    <row r="82" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>4167</v>
       </c>
@@ -14142,7 +14160,7 @@
       <c r="N84" s="13"/>
       <c r="O84" s="13"/>
     </row>
-    <row r="85" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>625</v>
       </c>
@@ -15642,7 +15660,7 @@
       <c r="N162" s="12"/>
       <c r="O162" s="12"/>
     </row>
-    <row r="163" spans="2:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:15" ht="58" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>611</v>
       </c>
@@ -15666,7 +15684,7 @@
       <c r="N163" s="12"/>
       <c r="O163" s="12"/>
     </row>
-    <row r="164" spans="2:15" ht="116" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>611</v>
       </c>
@@ -15690,7 +15708,7 @@
       <c r="N164" s="12"/>
       <c r="O164" s="12"/>
     </row>
-    <row r="165" spans="2:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:15" ht="29" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>611</v>
       </c>
@@ -15714,7 +15732,7 @@
       <c r="N165" s="12"/>
       <c r="O165" s="12"/>
     </row>
-    <row r="166" spans="2:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:15" ht="58" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>625</v>
       </c>
@@ -15840,7 +15858,7 @@
       <c r="N172" s="12"/>
       <c r="O172" s="12"/>
     </row>
-    <row r="173" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:15" x14ac:dyDescent="0.35">
       <c r="D173" s="12">
         <v>43637</v>
       </c>
@@ -15891,7 +15909,7 @@
       <c r="N175" s="12"/>
       <c r="O175" s="12"/>
     </row>
-    <row r="176" spans="2:15" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="D176" s="12">
         <v>43640</v>
       </c>
@@ -15912,7 +15930,7 @@
       <c r="N176" s="12"/>
       <c r="O176" s="12"/>
     </row>
-    <row r="177" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="D177" s="12">
         <v>43641</v>
       </c>
@@ -15975,7 +15993,7 @@
       <c r="N179" s="12"/>
       <c r="O179" s="12"/>
     </row>
-    <row r="180" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D180" s="12">
         <v>43644</v>
       </c>
@@ -16056,7 +16074,7 @@
       <c r="N183" s="12"/>
       <c r="O183" s="12"/>
     </row>
-    <row r="184" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>4398</v>
       </c>
@@ -18312,10 +18330,18 @@
       <c r="O291" s="12"/>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B292" t="s">
+        <v>611</v>
+      </c>
+      <c r="C292">
+        <v>8</v>
+      </c>
       <c r="D292" s="12">
         <v>43756</v>
       </c>
-      <c r="E292"/>
+      <c r="E292" t="s">
+        <v>81</v>
+      </c>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
       <c r="K292" s="12"/>
@@ -18328,7 +18354,9 @@
       <c r="D293" s="12">
         <v>43757</v>
       </c>
-      <c r="E293"/>
+      <c r="E293" t="s">
+        <v>150</v>
+      </c>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
       <c r="K293" s="12"/>
@@ -18341,7 +18369,9 @@
       <c r="D294" s="12">
         <v>43758</v>
       </c>
-      <c r="E294"/>
+      <c r="E294" t="s">
+        <v>150</v>
+      </c>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
       <c r="K294" s="12"/>
@@ -18380,7 +18410,12 @@
       <c r="D297" s="12">
         <v>43761</v>
       </c>
-      <c r="E297"/>
+      <c r="E297" t="s">
+        <v>821</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>822</v>
+      </c>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
       <c r="K297" s="12"/>
@@ -18393,7 +18428,9 @@
       <c r="D298" s="12">
         <v>43762</v>
       </c>
-      <c r="E298"/>
+      <c r="E298" t="s">
+        <v>821</v>
+      </c>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
       <c r="K298" s="12"/>
@@ -18419,7 +18456,9 @@
       <c r="D300" s="12">
         <v>43764</v>
       </c>
-      <c r="E300"/>
+      <c r="E300" t="s">
+        <v>150</v>
+      </c>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
       <c r="K300" s="12"/>
@@ -18432,7 +18471,9 @@
       <c r="D301" s="12">
         <v>43765</v>
       </c>
-      <c r="E301"/>
+      <c r="E301" t="s">
+        <v>150</v>
+      </c>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
       <c r="K301" s="12"/>
@@ -18445,7 +18486,9 @@
       <c r="D302" s="12">
         <v>43766</v>
       </c>
-      <c r="E302"/>
+      <c r="E302" t="s">
+        <v>823</v>
+      </c>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
       <c r="K302" s="12"/>
@@ -18458,7 +18501,9 @@
       <c r="D303" s="12">
         <v>43767</v>
       </c>
-      <c r="E303"/>
+      <c r="E303" t="s">
+        <v>823</v>
+      </c>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
       <c r="K303" s="12"/>
@@ -18471,7 +18516,9 @@
       <c r="D304" s="12">
         <v>43768</v>
       </c>
-      <c r="E304"/>
+      <c r="E304" t="s">
+        <v>824</v>
+      </c>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
       <c r="K304" s="12"/>
@@ -18481,10 +18528,18 @@
       <c r="O304" s="12"/>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B305" t="s">
+        <v>625</v>
+      </c>
+      <c r="C305">
+        <v>8</v>
+      </c>
       <c r="D305" s="12">
         <v>43769</v>
       </c>
-      <c r="E305"/>
+      <c r="E305" t="s">
+        <v>81</v>
+      </c>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
       <c r="K305" s="12"/>
@@ -18515,7 +18570,9 @@
       <c r="D307" s="12">
         <v>43771</v>
       </c>
-      <c r="E307"/>
+      <c r="E307" t="s">
+        <v>150</v>
+      </c>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
       <c r="K307" s="12"/>
@@ -18528,7 +18585,9 @@
       <c r="D308" s="12">
         <v>43772</v>
       </c>
-      <c r="E308"/>
+      <c r="E308" t="s">
+        <v>150</v>
+      </c>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
       <c r="K308" s="12"/>
@@ -18541,7 +18600,12 @@
       <c r="D309" s="12">
         <v>43773</v>
       </c>
-      <c r="E309"/>
+      <c r="E309" t="s">
+        <v>825</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>826</v>
+      </c>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
       <c r="K309" s="12"/>

--- a/src/Documents/Day_log_work.xlsx
+++ b/src/Documents/Day_log_work.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Practice\src\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7BFA80-0B9F-4D39-BB76-C480DB692DBC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1851175-3487-452E-BED3-A9BAEF692B16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="-110" windowWidth="18330" windowHeight="11020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="2018" sheetId="3" r:id="rId3"/>
     <sheet name="Nokia_2018" sheetId="4" r:id="rId4"/>
     <sheet name="N_2019" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
+    <sheet name="2020" sheetId="7" r:id="rId6"/>
+    <sheet name="clrs" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="1070">
   <si>
     <t>Ticket_id</t>
   </si>
@@ -2524,16 +2525,746 @@
   <si>
     <t>csd</t>
   </si>
+  <si>
+    <t>5G bug</t>
+  </si>
+  <si>
+    <t>setup bring up</t>
+  </si>
+  <si>
+    <t>learning index improvement</t>
+  </si>
+  <si>
+    <t>minikube setup bring up</t>
+  </si>
+  <si>
+    <t>lambda exp java oracle tutorial</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>lambda helps to implement genral flow using functional programming, and scope of variables</t>
+  </si>
+  <si>
+    <t>start the db and nrfp container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic programming LCS </t>
+  </si>
+  <si>
+    <t>longest common subsecuence</t>
+  </si>
+  <si>
+    <t>not complete</t>
+  </si>
+  <si>
+    <t>NNCSD-174</t>
+  </si>
+  <si>
+    <t>pinponted th eproblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">localsetup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">call flow handson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">local setup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">local setup preparation nf mock server in same machine by docker </t>
+  </si>
+  <si>
+    <t>root cause found</t>
+  </si>
+  <si>
+    <t>bug nrfp heartbeat timer empty</t>
+  </si>
+  <si>
+    <t>fixing/handling nullpointer</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exercise problem analysis </t>
+  </si>
+  <si>
+    <t>forkjoin pool introduction</t>
+  </si>
+  <si>
+    <t>ramp up on 5g bsf</t>
+  </si>
+  <si>
+    <t>PI planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphs </t>
+  </si>
+  <si>
+    <t>miminum cost spanning tree</t>
+  </si>
+  <si>
+    <t>topological sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfs </t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>Spiral print of matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bsf module docs </t>
+  </si>
+  <si>
+    <t>BSF ramp up</t>
+  </si>
+  <si>
+    <t>bring up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call check </t>
+  </si>
+  <si>
+    <t>failed with index problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task </t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effective java </t>
+  </si>
+  <si>
+    <t>enumset and enummap</t>
+  </si>
+  <si>
+    <t>voting pi1</t>
+  </si>
+  <si>
+    <t>2to 4</t>
+  </si>
+  <si>
+    <t>marker annotaion and marker interface. Marker annotation for program element, marker interface for classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">geo redundency </t>
+  </si>
+  <si>
+    <t>started analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">training on docker </t>
+  </si>
+  <si>
+    <t>10-11.30</t>
+  </si>
+  <si>
+    <t>use lambds instead of anonymus class.2 prefer method references to lambdas</t>
+  </si>
+  <si>
+    <t>BSF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">training on kubernetes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bsf call before geo checked </t>
+  </si>
+  <si>
+    <t>prefer existing functinal interfaces. Six basic types operator(in args and out args are same),function(input and out arg is diff),prdicate(takes an arg give bool),supplier(takes nothing gives somthing),consumer(nothing returns takes an arg)</t>
+  </si>
+  <si>
+    <t>wfh BSF</t>
+  </si>
+  <si>
+    <t>added geositename column</t>
+  </si>
+  <si>
+    <t>second half on leave</t>
+  </si>
+  <si>
+    <t>new column changes test</t>
+  </si>
+  <si>
+    <t>leave applied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stream </t>
+  </si>
+  <si>
+    <t>5g</t>
+  </si>
+  <si>
+    <t>scp training</t>
+  </si>
+  <si>
+    <t>90min</t>
+  </si>
+  <si>
+    <t>athnoor</t>
+  </si>
+  <si>
+    <t>passport verification</t>
+  </si>
+  <si>
+    <t>vlab install and sub task creation and analyse alarm in 4g and submitt the code for new column</t>
+  </si>
+  <si>
+    <t>testing bsf call flow for geo red new column in response</t>
+  </si>
+  <si>
+    <t>BSf</t>
+  </si>
+  <si>
+    <t>code subission</t>
+  </si>
+  <si>
+    <t>5G</t>
+  </si>
+  <si>
+    <t>review comments addressing and testing</t>
+  </si>
+  <si>
+    <t>Vlab + Idea generation</t>
+  </si>
+  <si>
+    <t>Vlab 5g install</t>
+  </si>
+  <si>
+    <t>Idea generation</t>
+  </si>
+  <si>
+    <t>8.30-12.30</t>
+  </si>
+  <si>
+    <t>240min</t>
+  </si>
+  <si>
+    <t>Algorithms CLRS</t>
+  </si>
+  <si>
+    <t>multithreading</t>
+  </si>
+  <si>
+    <t>Effectve java</t>
+  </si>
+  <si>
+    <t>when to use streams and when to use iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basic, span,speedup, performance(Tp=T1/P +Tinfinity(max strand time in span)) </t>
+  </si>
+  <si>
+    <t>istio video training</t>
+  </si>
+  <si>
+    <t>11to 1</t>
+  </si>
+  <si>
+    <t>120min</t>
+  </si>
+  <si>
+    <t>prefer collection to streams</t>
+  </si>
+  <si>
+    <t>if small data set return collection otherwise return stream. Stream is not subtype of iterable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEPP and SM gui </t>
+  </si>
+  <si>
+    <t>if ops having Stream.iterate or intermediate limit function is used then parallel stream SHOULD NOT used. Used on Stream on Arraylist,hashmap, hashset,cuncurrenthashmap,arrays,intrange, long range</t>
+  </si>
+  <si>
+    <t>Effectve java &amp; Algorithms CLRS</t>
+  </si>
+  <si>
+    <t>parallel stream &amp; minimum cost spanning tree(MST)</t>
+  </si>
+  <si>
+    <t>vlab bring up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eod failed at the end </t>
+  </si>
+  <si>
+    <t>valb bring up</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git </t>
+  </si>
+  <si>
+    <t>brushup</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valb bring up + db-values jinga dcname changes + python ip validation </t>
+  </si>
+  <si>
+    <t>disjoint sets</t>
+  </si>
+  <si>
+    <t>kruskals MST</t>
+  </si>
+  <si>
+    <t>2hr</t>
+  </si>
+  <si>
+    <t>3 (7hr for others)</t>
+  </si>
+  <si>
+    <t>2h logged</t>
+  </si>
+  <si>
+    <t>xdr alert parameter into env.yml  + new poland lab bring up</t>
+  </si>
+  <si>
+    <t>half day leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">danm deploy always </t>
+  </si>
+  <si>
+    <t>danm deploy always  understanding + sitename changes for other services</t>
+  </si>
+  <si>
+    <t>8hr</t>
+  </si>
+  <si>
+    <t>finally brought up</t>
+  </si>
+  <si>
+    <t>4hr(leave applied)</t>
+  </si>
+  <si>
+    <t>if xdr is enabled then danm sould be enabled and failing cluster installation after ncm cluster; app install is not starting</t>
+  </si>
+  <si>
+    <t>Danm separation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danm separation </t>
+  </si>
+  <si>
+    <t>CSDJUPITER-337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tested and pushed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">again chages </t>
+  </si>
+  <si>
+    <t>started testing bcmt eception ncm password reset</t>
+  </si>
+  <si>
+    <t>NNCSD-2617, CSFS-21186</t>
+  </si>
+  <si>
+    <t>CSDJUPITER-339</t>
+  </si>
+  <si>
+    <t>pod affinity aerospike db</t>
+  </si>
+  <si>
+    <t>CSFS-21143</t>
+  </si>
+  <si>
+    <t>grafana istio counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issue fixed </t>
+  </si>
+  <si>
+    <t>aligned the counter stat to current</t>
+  </si>
+  <si>
+    <t>couter tested</t>
+  </si>
+  <si>
+    <t>working as expected</t>
+  </si>
+  <si>
+    <t>vegeta client setup</t>
+  </si>
+  <si>
+    <t>NNCSD-2627</t>
+  </si>
+  <si>
+    <t>grafana pod cpu usage</t>
+  </si>
+  <si>
+    <t>NNCSD-2790</t>
+  </si>
+  <si>
+    <t>item:51,52</t>
+  </si>
+  <si>
+    <t>design method signatures carefully, use overloading judiciously</t>
+  </si>
+  <si>
+    <t>item:53,54,55</t>
+  </si>
+  <si>
+    <t>use varargs judiciously; return empty collection or array instead of null(Collections.empty&lt;Set,Map,List&gt;); return optionals judiciously</t>
+  </si>
+  <si>
+    <t>clrs</t>
+  </si>
+  <si>
+    <t>prims and kriskals SMT</t>
+  </si>
+  <si>
+    <t>item:56,57,58,59,60,61,62,63</t>
+  </si>
+  <si>
+    <t>use doc comments;reduce scope of local var; prefer for-each loop(bug added in nested out.next()) ; know and use libraries ex threadloaclRandom; don’t use float and double when accurate calc required.; prfer primitives than boxed(== compare identity slow nullptr) ; avoide strings where other types are appropriate(dont use as agg key );dont use + to join the string use strbuilder insted</t>
+  </si>
+  <si>
+    <t>item:64,65</t>
+  </si>
+  <si>
+    <t>prefer interface ref over object ref;prefer interface over reflection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java </t>
+  </si>
+  <si>
+    <t>soft,weak,phantom reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft ref objects clean up will start when low mem; weak ref is cannonical mapping of subset of objects can be cleaned up by GC frequently and removed object can be loaded from disk when needed.; phantom(ghost) once created cant be reached (get will always return null) used to cleanup shared resource after last object released the sharedresource </t>
+  </si>
+  <si>
+    <t>pi2 planning</t>
+  </si>
+  <si>
+    <t>module system</t>
+  </si>
+  <si>
+    <t>graphs</t>
+  </si>
+  <si>
+    <t>belllmon ford and dijkstra algo</t>
+  </si>
+  <si>
+    <t>myday</t>
+  </si>
+  <si>
+    <t>install new bcmt</t>
+  </si>
+  <si>
+    <t>module system and annotations basics</t>
+  </si>
+  <si>
+    <t>pi planning + start work</t>
+  </si>
+  <si>
+    <t>FM/PM alarm framework</t>
+  </si>
+  <si>
+    <t>annotation processor integration with gradle</t>
+  </si>
+  <si>
+    <t>analysed 4g alarm code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implement anno processor and adding annotations </t>
+  </si>
+  <si>
+    <t>SATURN-637</t>
+  </si>
+  <si>
+    <t>discussion on reset alarm genration</t>
+  </si>
+  <si>
+    <t>implement anno processor and adding annotations and written xml writer + implement reset alarm genrator</t>
+  </si>
+  <si>
+    <t>Implement the counter xml generator</t>
+  </si>
+  <si>
+    <t>revision + equation of difference system to graphs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analysed 4g counter code </t>
+  </si>
+  <si>
+    <t>solution design for counter</t>
+  </si>
+  <si>
+    <t>alarms code commit</t>
+  </si>
+  <si>
+    <t>sonarqube fixes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field clarification </t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>fix issues with sonarqube</t>
+  </si>
+  <si>
+    <t>port counter</t>
+  </si>
+  <si>
+    <t>60min</t>
+  </si>
+  <si>
+    <t>alarm and counter finalize list to test</t>
+  </si>
+  <si>
+    <t>fixed sonar issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implemet for counter xml </t>
+  </si>
+  <si>
+    <t>define counter annotationss</t>
+  </si>
+  <si>
+    <t>discuss with venkat about architecture</t>
+  </si>
+  <si>
+    <t>refactoring processor module</t>
+  </si>
+  <si>
+    <t>added validation for alarm num</t>
+  </si>
+  <si>
+    <t>shared sample cdxml file</t>
+  </si>
+  <si>
+    <t>gradle</t>
+  </si>
+  <si>
+    <t>basics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alarm service </t>
+  </si>
+  <si>
+    <t>implementation started</t>
+  </si>
+  <si>
+    <t>fmpm testcase</t>
+  </si>
+  <si>
+    <t>70min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basic alarm service complete </t>
+  </si>
+  <si>
+    <t>build failing</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>fmpm status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonar eror fix </t>
+  </si>
+  <si>
+    <t>counter zts fields deriveing rules</t>
+  </si>
+  <si>
+    <t>discussion alertmanger alarm</t>
+  </si>
+  <si>
+    <t>start test alarm</t>
+  </si>
+  <si>
+    <t>test alarm raise</t>
+  </si>
+  <si>
+    <t>local vm test not with ZTS</t>
+  </si>
+  <si>
+    <t>code review</t>
+  </si>
+  <si>
+    <t>code submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker image not building vpn </t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>cd file generator</t>
+  </si>
+  <si>
+    <t>dynamic text + manual cd file creation</t>
+  </si>
+  <si>
+    <t>180min</t>
+  </si>
+  <si>
+    <t>meeting cd file creation</t>
+  </si>
+  <si>
+    <t>counters</t>
+  </si>
+  <si>
+    <t>manual cd file creation</t>
+  </si>
+  <si>
+    <t>counters + alarm</t>
+  </si>
+  <si>
+    <t>Alarm refactor + enhance</t>
+  </si>
+  <si>
+    <t>ip port from prop</t>
+  </si>
+  <si>
+    <t>counter finalise</t>
+  </si>
+  <si>
+    <t>counter framework</t>
+  </si>
+  <si>
+    <t>Alarm framework</t>
+  </si>
+  <si>
+    <t>gradle +annotationproc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">help to sumit </t>
+  </si>
+  <si>
+    <t>buildah</t>
+  </si>
+  <si>
+    <t>All pair shortest path</t>
+  </si>
+  <si>
+    <t>osgi</t>
+  </si>
+  <si>
+    <t>osgi framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gradle </t>
+  </si>
+  <si>
+    <t>annotation proc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prometheus </t>
+  </si>
+  <si>
+    <t>code analysis</t>
+  </si>
+  <si>
+    <t>scp learning + fmpm doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scp learning </t>
+  </si>
+  <si>
+    <t>holidat</t>
+  </si>
+  <si>
+    <t>CI filures fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">go through the discovery header in29. 500, 6.10.3 spec and discovery section in 29.510, 5.3. </t>
+  </si>
+  <si>
+    <t>fmpm finalcd file</t>
+  </si>
+  <si>
+    <t>scp spec read</t>
+  </si>
+  <si>
+    <t>uday code review</t>
+  </si>
+  <si>
+    <t>test setup for SCP</t>
+  </si>
+  <si>
+    <t>partially runnig call</t>
+  </si>
+  <si>
+    <t>analysis of scp calls</t>
+  </si>
+  <si>
+    <t>scp query param impl</t>
+  </si>
+  <si>
+    <t>done 2 approch 1:setQueryParam() 2:setParameter()</t>
+  </si>
+  <si>
+    <t>undersanding full high level flow</t>
+  </si>
+  <si>
+    <t>NNCSD-3574</t>
+  </si>
+  <si>
+    <t>SATURN-617</t>
+  </si>
+  <si>
+    <t>applied</t>
+  </si>
+  <si>
+    <t>SATURN-612</t>
+  </si>
+  <si>
+    <t>testing + read spec + read http protocol</t>
+  </si>
+  <si>
+    <t>scp design and impl</t>
+  </si>
+  <si>
+    <t>12.30-1.30</t>
+  </si>
+  <si>
+    <t>scp rel 16</t>
+  </si>
+  <si>
+    <t>saranya api root code understand and impl for discovery part</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2574,8 +3305,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2600,8 +3339,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor theme="9" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2609,12 +3366,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2668,12 +3501,110 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="31">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
@@ -2777,41 +3708,65 @@
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{D67CDDFB-DF2C-4BB5-8791-39CF78F870BB}" name="Jira"/>
     <tableColumn id="2" xr3:uid="{DED20EFF-BA7F-40F9-BCCE-B10CFB18DEE5}" name="Module"/>
-    <tableColumn id="3" xr3:uid="{5B8FDF17-6A61-4E1F-B1C5-BE238FBB00BE}" name="Description" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{4A77F35B-CB24-4E74-883F-2157AF5C5A4E}" name="Comment" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{F13086ED-D766-49E3-9A0B-5DB99132B97E}" name="Meeting/Discussions" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{7B2BB689-20D5-42CE-8448-B09DF93FD67C}" name="Meeting Time" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{5E0B3206-576A-4D70-BEFE-34D383768F27}" name="Meeting Duration in minute" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{9223DA99-28B5-42E1-A868-C6A095860E48}" name="Date" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{83616C9A-367A-4662-B67A-E8080939643C}" name="Language/Tool" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{0F9509E1-91D6-4CFA-8253-2071BAF46A09}" name="Learning Topic" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{A849A2E4-7B8D-4DE3-B39A-D2F6970FB7B7}" name="Topic Description" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{582563FE-640A-455A-A306-66F32E895A56}" name="Code Practice" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{954381E7-F162-413A-AB98-053E51ECE33B}" name="Status" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{5B8FDF17-6A61-4E1F-B1C5-BE238FBB00BE}" name="Description" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{4A77F35B-CB24-4E74-883F-2157AF5C5A4E}" name="Comment" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{F13086ED-D766-49E3-9A0B-5DB99132B97E}" name="Meeting/Discussions" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{7B2BB689-20D5-42CE-8448-B09DF93FD67C}" name="Meeting Time" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{5E0B3206-576A-4D70-BEFE-34D383768F27}" name="Meeting Duration in minute" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{9223DA99-28B5-42E1-A868-C6A095860E48}" name="Date" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{83616C9A-367A-4662-B67A-E8080939643C}" name="Language/Tool" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{0F9509E1-91D6-4CFA-8253-2071BAF46A09}" name="Learning Topic" dataDxfId="23"/>
+    <tableColumn id="11" xr3:uid="{A849A2E4-7B8D-4DE3-B39A-D2F6970FB7B7}" name="Topic Description" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{582563FE-640A-455A-A306-66F32E895A56}" name="Code Practice" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{954381E7-F162-413A-AB98-053E51ECE33B}" name="Status" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EECD88A-5DB9-4833-8254-B78DC7FB627D}" name="Table1" displayName="Table1" ref="A1:O366" insertRowShift="1" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EECD88A-5DB9-4833-8254-B78DC7FB627D}" name="Table1" displayName="Table1" ref="A1:O366" insertRowShift="1" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A1:O366" xr:uid="{50381C2B-692E-44E3-B17A-131055E6A301}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{3EBDD3E1-F2CC-427C-8493-79B46012BC7F}" name="Jira"/>
     <tableColumn id="15" xr3:uid="{897DC266-B78C-4503-B584-45A9CCDDC82F}" name="Filled Timesheet"/>
     <tableColumn id="16" xr3:uid="{CA4E639E-3EDD-4888-AA97-B8709DD77403}" name="Hrs worked"/>
-    <tableColumn id="8" xr3:uid="{AD082FEF-270F-4188-9427-9E35A1DE736B}" name="Date" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{AD082FEF-270F-4188-9427-9E35A1DE736B}" name="Date" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{65D0D0A5-4FD3-4B13-951E-CDE51E1CF773}" name="Module"/>
-    <tableColumn id="3" xr3:uid="{A5E0F4C0-4B08-48D2-A7E6-6B9BECF4ECA9}" name="Description" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{CB257B31-E5FB-4154-97D9-706C0D4868F5}" name="Comment" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{42ED0B51-FADB-4EB2-B6B1-DFA17DAA2334}" name="Meeting/Discussions" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{9B81D202-FAE2-4D7F-8AAC-7221B9E69147}" name="Meeting Time" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{66D3673C-658E-4F2E-9E51-788535716948}" name="Meeting Duration in minute" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{22C99BC4-7F7A-4043-A73A-88AF59705D67}" name="Language/Tool" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{D289CED3-84A9-482A-87CA-DEEB1E666F76}" name="Learning Topic" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{29166040-ACF9-45B6-80C2-498E74A9703A}" name="Topic Description" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{00C2FD09-172B-497E-AC86-82D5C5D2943A}" name="Code Practice" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{86C7DE83-01CA-4794-ADE1-8E558D895F21}" name="Status" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{A5E0F4C0-4B08-48D2-A7E6-6B9BECF4ECA9}" name="Description" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{CB257B31-E5FB-4154-97D9-706C0D4868F5}" name="Comment" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{42ED0B51-FADB-4EB2-B6B1-DFA17DAA2334}" name="Meeting/Discussions" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{9B81D202-FAE2-4D7F-8AAC-7221B9E69147}" name="Meeting Time" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{66D3673C-658E-4F2E-9E51-788535716948}" name="Meeting Duration in minute" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{22C99BC4-7F7A-4043-A73A-88AF59705D67}" name="Language/Tool" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{D289CED3-84A9-482A-87CA-DEEB1E666F76}" name="Learning Topic" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{29166040-ACF9-45B6-80C2-498E74A9703A}" name="Topic Description" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00C2FD09-172B-497E-AC86-82D5C5D2943A}" name="Code Practice" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{86C7DE83-01CA-4794-ADE1-8E558D895F21}" name="Status" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5DEE9BAA-7C9E-4716-A1C4-4DFB1CC944AA}" name="Table6" displayName="Table6" ref="A1:O367" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
+  <autoFilter ref="A1:O367" xr:uid="{1391C4DE-6CC0-4B2E-B24B-C2D000B2659A}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{C62EAD87-2633-4137-B637-425E96FEC290}" name="Jira"/>
+    <tableColumn id="2" xr3:uid="{535EFFFB-24EC-4BAC-9392-9E5EAD346608}" name="Filled Timesheet"/>
+    <tableColumn id="3" xr3:uid="{5FC3E3E1-E1D8-4DF9-855A-0A273BAA3F17}" name="Hrs worked"/>
+    <tableColumn id="4" xr3:uid="{9C7D7164-6F12-4705-B9B0-15A05BD5A69F}" name="Date" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{95C04250-5F3E-4132-8C1D-ED694C57580B}" name="Module"/>
+    <tableColumn id="6" xr3:uid="{436DAC49-DFA3-4548-96B0-93A74968D14A}" name="Description"/>
+    <tableColumn id="7" xr3:uid="{BD8EAFCC-4454-471E-8AA6-751806D4F273}" name="Comment"/>
+    <tableColumn id="8" xr3:uid="{8175CDFF-E200-4075-A6D8-2DA5BD9AC448}" name="Meeting/Discussions"/>
+    <tableColumn id="9" xr3:uid="{ACA2F0D3-FCC7-491A-B96A-8056B84A6086}" name="Meeting Time"/>
+    <tableColumn id="10" xr3:uid="{B1EB932F-EABD-4C35-A39C-DB92DB0F04E7}" name="Meeting Duration in minute"/>
+    <tableColumn id="11" xr3:uid="{CF5CE94A-61A9-4CF5-91D8-34F1AD4744F0}" name="Language/Tool"/>
+    <tableColumn id="12" xr3:uid="{FCBAE760-D1A7-456B-918D-E03FA5FF8759}" name="Learning Topic"/>
+    <tableColumn id="13" xr3:uid="{C2F19AE6-ECF3-4D23-AEB3-F86DE30F6D91}" name="Topic Description" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{9603EFBE-A836-4F35-8A54-B0B85553666D}" name="Code Practice"/>
+    <tableColumn id="15" xr3:uid="{974AA095-9B88-44A4-96AC-2344B8A7DB99}" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11937,30 +12892,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA16314-1EBD-45FC-BE59-12C57F1884F2}">
   <dimension ref="A1:R366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="C305" sqref="C305"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" customWidth="1"/>
-    <col min="2" max="2" width="3.54296875" customWidth="1"/>
-    <col min="3" max="3" width="4.36328125" customWidth="1"/>
-    <col min="4" max="4" width="28.26953125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.1796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.26953125" style="3" customWidth="1"/>
     <col min="7" max="7" width="28.6328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.08984375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="3.81640625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="3.26953125" customWidth="1"/>
-    <col min="11" max="11" width="21.26953125" customWidth="1"/>
-    <col min="12" max="12" width="36.54296875" customWidth="1"/>
-    <col min="13" max="13" width="23.08984375" customWidth="1"/>
-    <col min="14" max="14" width="17.6328125" customWidth="1"/>
-    <col min="18" max="18" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="79.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="50.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="174" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>317</v>
       </c>
@@ -12091,7 +13047,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3817</v>
       </c>
@@ -12169,7 +13125,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3817</v>
       </c>
@@ -12201,7 +13157,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3835</v>
       </c>
@@ -12428,7 +13384,7 @@
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
     </row>
-    <row r="18" spans="1:15" ht="174" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3835</v>
       </c>
@@ -12543,7 +13499,7 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
     </row>
-    <row r="22" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3835</v>
       </c>
@@ -12767,7 +13723,7 @@
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
     </row>
-    <row r="30" spans="1:15" ht="145" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>4269</v>
       </c>
@@ -12953,7 +13909,7 @@
       </c>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="1:15" ht="232" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="116" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4282</v>
       </c>
@@ -13089,7 +14045,7 @@
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
     </row>
-    <row r="40" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>4287</v>
       </c>
@@ -13141,7 +14097,7 @@
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
     </row>
-    <row r="42" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D42" s="12">
         <v>43506</v>
       </c>
@@ -18529,7 +19485,7 @@
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B305" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="C305">
         <v>8</v>
@@ -18618,7 +19574,9 @@
       <c r="D310" s="12">
         <v>43774</v>
       </c>
-      <c r="E310"/>
+      <c r="E310" t="s">
+        <v>825</v>
+      </c>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
       <c r="K310" s="12"/>
@@ -18631,7 +19589,9 @@
       <c r="D311" s="12">
         <v>43775</v>
       </c>
-      <c r="E311"/>
+      <c r="E311" t="s">
+        <v>825</v>
+      </c>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
       <c r="K311" s="12"/>
@@ -18644,7 +19604,9 @@
       <c r="D312" s="12">
         <v>43776</v>
       </c>
-      <c r="E312"/>
+      <c r="E312" t="s">
+        <v>825</v>
+      </c>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
       <c r="K312" s="12"/>
@@ -18657,7 +19619,9 @@
       <c r="D313" s="12">
         <v>43777</v>
       </c>
-      <c r="E313"/>
+      <c r="E313" t="s">
+        <v>825</v>
+      </c>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
       <c r="K313" s="12"/>
@@ -18670,7 +19634,9 @@
       <c r="D314" s="12">
         <v>43778</v>
       </c>
-      <c r="E314"/>
+      <c r="E314" t="s">
+        <v>150</v>
+      </c>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
       <c r="K314" s="12"/>
@@ -18683,7 +19649,9 @@
       <c r="D315" s="12">
         <v>43779</v>
       </c>
-      <c r="E315"/>
+      <c r="E315" t="s">
+        <v>150</v>
+      </c>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
       <c r="K315" s="12"/>
@@ -18696,7 +19664,9 @@
       <c r="D316" s="12">
         <v>43780</v>
       </c>
-      <c r="E316"/>
+      <c r="E316" t="s">
+        <v>829</v>
+      </c>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
       <c r="K316" s="12"/>
@@ -18709,7 +19679,9 @@
       <c r="D317" s="12">
         <v>43781</v>
       </c>
-      <c r="E317"/>
+      <c r="E317" t="s">
+        <v>829</v>
+      </c>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
       <c r="K317" s="12"/>
@@ -18722,7 +19694,9 @@
       <c r="D318" s="12">
         <v>43782</v>
       </c>
-      <c r="E318"/>
+      <c r="E318" t="s">
+        <v>829</v>
+      </c>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
       <c r="K318" s="12"/>
@@ -18735,7 +19709,9 @@
       <c r="D319" s="12">
         <v>43783</v>
       </c>
-      <c r="E319"/>
+      <c r="E319" t="s">
+        <v>829</v>
+      </c>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
       <c r="K319" s="12"/>
@@ -18748,7 +19724,9 @@
       <c r="D320" s="12">
         <v>43784</v>
       </c>
-      <c r="E320"/>
+      <c r="E320" t="s">
+        <v>829</v>
+      </c>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
       <c r="K320" s="12"/>
@@ -18761,7 +19739,9 @@
       <c r="D321" s="12">
         <v>43785</v>
       </c>
-      <c r="E321"/>
+      <c r="E321" t="s">
+        <v>150</v>
+      </c>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
       <c r="K321" s="12"/>
@@ -18774,7 +19754,9 @@
       <c r="D322" s="12">
         <v>43786</v>
       </c>
-      <c r="E322"/>
+      <c r="E322" t="s">
+        <v>150</v>
+      </c>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
       <c r="K322" s="12"/>
@@ -18787,7 +19769,9 @@
       <c r="D323" s="12">
         <v>43787</v>
       </c>
-      <c r="E323"/>
+      <c r="E323" t="s">
+        <v>829</v>
+      </c>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
       <c r="K323" s="12"/>
@@ -18800,7 +19784,9 @@
       <c r="D324" s="12">
         <v>43788</v>
       </c>
-      <c r="E324"/>
+      <c r="E324" t="s">
+        <v>829</v>
+      </c>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
       <c r="K324" s="12"/>
@@ -18813,7 +19799,9 @@
       <c r="D325" s="12">
         <v>43789</v>
       </c>
-      <c r="E325"/>
+      <c r="E325" t="s">
+        <v>829</v>
+      </c>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
       <c r="K325" s="12"/>
@@ -18826,7 +19814,9 @@
       <c r="D326" s="12">
         <v>43790</v>
       </c>
-      <c r="E326"/>
+      <c r="E326" t="s">
+        <v>829</v>
+      </c>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
       <c r="K326" s="12"/>
@@ -18839,7 +19829,9 @@
       <c r="D327" s="12">
         <v>43791</v>
       </c>
-      <c r="E327"/>
+      <c r="E327" t="s">
+        <v>829</v>
+      </c>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
       <c r="K327" s="12"/>
@@ -18852,7 +19844,9 @@
       <c r="D328" s="12">
         <v>43792</v>
       </c>
-      <c r="E328"/>
+      <c r="E328" t="s">
+        <v>150</v>
+      </c>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
       <c r="K328" s="12"/>
@@ -18865,7 +19859,9 @@
       <c r="D329" s="12">
         <v>43793</v>
       </c>
-      <c r="E329"/>
+      <c r="E329" t="s">
+        <v>150</v>
+      </c>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
       <c r="K329" s="12"/>
@@ -18904,7 +19900,9 @@
       <c r="D332" s="12">
         <v>43796</v>
       </c>
-      <c r="E332"/>
+      <c r="E332" t="s">
+        <v>827</v>
+      </c>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
       <c r="K332" s="12"/>
@@ -18917,7 +19915,9 @@
       <c r="D333" s="12">
         <v>43797</v>
       </c>
-      <c r="E333"/>
+      <c r="E333" t="s">
+        <v>828</v>
+      </c>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
       <c r="K333" s="12"/>
@@ -18930,7 +19930,9 @@
       <c r="D334" s="12">
         <v>43798</v>
       </c>
-      <c r="E334"/>
+      <c r="E334" t="s">
+        <v>828</v>
+      </c>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
       <c r="K334" s="12"/>
@@ -18943,7 +19945,9 @@
       <c r="D335" s="12">
         <v>43799</v>
       </c>
-      <c r="E335"/>
+      <c r="E335" t="s">
+        <v>150</v>
+      </c>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
       <c r="K335" s="12"/>
@@ -18956,7 +19960,9 @@
       <c r="D336" s="12">
         <v>43800</v>
       </c>
-      <c r="E336"/>
+      <c r="E336" t="s">
+        <v>150</v>
+      </c>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
       <c r="K336" s="12"/>
@@ -18965,11 +19971,13 @@
       <c r="N336" s="12"/>
       <c r="O336" s="12"/>
     </row>
-    <row r="337" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D337" s="12">
         <v>43801</v>
       </c>
-      <c r="E337"/>
+      <c r="E337" t="s">
+        <v>830</v>
+      </c>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
       <c r="K337" s="12"/>
@@ -18978,24 +19986,39 @@
       <c r="N337" s="12"/>
       <c r="O337" s="12"/>
     </row>
-    <row r="338" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D338" s="12">
         <v>43802</v>
       </c>
-      <c r="E338"/>
+      <c r="E338" t="s">
+        <v>749</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>834</v>
+      </c>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
-      <c r="K338" s="12"/>
-      <c r="L338" s="12"/>
-      <c r="M338" s="12"/>
-      <c r="N338" s="12"/>
+      <c r="K338" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="L338" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="M338" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="N338" s="12" t="s">
+        <v>832</v>
+      </c>
       <c r="O338" s="12"/>
     </row>
-    <row r="339" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D339" s="12">
         <v>43803</v>
       </c>
-      <c r="E339"/>
+      <c r="E339" t="s">
+        <v>842</v>
+      </c>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
       <c r="K339" s="12"/>
@@ -19004,11 +20027,13 @@
       <c r="N339" s="12"/>
       <c r="O339" s="12"/>
     </row>
-    <row r="340" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D340" s="12">
         <v>43804</v>
       </c>
-      <c r="E340"/>
+      <c r="E340" t="s">
+        <v>842</v>
+      </c>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
       <c r="K340" s="12"/>
@@ -19017,11 +20042,16 @@
       <c r="N340" s="12"/>
       <c r="O340" s="12"/>
     </row>
-    <row r="341" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="D341" s="12">
         <v>43805</v>
       </c>
-      <c r="E341"/>
+      <c r="E341" t="s">
+        <v>842</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>843</v>
+      </c>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
       <c r="K341" s="12"/>
@@ -19030,11 +20060,13 @@
       <c r="N341" s="12"/>
       <c r="O341" s="12"/>
     </row>
-    <row r="342" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D342" s="12">
         <v>43806</v>
       </c>
-      <c r="E342"/>
+      <c r="E342" t="s">
+        <v>150</v>
+      </c>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
       <c r="K342" s="12"/>
@@ -19043,11 +20075,13 @@
       <c r="N342" s="12"/>
       <c r="O342" s="12"/>
     </row>
-    <row r="343" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D343" s="12">
         <v>43807</v>
       </c>
-      <c r="E343"/>
+      <c r="E343" t="s">
+        <v>150</v>
+      </c>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
       <c r="K343" s="12"/>
@@ -19056,11 +20090,16 @@
       <c r="N343" s="12"/>
       <c r="O343" s="12"/>
     </row>
-    <row r="344" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D344" s="12">
         <v>43808</v>
       </c>
-      <c r="E344"/>
+      <c r="E344" t="s">
+        <v>840</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>841</v>
+      </c>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
       <c r="K344" s="12"/>
@@ -19069,46 +20108,90 @@
       <c r="N344" s="12"/>
       <c r="O344" s="12"/>
     </row>
-    <row r="345" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A345" s="31" t="s">
+        <v>838</v>
+      </c>
+      <c r="B345" t="s">
+        <v>625</v>
+      </c>
+      <c r="C345">
+        <v>8</v>
+      </c>
       <c r="D345" s="12">
         <v>43809</v>
       </c>
-      <c r="E345"/>
+      <c r="E345" t="s">
+        <v>845</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>839</v>
+      </c>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
-      <c r="K345" s="12"/>
-      <c r="L345" s="12"/>
-      <c r="M345" s="12"/>
-      <c r="N345" s="12"/>
+      <c r="K345" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="L345" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="M345" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="N345" s="12" t="s">
+        <v>837</v>
+      </c>
       <c r="O345" s="12"/>
     </row>
-    <row r="346" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D346" s="12">
         <v>43810</v>
       </c>
-      <c r="E346"/>
+      <c r="E346" t="s">
+        <v>845</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>844</v>
+      </c>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
-      <c r="K346" s="12"/>
-      <c r="L346" s="12"/>
-      <c r="M346" s="12"/>
-      <c r="N346" s="12"/>
+      <c r="K346" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="L346" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="M346" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="N346" s="12" t="s">
+        <v>837</v>
+      </c>
       <c r="O346" s="12"/>
     </row>
-    <row r="347" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D347" s="12">
         <v>43811</v>
       </c>
-      <c r="E347"/>
+      <c r="E347" t="s">
+        <v>845</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>846</v>
+      </c>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
-      <c r="K347" s="12"/>
-      <c r="L347" s="12"/>
+      <c r="K347" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="L347" s="12" t="s">
+        <v>849</v>
+      </c>
       <c r="M347" s="12"/>
       <c r="N347" s="12"/>
       <c r="O347" s="12"/>
     </row>
-    <row r="348" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D348" s="12">
         <v>43812</v>
       </c>
@@ -19121,11 +20204,13 @@
       <c r="N348" s="12"/>
       <c r="O348" s="12"/>
     </row>
-    <row r="349" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D349" s="12">
         <v>43813</v>
       </c>
-      <c r="E349"/>
+      <c r="E349" t="s">
+        <v>150</v>
+      </c>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
       <c r="K349" s="12"/>
@@ -19134,11 +20219,13 @@
       <c r="N349" s="12"/>
       <c r="O349" s="12"/>
     </row>
-    <row r="350" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D350" s="12">
         <v>43814</v>
       </c>
-      <c r="E350"/>
+      <c r="E350" t="s">
+        <v>150</v>
+      </c>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
       <c r="K350" s="12"/>
@@ -19147,7 +20234,7 @@
       <c r="N350" s="12"/>
       <c r="O350" s="12"/>
     </row>
-    <row r="351" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D351" s="12">
         <v>43815</v>
       </c>
@@ -19160,7 +20247,7 @@
       <c r="N351" s="12"/>
       <c r="O351" s="12"/>
     </row>
-    <row r="352" spans="4:15" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D352" s="12">
         <v>43816</v>
       </c>
@@ -19190,7 +20277,9 @@
       <c r="D354" s="12">
         <v>43818</v>
       </c>
-      <c r="E354"/>
+      <c r="E354" t="s">
+        <v>851</v>
+      </c>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
       <c r="K354" s="12"/>
@@ -19203,7 +20292,9 @@
       <c r="D355" s="12">
         <v>43819</v>
       </c>
-      <c r="E355"/>
+      <c r="E355" t="s">
+        <v>851</v>
+      </c>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
       <c r="K355" s="12"/>
@@ -19216,12 +20307,20 @@
       <c r="D356" s="12">
         <v>43820</v>
       </c>
-      <c r="E356"/>
+      <c r="E356" t="s">
+        <v>150</v>
+      </c>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
-      <c r="K356" s="12"/>
-      <c r="L356" s="12"/>
-      <c r="M356" s="12"/>
+      <c r="K356" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="L356" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="M356" s="12" t="s">
+        <v>855</v>
+      </c>
       <c r="N356" s="12"/>
       <c r="O356" s="12"/>
     </row>
@@ -19229,12 +20328,20 @@
       <c r="D357" s="12">
         <v>43821</v>
       </c>
-      <c r="E357"/>
+      <c r="E357" t="s">
+        <v>150</v>
+      </c>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
-      <c r="K357" s="12"/>
-      <c r="L357" s="12"/>
-      <c r="M357" s="12"/>
+      <c r="K357" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="L357" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="M357" s="12" t="s">
+        <v>856</v>
+      </c>
       <c r="N357" s="12"/>
       <c r="O357" s="12"/>
     </row>
@@ -19242,7 +20349,9 @@
       <c r="D358" s="12">
         <v>43822</v>
       </c>
-      <c r="E358"/>
+      <c r="E358" t="s">
+        <v>850</v>
+      </c>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
       <c r="K358" s="12"/>
@@ -19255,25 +20364,41 @@
       <c r="D359" s="12">
         <v>43823</v>
       </c>
-      <c r="E359"/>
+      <c r="E359" t="s">
+        <v>850</v>
+      </c>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
-      <c r="K359" s="12"/>
-      <c r="L359" s="12"/>
+      <c r="K359" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="L359" s="12" t="s">
+        <v>857</v>
+      </c>
       <c r="M359" s="12"/>
       <c r="N359" s="12"/>
-      <c r="O359" s="12"/>
+      <c r="O359" s="12" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="360" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D360" s="12">
         <v>43824</v>
       </c>
-      <c r="E360"/>
+      <c r="E360" t="s">
+        <v>216</v>
+      </c>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
-      <c r="K360" s="12"/>
-      <c r="L360" s="12"/>
-      <c r="M360" s="12"/>
+      <c r="K360" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="L360" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="M360" s="12" t="s">
+        <v>854</v>
+      </c>
       <c r="N360" s="12"/>
       <c r="O360" s="12"/>
     </row>
@@ -19281,12 +20406,20 @@
       <c r="D361" s="12">
         <v>43825</v>
       </c>
-      <c r="E361"/>
+      <c r="E361" t="s">
+        <v>81</v>
+      </c>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
-      <c r="K361" s="12"/>
-      <c r="L361" s="12"/>
-      <c r="M361" s="12"/>
+      <c r="K361" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="L361" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="M361" s="12" t="s">
+        <v>853</v>
+      </c>
       <c r="N361" s="12"/>
       <c r="O361" s="12"/>
     </row>
@@ -19294,12 +20427,20 @@
       <c r="D362" s="12">
         <v>43826</v>
       </c>
-      <c r="E362"/>
+      <c r="E362" t="s">
+        <v>81</v>
+      </c>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
-      <c r="K362" s="12"/>
-      <c r="L362" s="12"/>
-      <c r="M362" s="12"/>
+      <c r="K362" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="L362" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="M362" s="12" t="s">
+        <v>853</v>
+      </c>
       <c r="N362" s="12"/>
       <c r="O362" s="12"/>
     </row>
@@ -19307,7 +20448,9 @@
       <c r="D363" s="12">
         <v>43827</v>
       </c>
-      <c r="E363"/>
+      <c r="E363" t="s">
+        <v>150</v>
+      </c>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
       <c r="K363" s="12"/>
@@ -19320,7 +20463,9 @@
       <c r="D364" s="12">
         <v>43828</v>
       </c>
-      <c r="E364"/>
+      <c r="E364" t="s">
+        <v>150</v>
+      </c>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
       <c r="K364" s="12"/>
@@ -19333,7 +20478,12 @@
       <c r="D365" s="12">
         <v>43829</v>
       </c>
-      <c r="E365"/>
+      <c r="E365" t="s">
+        <v>850</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>858</v>
+      </c>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
       <c r="K365" s="12"/>
@@ -19346,7 +20496,12 @@
       <c r="D366" s="12">
         <v>43830</v>
       </c>
-      <c r="E366"/>
+      <c r="E366" t="s">
+        <v>850</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>858</v>
+      </c>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
       <c r="K366" s="12"/>
@@ -19356,30 +20511,3768 @@
       <c r="O366" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H86:J86 A86:F86 B85:J85 A2:J84 A87:J108 G109:J109 A109:E109 H164:J164 F176:J176 A176:D176 A165:J175 A110:J163 K2:O366 A164:F164 A193:D193 A177:J192 A194:E194 G194:J194 F193:J193 A195:J366">
-    <cfRule type="expression" dxfId="13" priority="6">
+  <conditionalFormatting sqref="H86:J86 A86:F86 B85:J85 A2:J84 A87:J108 G109:J109 A109:E109 H164:J164 F176:J176 A176:D176 A165:J175 A110:J163 A164:F164 A193:D193 A177:J192 A194:E194 G194:J194 F193:J193 B345:J345 A195:J344 K2:O366 A346:J366">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>$D$2:$D$366="Saturday"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E193">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$D$2:$D$366="Saturday"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A345" r:id="rId1" display="https://jiradc2.int.net.nokia.com/browse/NNCSD-174" xr:uid="{D40AF6B3-C752-44AC-8629-22B61585C9BF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2387A283-1DD1-4A15-AB90-5E6C2A5D05CD}">
+  <dimension ref="A1:O367"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B127" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F136" sqref="F136"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="4.08984375" customWidth="1"/>
+    <col min="3" max="3" width="4.26953125" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" style="52" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" customWidth="1"/>
+    <col min="10" max="10" width="26.08984375" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" customWidth="1"/>
+    <col min="13" max="13" width="29.1796875" customWidth="1"/>
+    <col min="14" max="14" width="14.1796875" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>762</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>763</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>451</v>
+      </c>
+      <c r="O1" s="45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="38"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="50">
+        <v>43831</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="37"/>
+      <c r="B3" s="32" t="s">
+        <v>625</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="51">
+        <v>43832</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>859</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>860</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="46"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D4" s="50">
+        <v>43833</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>859</v>
+      </c>
+      <c r="F4" t="s">
+        <v>861</v>
+      </c>
+      <c r="G4" t="s">
+        <v>862</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D5" s="51">
+        <v>43834</v>
+      </c>
+      <c r="E5" t="s">
+        <v>150</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D6" s="50">
+        <v>43835</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D7" s="51">
+        <v>43836</v>
+      </c>
+      <c r="F7" t="s">
+        <v>863</v>
+      </c>
+      <c r="H7" t="s">
+        <v>867</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>868</v>
+      </c>
+      <c r="K7" t="s">
+        <v>864</v>
+      </c>
+      <c r="L7" t="s">
+        <v>865</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D8" s="50">
+        <v>43837</v>
+      </c>
+      <c r="E8" t="s">
+        <v>859</v>
+      </c>
+      <c r="K8" t="s">
+        <v>864</v>
+      </c>
+      <c r="L8" t="s">
+        <v>865</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="N8" t="s">
+        <v>832</v>
+      </c>
+      <c r="O8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="D9" s="51">
+        <v>43838</v>
+      </c>
+      <c r="E9" t="s">
+        <v>859</v>
+      </c>
+      <c r="K9" t="s">
+        <v>864</v>
+      </c>
+      <c r="L9" t="s">
+        <v>865</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D10" s="50">
+        <v>43839</v>
+      </c>
+      <c r="E10" t="s">
+        <v>870</v>
+      </c>
+      <c r="F10" t="s">
+        <v>871</v>
+      </c>
+      <c r="G10" t="s">
+        <v>872</v>
+      </c>
+      <c r="H10" t="s">
+        <v>873</v>
+      </c>
+      <c r="I10" t="s">
+        <v>874</v>
+      </c>
+      <c r="J10">
+        <v>90</v>
+      </c>
+      <c r="K10" t="s">
+        <v>864</v>
+      </c>
+      <c r="L10" t="s">
+        <v>865</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="116" x14ac:dyDescent="0.35">
+      <c r="D11" s="51">
+        <v>43840</v>
+      </c>
+      <c r="E11" t="s">
+        <v>876</v>
+      </c>
+      <c r="G11" t="s">
+        <v>878</v>
+      </c>
+      <c r="H11" t="s">
+        <v>877</v>
+      </c>
+      <c r="I11" t="s">
+        <v>874</v>
+      </c>
+      <c r="J11">
+        <v>90</v>
+      </c>
+      <c r="K11" t="s">
+        <v>864</v>
+      </c>
+      <c r="L11" t="s">
+        <v>865</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D12" s="50">
+        <v>43841</v>
+      </c>
+      <c r="E12" t="s">
+        <v>150</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D13" s="51">
+        <v>43842</v>
+      </c>
+      <c r="E13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>884</v>
+      </c>
+      <c r="B14" t="s">
+        <v>611</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" s="50">
+        <v>43843</v>
+      </c>
+      <c r="E14" t="s">
+        <v>880</v>
+      </c>
+      <c r="F14" t="s">
+        <v>881</v>
+      </c>
+      <c r="G14" t="s">
+        <v>882</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>611</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" s="51">
+        <v>43844</v>
+      </c>
+      <c r="E15" t="s">
+        <v>870</v>
+      </c>
+      <c r="F15" t="s">
+        <v>883</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D16" s="50">
+        <v>43845</v>
+      </c>
+      <c r="E16" t="s">
+        <v>216</v>
+      </c>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>884</v>
+      </c>
+      <c r="D17" s="51">
+        <v>43846</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>611</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18" s="50">
+        <v>43847</v>
+      </c>
+      <c r="E18" t="s">
+        <v>870</v>
+      </c>
+      <c r="F18" t="s">
+        <v>883</v>
+      </c>
+      <c r="K18" t="s">
+        <v>864</v>
+      </c>
+      <c r="L18" t="s">
+        <v>865</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D19" s="51">
+        <v>43848</v>
+      </c>
+      <c r="E19" t="s">
+        <v>150</v>
+      </c>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D20" s="50">
+        <v>43849</v>
+      </c>
+      <c r="E20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" t="s">
+        <v>889</v>
+      </c>
+      <c r="G20" t="s">
+        <v>890</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>611</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21" s="51">
+        <v>43850</v>
+      </c>
+      <c r="E21" t="s">
+        <v>893</v>
+      </c>
+      <c r="F21" t="s">
+        <v>883</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>611</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22" s="50">
+        <v>43851</v>
+      </c>
+      <c r="F22" t="s">
+        <v>892</v>
+      </c>
+      <c r="H22" t="s">
+        <v>887</v>
+      </c>
+      <c r="I22" t="s">
+        <v>874</v>
+      </c>
+      <c r="J22" t="s">
+        <v>888</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>611</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" s="51">
+        <v>43852</v>
+      </c>
+      <c r="E23" t="s">
+        <v>886</v>
+      </c>
+      <c r="F23" t="s">
+        <v>891</v>
+      </c>
+      <c r="H23" t="s">
+        <v>887</v>
+      </c>
+      <c r="I23" t="s">
+        <v>874</v>
+      </c>
+      <c r="J23" t="s">
+        <v>888</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D24" s="50">
+        <v>43853</v>
+      </c>
+      <c r="E24" t="s">
+        <v>897</v>
+      </c>
+      <c r="F24" t="s">
+        <v>898</v>
+      </c>
+      <c r="H24" t="s">
+        <v>899</v>
+      </c>
+      <c r="I24" t="s">
+        <v>900</v>
+      </c>
+      <c r="J24" t="s">
+        <v>901</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>611</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" s="51">
+        <v>43854</v>
+      </c>
+      <c r="E25" t="s">
+        <v>895</v>
+      </c>
+      <c r="F25" t="s">
+        <v>896</v>
+      </c>
+      <c r="K25" t="s">
+        <v>904</v>
+      </c>
+      <c r="L25" t="s">
+        <v>905</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D26" s="50">
+        <v>43855</v>
+      </c>
+      <c r="E26" t="s">
+        <v>150</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="D27" s="51">
+        <v>43856</v>
+      </c>
+      <c r="E27" t="s">
+        <v>150</v>
+      </c>
+      <c r="K27" t="s">
+        <v>902</v>
+      </c>
+      <c r="L27" t="s">
+        <v>903</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D28" s="50">
+        <v>43857</v>
+      </c>
+      <c r="E28" t="s">
+        <v>895</v>
+      </c>
+      <c r="F28" t="s">
+        <v>894</v>
+      </c>
+      <c r="H28" t="s">
+        <v>907</v>
+      </c>
+      <c r="I28" s="47" t="s">
+        <v>908</v>
+      </c>
+      <c r="J28" t="s">
+        <v>909</v>
+      </c>
+      <c r="K28" t="s">
+        <v>904</v>
+      </c>
+      <c r="L28" t="s">
+        <v>910</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>611</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29" s="51">
+        <v>43858</v>
+      </c>
+      <c r="E29" t="s">
+        <v>895</v>
+      </c>
+      <c r="F29" t="s">
+        <v>916</v>
+      </c>
+      <c r="G29" t="s">
+        <v>917</v>
+      </c>
+      <c r="H29" t="s">
+        <v>912</v>
+      </c>
+      <c r="I29" t="s">
+        <v>874</v>
+      </c>
+      <c r="J29" t="s">
+        <v>888</v>
+      </c>
+      <c r="K29" t="s">
+        <v>914</v>
+      </c>
+      <c r="L29" t="s">
+        <v>915</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>611</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30" s="50">
+        <v>43859</v>
+      </c>
+      <c r="E30" t="s">
+        <v>895</v>
+      </c>
+      <c r="F30" t="s">
+        <v>918</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>611</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31" s="51">
+        <v>43860</v>
+      </c>
+      <c r="E31" t="s">
+        <v>895</v>
+      </c>
+      <c r="F31" t="s">
+        <v>918</v>
+      </c>
+      <c r="G31" t="s">
+        <v>919</v>
+      </c>
+      <c r="K31" t="s">
+        <v>920</v>
+      </c>
+      <c r="L31" t="s">
+        <v>921</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>611</v>
+      </c>
+      <c r="C32" t="s">
+        <v>927</v>
+      </c>
+      <c r="D32" s="50">
+        <v>43861</v>
+      </c>
+      <c r="E32" t="s">
+        <v>895</v>
+      </c>
+      <c r="F32" t="s">
+        <v>923</v>
+      </c>
+      <c r="G32" t="s">
+        <v>919</v>
+      </c>
+      <c r="H32" t="s">
+        <v>922</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D33" s="51">
+        <v>43862</v>
+      </c>
+      <c r="E33" t="s">
+        <v>150</v>
+      </c>
+      <c r="K33" t="s">
+        <v>902</v>
+      </c>
+      <c r="L33" t="s">
+        <v>925</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D34" s="50">
+        <v>43863</v>
+      </c>
+      <c r="E34" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" t="s">
+        <v>902</v>
+      </c>
+      <c r="L34" t="s">
+        <v>924</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>625</v>
+      </c>
+      <c r="C35" t="s">
+        <v>928</v>
+      </c>
+      <c r="D35" s="51">
+        <v>43864</v>
+      </c>
+      <c r="E35" t="s">
+        <v>895</v>
+      </c>
+      <c r="F35" t="s">
+        <v>929</v>
+      </c>
+      <c r="G35" t="s">
+        <v>926</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>625</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36" s="50">
+        <v>43865</v>
+      </c>
+      <c r="E36" t="s">
+        <v>886</v>
+      </c>
+      <c r="F36" t="s">
+        <v>916</v>
+      </c>
+      <c r="G36" t="s">
+        <v>934</v>
+      </c>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>939</v>
+      </c>
+      <c r="B37" t="s">
+        <v>611</v>
+      </c>
+      <c r="C37" t="s">
+        <v>933</v>
+      </c>
+      <c r="D37" s="51">
+        <v>43866</v>
+      </c>
+      <c r="E37" t="s">
+        <v>886</v>
+      </c>
+      <c r="F37" t="s">
+        <v>932</v>
+      </c>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>939</v>
+      </c>
+      <c r="B38" t="s">
+        <v>611</v>
+      </c>
+      <c r="C38" t="s">
+        <v>935</v>
+      </c>
+      <c r="D38" s="50">
+        <v>43867</v>
+      </c>
+      <c r="E38" t="s">
+        <v>930</v>
+      </c>
+      <c r="F38" t="s">
+        <v>931</v>
+      </c>
+      <c r="G38" t="s">
+        <v>936</v>
+      </c>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>939</v>
+      </c>
+      <c r="B39" t="s">
+        <v>611</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39" s="51">
+        <v>43868</v>
+      </c>
+      <c r="E39" t="s">
+        <v>937</v>
+      </c>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D40" s="50">
+        <v>43869</v>
+      </c>
+      <c r="E40" t="s">
+        <v>150</v>
+      </c>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D41" s="51">
+        <v>43870</v>
+      </c>
+      <c r="E41" t="s">
+        <v>150</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>939</v>
+      </c>
+      <c r="B42" t="s">
+        <v>611</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42" s="50">
+        <v>43871</v>
+      </c>
+      <c r="E42" t="s">
+        <v>937</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>939</v>
+      </c>
+      <c r="B43" t="s">
+        <v>611</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43" s="51">
+        <v>43872</v>
+      </c>
+      <c r="E43" t="s">
+        <v>937</v>
+      </c>
+      <c r="F43" t="s">
+        <v>940</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>943</v>
+      </c>
+      <c r="B44" t="s">
+        <v>611</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44" s="50">
+        <v>43873</v>
+      </c>
+      <c r="E44" t="s">
+        <v>938</v>
+      </c>
+      <c r="F44" t="s">
+        <v>941</v>
+      </c>
+      <c r="G44" t="s">
+        <v>942</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>611</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45" s="51">
+        <v>43874</v>
+      </c>
+      <c r="E45" t="s">
+        <v>938</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>944</v>
+      </c>
+      <c r="B46" t="s">
+        <v>611</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46" s="50">
+        <v>43875</v>
+      </c>
+      <c r="E46" t="s">
+        <v>945</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>944</v>
+      </c>
+      <c r="B47" t="s">
+        <v>611</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47" s="51">
+        <v>43876</v>
+      </c>
+      <c r="E47" t="s">
+        <v>945</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D48" s="50">
+        <v>43877</v>
+      </c>
+      <c r="E48" t="s">
+        <v>150</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>946</v>
+      </c>
+      <c r="B49" t="s">
+        <v>625</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49" s="51">
+        <v>43878</v>
+      </c>
+      <c r="E49" t="s">
+        <v>947</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D50" s="50">
+        <v>43879</v>
+      </c>
+      <c r="E50" t="s">
+        <v>947</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D51" s="51">
+        <v>43880</v>
+      </c>
+      <c r="E51" t="s">
+        <v>947</v>
+      </c>
+      <c r="F51" t="s">
+        <v>952</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>953</v>
+      </c>
+      <c r="D52" s="50">
+        <v>43881</v>
+      </c>
+      <c r="E52" t="s">
+        <v>947</v>
+      </c>
+      <c r="F52" t="s">
+        <v>950</v>
+      </c>
+      <c r="G52" t="s">
+        <v>951</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D53" s="51">
+        <v>43882</v>
+      </c>
+      <c r="E53" t="s">
+        <v>216</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D54" s="50">
+        <v>43883</v>
+      </c>
+      <c r="E54" t="s">
+        <v>150</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D55" s="51">
+        <v>43884</v>
+      </c>
+      <c r="E55" t="s">
+        <v>150</v>
+      </c>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D56" s="50">
+        <v>43885</v>
+      </c>
+      <c r="E56" t="s">
+        <v>81</v>
+      </c>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D57" s="51">
+        <v>43886</v>
+      </c>
+      <c r="E57" t="s">
+        <v>947</v>
+      </c>
+      <c r="F57" t="s">
+        <v>948</v>
+      </c>
+      <c r="G57" t="s">
+        <v>949</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D58" s="50">
+        <v>43887</v>
+      </c>
+      <c r="E58" t="s">
+        <v>947</v>
+      </c>
+      <c r="F58" t="s">
+        <v>894</v>
+      </c>
+      <c r="K58" t="s">
+        <v>865</v>
+      </c>
+      <c r="L58" t="s">
+        <v>956</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="31" t="s">
+        <v>955</v>
+      </c>
+      <c r="B59" t="s">
+        <v>611</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59" s="51">
+        <v>43888</v>
+      </c>
+      <c r="E59" t="s">
+        <v>954</v>
+      </c>
+      <c r="K59" t="s">
+        <v>865</v>
+      </c>
+      <c r="L59" t="s">
+        <v>958</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A60" s="31" t="s">
+        <v>955</v>
+      </c>
+      <c r="D60" s="50">
+        <v>43889</v>
+      </c>
+      <c r="E60" t="s">
+        <v>954</v>
+      </c>
+      <c r="K60" t="s">
+        <v>960</v>
+      </c>
+      <c r="L60" t="s">
+        <v>961</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="1:13" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="D61" s="51">
+        <v>43890</v>
+      </c>
+      <c r="E61" t="s">
+        <v>150</v>
+      </c>
+      <c r="K61" t="s">
+        <v>865</v>
+      </c>
+      <c r="L61" t="s">
+        <v>962</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D62" s="50">
+        <v>43891</v>
+      </c>
+      <c r="E62" t="s">
+        <v>150</v>
+      </c>
+      <c r="K62" t="s">
+        <v>865</v>
+      </c>
+      <c r="L62" t="s">
+        <v>964</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="174" x14ac:dyDescent="0.35">
+      <c r="D63" s="51">
+        <v>43892</v>
+      </c>
+      <c r="K63" t="s">
+        <v>966</v>
+      </c>
+      <c r="L63" t="s">
+        <v>967</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D64" s="50">
+        <v>43893</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D65" s="51">
+        <v>43894</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D66" s="50">
+        <v>43895</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D67" s="51">
+        <v>43896</v>
+      </c>
+      <c r="E67" t="s">
+        <v>81</v>
+      </c>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D68" s="50">
+        <v>43897</v>
+      </c>
+      <c r="E68" t="s">
+        <v>150</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D69" s="51">
+        <v>43898</v>
+      </c>
+      <c r="E69" t="s">
+        <v>150</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D70" s="50">
+        <v>43899</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D71" s="51">
+        <v>43900</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D72" s="50">
+        <v>43901</v>
+      </c>
+      <c r="E72" t="s">
+        <v>974</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D73" s="51">
+        <v>43902</v>
+      </c>
+      <c r="E73" t="s">
+        <v>974</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D74" s="50">
+        <v>43903</v>
+      </c>
+      <c r="E74" t="s">
+        <v>973</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D75" s="51">
+        <v>43904</v>
+      </c>
+      <c r="E75" t="s">
+        <v>150</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D76" s="50">
+        <v>43905</v>
+      </c>
+      <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="K76" t="s">
+        <v>960</v>
+      </c>
+      <c r="L76" t="s">
+        <v>971</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D77" s="51">
+        <v>43906</v>
+      </c>
+      <c r="E77" t="s">
+        <v>969</v>
+      </c>
+      <c r="K77" t="s">
+        <v>864</v>
+      </c>
+      <c r="L77" t="s">
+        <v>970</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D78" s="50">
+        <v>43907</v>
+      </c>
+      <c r="E78" t="s">
+        <v>969</v>
+      </c>
+      <c r="K78" t="s">
+        <v>864</v>
+      </c>
+      <c r="L78" t="s">
+        <v>975</v>
+      </c>
+      <c r="M78" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D79" s="51">
+        <v>43908</v>
+      </c>
+      <c r="E79" t="s">
+        <v>976</v>
+      </c>
+      <c r="F79" t="s">
+        <v>977</v>
+      </c>
+      <c r="M79" s="3"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>611</v>
+      </c>
+      <c r="C80">
+        <v>8</v>
+      </c>
+      <c r="D80" s="50">
+        <v>43909</v>
+      </c>
+      <c r="F80" t="s">
+        <v>978</v>
+      </c>
+      <c r="M80" s="3"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>611</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81" s="51">
+        <v>43910</v>
+      </c>
+      <c r="F81" t="s">
+        <v>978</v>
+      </c>
+      <c r="G81" t="s">
+        <v>919</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D82" s="50">
+        <v>43911</v>
+      </c>
+      <c r="E82" t="s">
+        <v>150</v>
+      </c>
+      <c r="F82" t="s">
+        <v>979</v>
+      </c>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D83" s="51">
+        <v>43912</v>
+      </c>
+      <c r="E83" t="s">
+        <v>150</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>981</v>
+      </c>
+      <c r="B84" t="s">
+        <v>611</v>
+      </c>
+      <c r="C84">
+        <v>8</v>
+      </c>
+      <c r="D84" s="50">
+        <v>43913</v>
+      </c>
+      <c r="F84" t="s">
+        <v>980</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>981</v>
+      </c>
+      <c r="B85" t="s">
+        <v>611</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="D85" s="51">
+        <v>43914</v>
+      </c>
+      <c r="F85" t="s">
+        <v>983</v>
+      </c>
+      <c r="H85" t="s">
+        <v>982</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="D86" s="50">
+        <v>43915</v>
+      </c>
+      <c r="E86" t="s">
+        <v>216</v>
+      </c>
+      <c r="K86" t="s">
+        <v>361</v>
+      </c>
+      <c r="L86" t="s">
+        <v>971</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>611</v>
+      </c>
+      <c r="C87">
+        <v>8</v>
+      </c>
+      <c r="D87" s="51">
+        <v>43916</v>
+      </c>
+      <c r="F87" t="s">
+        <v>984</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>611</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="D88" s="50">
+        <v>43917</v>
+      </c>
+      <c r="F88" t="s">
+        <v>986</v>
+      </c>
+      <c r="G88" t="s">
+        <v>987</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D89" s="51">
+        <v>43918</v>
+      </c>
+      <c r="E89" t="s">
+        <v>150</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D90" s="50">
+        <v>43919</v>
+      </c>
+      <c r="E90" t="s">
+        <v>150</v>
+      </c>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D91" s="51">
+        <v>43920</v>
+      </c>
+      <c r="E91" t="s">
+        <v>458</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>611</v>
+      </c>
+      <c r="C92">
+        <v>8</v>
+      </c>
+      <c r="D92" s="50">
+        <v>43921</v>
+      </c>
+      <c r="E92" t="s">
+        <v>988</v>
+      </c>
+      <c r="F92" t="s">
+        <v>894</v>
+      </c>
+      <c r="G92" t="s">
+        <v>989</v>
+      </c>
+      <c r="H92" t="s">
+        <v>990</v>
+      </c>
+      <c r="I92" t="s">
+        <v>991</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
+        <v>611</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93" s="51">
+        <v>43922</v>
+      </c>
+      <c r="E93" t="s">
+        <v>992</v>
+      </c>
+      <c r="F93" t="s">
+        <v>993</v>
+      </c>
+      <c r="G93" t="s">
+        <v>996</v>
+      </c>
+      <c r="H93" t="s">
+        <v>995</v>
+      </c>
+      <c r="I93" t="s">
+        <v>994</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>611</v>
+      </c>
+      <c r="C94">
+        <v>8</v>
+      </c>
+      <c r="D94" s="50">
+        <v>43923</v>
+      </c>
+      <c r="E94" t="s">
+        <v>997</v>
+      </c>
+      <c r="F94" t="s">
+        <v>998</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>611</v>
+      </c>
+      <c r="C95">
+        <v>8</v>
+      </c>
+      <c r="D95" s="51">
+        <v>43924</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H95" t="s">
+        <v>999</v>
+      </c>
+      <c r="I95" t="s">
+        <v>994</v>
+      </c>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D96" s="50">
+        <v>43925</v>
+      </c>
+      <c r="E96" t="s">
+        <v>150</v>
+      </c>
+      <c r="K96" t="s">
+        <v>361</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D97" s="51">
+        <v>43926</v>
+      </c>
+      <c r="E97" t="s">
+        <v>150</v>
+      </c>
+      <c r="K97" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L97" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>611</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98" s="50">
+        <v>43927</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>611</v>
+      </c>
+      <c r="C99">
+        <v>8</v>
+      </c>
+      <c r="D99" s="51">
+        <v>43928</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>611</v>
+      </c>
+      <c r="C100">
+        <v>8</v>
+      </c>
+      <c r="D100" s="50">
+        <v>43929</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>611</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+      <c r="D101" s="51">
+        <v>43930</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J101" t="s">
+        <v>994</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D102" s="50">
+        <v>43931</v>
+      </c>
+      <c r="E102" t="s">
+        <v>216</v>
+      </c>
+      <c r="M102" s="3"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D103" s="51">
+        <v>43932</v>
+      </c>
+      <c r="E103" t="s">
+        <v>150</v>
+      </c>
+      <c r="M103" s="3"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D104" s="50">
+        <v>43933</v>
+      </c>
+      <c r="E104" t="s">
+        <v>150</v>
+      </c>
+      <c r="M104" s="3"/>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>611</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="D105" s="51">
+        <v>43934</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F105" t="s">
+        <v>896</v>
+      </c>
+      <c r="M105" s="3"/>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
+        <v>611</v>
+      </c>
+      <c r="C106">
+        <v>8</v>
+      </c>
+      <c r="D106" s="50">
+        <v>43935</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M106" s="3"/>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
+        <v>611</v>
+      </c>
+      <c r="C107">
+        <v>8</v>
+      </c>
+      <c r="D107" s="51">
+        <v>43936</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1025</v>
+      </c>
+      <c r="M107" s="3"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>611</v>
+      </c>
+      <c r="C108">
+        <v>8</v>
+      </c>
+      <c r="D108" s="50">
+        <v>43937</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M108" s="3"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
+        <v>611</v>
+      </c>
+      <c r="C109">
+        <v>8</v>
+      </c>
+      <c r="D109" s="51">
+        <v>43938</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M109" s="3"/>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D110" s="50">
+        <v>43939</v>
+      </c>
+      <c r="E110" t="s">
+        <v>150</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K110" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L110" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M110" s="3"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D111" s="51">
+        <v>43940</v>
+      </c>
+      <c r="E111" t="s">
+        <v>150</v>
+      </c>
+      <c r="M111" s="3"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B112" t="s">
+        <v>611</v>
+      </c>
+      <c r="C112">
+        <v>8</v>
+      </c>
+      <c r="D112" s="50">
+        <v>43941</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M112" s="3"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B113" t="s">
+        <v>611</v>
+      </c>
+      <c r="C113">
+        <v>8</v>
+      </c>
+      <c r="D113" s="51">
+        <v>43942</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1037</v>
+      </c>
+      <c r="M113" s="3"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B114" t="s">
+        <v>611</v>
+      </c>
+      <c r="C114">
+        <v>8</v>
+      </c>
+      <c r="D114" s="50">
+        <v>43943</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M114" s="3"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B115" t="s">
+        <v>611</v>
+      </c>
+      <c r="C115">
+        <v>8</v>
+      </c>
+      <c r="D115" s="51">
+        <v>43944</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K115" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L115" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M115" s="3"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B116" t="s">
+        <v>611</v>
+      </c>
+      <c r="C116">
+        <v>8</v>
+      </c>
+      <c r="D116" s="50">
+        <v>43945</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K116" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L116" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M116" s="3"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D117" s="51">
+        <v>43946</v>
+      </c>
+      <c r="E117" t="s">
+        <v>150</v>
+      </c>
+      <c r="K117" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L117" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M117" s="3"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D118" s="50">
+        <v>43947</v>
+      </c>
+      <c r="E118" t="s">
+        <v>150</v>
+      </c>
+      <c r="K118" t="s">
+        <v>902</v>
+      </c>
+      <c r="L118" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M118" s="3"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B119" t="s">
+        <v>611</v>
+      </c>
+      <c r="C119">
+        <v>8</v>
+      </c>
+      <c r="D119" s="51">
+        <v>43948</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1038</v>
+      </c>
+      <c r="M119" s="3"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>611</v>
+      </c>
+      <c r="C120">
+        <v>8</v>
+      </c>
+      <c r="D120" s="50">
+        <v>43949</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H120" t="s">
+        <v>887</v>
+      </c>
+      <c r="I120" t="s">
+        <v>994</v>
+      </c>
+      <c r="K120" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L120" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M120" s="3"/>
+    </row>
+    <row r="121" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A121" s="31" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B121" t="s">
+        <v>611</v>
+      </c>
+      <c r="C121">
+        <v>8</v>
+      </c>
+      <c r="D121" s="51">
+        <v>43950</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M121" s="3"/>
+    </row>
+    <row r="122" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A122" s="31" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B122" t="s">
+        <v>611</v>
+      </c>
+      <c r="C122">
+        <v>8</v>
+      </c>
+      <c r="D122" s="50">
+        <v>43951</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M122" s="3"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D123" s="51">
+        <v>43952</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M123" s="3"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D124" s="50">
+        <v>43953</v>
+      </c>
+      <c r="E124" t="s">
+        <v>150</v>
+      </c>
+      <c r="M124" s="3"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D125" s="51">
+        <v>43954</v>
+      </c>
+      <c r="E125" t="s">
+        <v>150</v>
+      </c>
+      <c r="M125" s="3"/>
+    </row>
+    <row r="126" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A126" s="31" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B126" t="s">
+        <v>611</v>
+      </c>
+      <c r="C126">
+        <v>8</v>
+      </c>
+      <c r="D126" s="50">
+        <v>43955</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F126" t="s">
+        <v>977</v>
+      </c>
+      <c r="M126" s="3"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
+        <v>611</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+      <c r="D127" s="51">
+        <v>43956</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M127" s="3"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B128" t="s">
+        <v>611</v>
+      </c>
+      <c r="C128">
+        <v>8</v>
+      </c>
+      <c r="D128" s="50">
+        <v>43957</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M128" s="3"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B129" t="s">
+        <v>789</v>
+      </c>
+      <c r="C129">
+        <v>8</v>
+      </c>
+      <c r="D129" s="51">
+        <v>43958</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M129" s="3"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B130" t="s">
+        <v>611</v>
+      </c>
+      <c r="C130">
+        <v>8</v>
+      </c>
+      <c r="D130" s="50">
+        <v>43959</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M130" s="3"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B131" t="s">
+        <v>611</v>
+      </c>
+      <c r="C131">
+        <v>8</v>
+      </c>
+      <c r="D131" s="51">
+        <v>43960</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M131" s="3"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D132" s="50">
+        <v>43961</v>
+      </c>
+      <c r="E132" t="s">
+        <v>150</v>
+      </c>
+      <c r="M132" s="3"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D133" s="51">
+        <v>43962</v>
+      </c>
+      <c r="E133" t="s">
+        <v>81</v>
+      </c>
+      <c r="M133" s="3"/>
+    </row>
+    <row r="134" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A134" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B134" t="s">
+        <v>611</v>
+      </c>
+      <c r="C134">
+        <v>8</v>
+      </c>
+      <c r="D134" s="50">
+        <v>43963</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M134" s="3"/>
+    </row>
+    <row r="135" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A135" s="31" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B135" t="s">
+        <v>611</v>
+      </c>
+      <c r="C135">
+        <v>8</v>
+      </c>
+      <c r="D135" s="51">
+        <v>43964</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M135" s="3"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D136" s="50">
+        <v>43965</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J136" t="s">
+        <v>994</v>
+      </c>
+      <c r="M136" s="3"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D137" s="51">
+        <v>43966</v>
+      </c>
+      <c r="M137" s="3"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D138" s="50">
+        <v>43967</v>
+      </c>
+      <c r="M138" s="3"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D139" s="51">
+        <v>43968</v>
+      </c>
+      <c r="M139" s="3"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D140" s="50">
+        <v>43969</v>
+      </c>
+      <c r="M140" s="3"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D141" s="51">
+        <v>43970</v>
+      </c>
+      <c r="M141" s="3"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D142" s="50">
+        <v>43971</v>
+      </c>
+      <c r="M142" s="3"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D143" s="51">
+        <v>43972</v>
+      </c>
+      <c r="M143" s="3"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D144" s="50">
+        <v>43973</v>
+      </c>
+      <c r="M144" s="3"/>
+    </row>
+    <row r="145" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D145" s="51">
+        <v>43974</v>
+      </c>
+      <c r="M145" s="3"/>
+    </row>
+    <row r="146" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D146" s="50">
+        <v>43975</v>
+      </c>
+      <c r="M146" s="3"/>
+    </row>
+    <row r="147" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D147" s="51">
+        <v>43976</v>
+      </c>
+      <c r="M147" s="3"/>
+    </row>
+    <row r="148" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D148" s="50">
+        <v>43977</v>
+      </c>
+      <c r="M148" s="3"/>
+    </row>
+    <row r="149" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D149" s="51">
+        <v>43978</v>
+      </c>
+      <c r="M149" s="3"/>
+    </row>
+    <row r="150" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D150" s="50">
+        <v>43979</v>
+      </c>
+      <c r="M150" s="3"/>
+    </row>
+    <row r="151" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D151" s="51">
+        <v>43980</v>
+      </c>
+      <c r="M151" s="3"/>
+    </row>
+    <row r="152" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D152" s="50">
+        <v>43981</v>
+      </c>
+      <c r="M152" s="3"/>
+    </row>
+    <row r="153" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D153" s="51">
+        <v>43982</v>
+      </c>
+      <c r="M153" s="3"/>
+    </row>
+    <row r="154" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D154" s="50">
+        <v>43983</v>
+      </c>
+      <c r="M154" s="3"/>
+    </row>
+    <row r="155" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D155" s="51">
+        <v>43984</v>
+      </c>
+      <c r="M155" s="3"/>
+    </row>
+    <row r="156" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D156" s="50">
+        <v>43985</v>
+      </c>
+      <c r="M156" s="3"/>
+    </row>
+    <row r="157" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D157" s="51">
+        <v>43986</v>
+      </c>
+      <c r="M157" s="3"/>
+    </row>
+    <row r="158" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D158" s="50">
+        <v>43987</v>
+      </c>
+      <c r="M158" s="3"/>
+    </row>
+    <row r="159" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D159" s="51">
+        <v>43988</v>
+      </c>
+      <c r="M159" s="3"/>
+    </row>
+    <row r="160" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D160" s="50">
+        <v>43989</v>
+      </c>
+      <c r="M160" s="3"/>
+    </row>
+    <row r="161" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D161" s="51">
+        <v>43990</v>
+      </c>
+      <c r="M161" s="3"/>
+    </row>
+    <row r="162" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D162" s="50">
+        <v>43991</v>
+      </c>
+      <c r="M162" s="3"/>
+    </row>
+    <row r="163" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D163" s="51">
+        <v>43992</v>
+      </c>
+      <c r="M163" s="3"/>
+    </row>
+    <row r="164" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D164" s="50">
+        <v>43993</v>
+      </c>
+      <c r="M164" s="3"/>
+    </row>
+    <row r="165" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D165" s="51">
+        <v>43994</v>
+      </c>
+      <c r="M165" s="3"/>
+    </row>
+    <row r="166" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D166" s="50">
+        <v>43995</v>
+      </c>
+      <c r="M166" s="3"/>
+    </row>
+    <row r="167" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D167" s="51">
+        <v>43996</v>
+      </c>
+      <c r="M167" s="3"/>
+    </row>
+    <row r="168" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D168" s="50">
+        <v>43997</v>
+      </c>
+      <c r="M168" s="3"/>
+    </row>
+    <row r="169" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D169" s="51">
+        <v>43998</v>
+      </c>
+      <c r="M169" s="3"/>
+    </row>
+    <row r="170" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D170" s="50">
+        <v>43999</v>
+      </c>
+      <c r="M170" s="3"/>
+    </row>
+    <row r="171" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D171" s="51">
+        <v>44000</v>
+      </c>
+      <c r="M171" s="3"/>
+    </row>
+    <row r="172" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D172" s="50">
+        <v>44001</v>
+      </c>
+      <c r="M172" s="3"/>
+    </row>
+    <row r="173" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D173" s="51">
+        <v>44002</v>
+      </c>
+      <c r="M173" s="3"/>
+    </row>
+    <row r="174" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D174" s="50">
+        <v>44003</v>
+      </c>
+      <c r="M174" s="3"/>
+    </row>
+    <row r="175" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D175" s="51">
+        <v>44004</v>
+      </c>
+      <c r="M175" s="3"/>
+    </row>
+    <row r="176" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D176" s="50">
+        <v>44005</v>
+      </c>
+      <c r="M176" s="3"/>
+    </row>
+    <row r="177" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D177" s="51">
+        <v>44006</v>
+      </c>
+      <c r="M177" s="3"/>
+    </row>
+    <row r="178" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D178" s="50">
+        <v>44007</v>
+      </c>
+      <c r="M178" s="3"/>
+    </row>
+    <row r="179" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D179" s="51">
+        <v>44008</v>
+      </c>
+      <c r="M179" s="3"/>
+    </row>
+    <row r="180" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D180" s="50">
+        <v>44009</v>
+      </c>
+      <c r="M180" s="3"/>
+    </row>
+    <row r="181" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D181" s="51">
+        <v>44010</v>
+      </c>
+      <c r="M181" s="3"/>
+    </row>
+    <row r="182" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D182" s="50">
+        <v>44011</v>
+      </c>
+      <c r="M182" s="3"/>
+    </row>
+    <row r="183" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D183" s="51">
+        <v>44012</v>
+      </c>
+      <c r="M183" s="3"/>
+    </row>
+    <row r="184" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D184" s="50">
+        <v>44013</v>
+      </c>
+      <c r="M184" s="3"/>
+    </row>
+    <row r="185" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D185" s="51">
+        <v>44014</v>
+      </c>
+      <c r="M185" s="3"/>
+    </row>
+    <row r="186" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D186" s="50">
+        <v>44015</v>
+      </c>
+      <c r="M186" s="3"/>
+    </row>
+    <row r="187" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D187" s="51">
+        <v>44016</v>
+      </c>
+      <c r="M187" s="3"/>
+    </row>
+    <row r="188" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D188" s="50">
+        <v>44017</v>
+      </c>
+      <c r="M188" s="3"/>
+    </row>
+    <row r="189" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D189" s="51">
+        <v>44018</v>
+      </c>
+      <c r="M189" s="3"/>
+    </row>
+    <row r="190" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D190" s="50">
+        <v>44019</v>
+      </c>
+      <c r="M190" s="3"/>
+    </row>
+    <row r="191" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D191" s="51">
+        <v>44020</v>
+      </c>
+      <c r="M191" s="3"/>
+    </row>
+    <row r="192" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D192" s="50">
+        <v>44021</v>
+      </c>
+      <c r="M192" s="3"/>
+    </row>
+    <row r="193" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D193" s="51">
+        <v>44022</v>
+      </c>
+      <c r="M193" s="3"/>
+    </row>
+    <row r="194" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D194" s="50">
+        <v>44023</v>
+      </c>
+      <c r="M194" s="3"/>
+    </row>
+    <row r="195" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D195" s="51">
+        <v>44024</v>
+      </c>
+      <c r="M195" s="3"/>
+    </row>
+    <row r="196" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D196" s="50">
+        <v>44025</v>
+      </c>
+      <c r="M196" s="3"/>
+    </row>
+    <row r="197" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D197" s="51">
+        <v>44026</v>
+      </c>
+      <c r="M197" s="3"/>
+    </row>
+    <row r="198" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D198" s="50">
+        <v>44027</v>
+      </c>
+      <c r="M198" s="3"/>
+    </row>
+    <row r="199" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D199" s="51">
+        <v>44028</v>
+      </c>
+      <c r="M199" s="3"/>
+    </row>
+    <row r="200" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D200" s="50">
+        <v>44029</v>
+      </c>
+      <c r="M200" s="3"/>
+    </row>
+    <row r="201" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D201" s="51">
+        <v>44030</v>
+      </c>
+      <c r="M201" s="3"/>
+    </row>
+    <row r="202" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D202" s="50">
+        <v>44031</v>
+      </c>
+      <c r="M202" s="3"/>
+    </row>
+    <row r="203" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D203" s="51">
+        <v>44032</v>
+      </c>
+      <c r="M203" s="3"/>
+    </row>
+    <row r="204" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D204" s="50">
+        <v>44033</v>
+      </c>
+      <c r="M204" s="3"/>
+    </row>
+    <row r="205" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D205" s="51">
+        <v>44034</v>
+      </c>
+      <c r="M205" s="3"/>
+    </row>
+    <row r="206" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D206" s="50">
+        <v>44035</v>
+      </c>
+      <c r="M206" s="3"/>
+    </row>
+    <row r="207" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D207" s="51">
+        <v>44036</v>
+      </c>
+      <c r="M207" s="3"/>
+    </row>
+    <row r="208" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D208" s="50">
+        <v>44037</v>
+      </c>
+      <c r="M208" s="3"/>
+    </row>
+    <row r="209" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D209" s="51">
+        <v>44038</v>
+      </c>
+      <c r="M209" s="3"/>
+    </row>
+    <row r="210" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D210" s="50">
+        <v>44039</v>
+      </c>
+      <c r="M210" s="3"/>
+    </row>
+    <row r="211" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D211" s="51">
+        <v>44040</v>
+      </c>
+      <c r="M211" s="3"/>
+    </row>
+    <row r="212" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D212" s="50">
+        <v>44041</v>
+      </c>
+      <c r="M212" s="3"/>
+    </row>
+    <row r="213" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D213" s="51">
+        <v>44042</v>
+      </c>
+      <c r="M213" s="3"/>
+    </row>
+    <row r="214" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D214" s="50">
+        <v>44043</v>
+      </c>
+      <c r="M214" s="3"/>
+    </row>
+    <row r="215" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D215" s="51">
+        <v>44044</v>
+      </c>
+      <c r="M215" s="3"/>
+    </row>
+    <row r="216" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D216" s="50">
+        <v>44045</v>
+      </c>
+      <c r="M216" s="3"/>
+    </row>
+    <row r="217" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D217" s="51">
+        <v>44046</v>
+      </c>
+      <c r="M217" s="3"/>
+    </row>
+    <row r="218" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D218" s="50">
+        <v>44047</v>
+      </c>
+      <c r="M218" s="3"/>
+    </row>
+    <row r="219" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D219" s="51">
+        <v>44048</v>
+      </c>
+      <c r="M219" s="3"/>
+    </row>
+    <row r="220" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D220" s="50">
+        <v>44049</v>
+      </c>
+      <c r="M220" s="3"/>
+    </row>
+    <row r="221" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D221" s="51">
+        <v>44050</v>
+      </c>
+      <c r="M221" s="3"/>
+    </row>
+    <row r="222" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D222" s="50">
+        <v>44051</v>
+      </c>
+      <c r="M222" s="3"/>
+    </row>
+    <row r="223" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D223" s="51">
+        <v>44052</v>
+      </c>
+      <c r="M223" s="3"/>
+    </row>
+    <row r="224" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D224" s="50">
+        <v>44053</v>
+      </c>
+      <c r="M224" s="3"/>
+    </row>
+    <row r="225" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D225" s="51">
+        <v>44054</v>
+      </c>
+      <c r="M225" s="3"/>
+    </row>
+    <row r="226" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D226" s="50">
+        <v>44055</v>
+      </c>
+      <c r="M226" s="3"/>
+    </row>
+    <row r="227" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D227" s="51">
+        <v>44056</v>
+      </c>
+      <c r="M227" s="3"/>
+    </row>
+    <row r="228" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D228" s="50">
+        <v>44057</v>
+      </c>
+      <c r="M228" s="3"/>
+    </row>
+    <row r="229" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D229" s="51">
+        <v>44058</v>
+      </c>
+      <c r="M229" s="3"/>
+    </row>
+    <row r="230" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D230" s="50">
+        <v>44059</v>
+      </c>
+      <c r="M230" s="3"/>
+    </row>
+    <row r="231" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D231" s="51">
+        <v>44060</v>
+      </c>
+      <c r="M231" s="3"/>
+    </row>
+    <row r="232" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D232" s="50">
+        <v>44061</v>
+      </c>
+      <c r="M232" s="3"/>
+    </row>
+    <row r="233" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D233" s="51">
+        <v>44062</v>
+      </c>
+      <c r="M233" s="3"/>
+    </row>
+    <row r="234" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D234" s="50">
+        <v>44063</v>
+      </c>
+      <c r="M234" s="3"/>
+    </row>
+    <row r="235" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D235" s="51">
+        <v>44064</v>
+      </c>
+      <c r="M235" s="3"/>
+    </row>
+    <row r="236" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D236" s="50">
+        <v>44065</v>
+      </c>
+      <c r="M236" s="3"/>
+    </row>
+    <row r="237" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D237" s="51">
+        <v>44066</v>
+      </c>
+      <c r="M237" s="3"/>
+    </row>
+    <row r="238" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D238" s="50">
+        <v>44067</v>
+      </c>
+      <c r="M238" s="3"/>
+    </row>
+    <row r="239" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D239" s="51">
+        <v>44068</v>
+      </c>
+      <c r="M239" s="3"/>
+    </row>
+    <row r="240" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D240" s="50">
+        <v>44069</v>
+      </c>
+      <c r="M240" s="3"/>
+    </row>
+    <row r="241" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D241" s="51">
+        <v>44070</v>
+      </c>
+      <c r="M241" s="3"/>
+    </row>
+    <row r="242" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D242" s="50">
+        <v>44071</v>
+      </c>
+      <c r="M242" s="3"/>
+    </row>
+    <row r="243" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D243" s="51">
+        <v>44072</v>
+      </c>
+      <c r="M243" s="3"/>
+    </row>
+    <row r="244" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D244" s="50">
+        <v>44073</v>
+      </c>
+      <c r="M244" s="3"/>
+    </row>
+    <row r="245" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D245" s="51">
+        <v>44074</v>
+      </c>
+      <c r="M245" s="3"/>
+    </row>
+    <row r="246" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D246" s="50">
+        <v>44075</v>
+      </c>
+      <c r="M246" s="3"/>
+    </row>
+    <row r="247" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D247" s="51">
+        <v>44076</v>
+      </c>
+      <c r="M247" s="3"/>
+    </row>
+    <row r="248" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D248" s="50">
+        <v>44077</v>
+      </c>
+      <c r="M248" s="3"/>
+    </row>
+    <row r="249" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D249" s="51">
+        <v>44078</v>
+      </c>
+      <c r="M249" s="3"/>
+    </row>
+    <row r="250" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D250" s="50">
+        <v>44079</v>
+      </c>
+      <c r="M250" s="3"/>
+    </row>
+    <row r="251" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D251" s="51">
+        <v>44080</v>
+      </c>
+      <c r="M251" s="3"/>
+    </row>
+    <row r="252" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D252" s="50">
+        <v>44081</v>
+      </c>
+      <c r="M252" s="3"/>
+    </row>
+    <row r="253" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D253" s="51">
+        <v>44082</v>
+      </c>
+      <c r="M253" s="3"/>
+    </row>
+    <row r="254" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D254" s="50">
+        <v>44083</v>
+      </c>
+      <c r="M254" s="3"/>
+    </row>
+    <row r="255" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D255" s="51">
+        <v>44084</v>
+      </c>
+      <c r="M255" s="3"/>
+    </row>
+    <row r="256" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D256" s="50">
+        <v>44085</v>
+      </c>
+      <c r="M256" s="3"/>
+    </row>
+    <row r="257" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D257" s="51">
+        <v>44086</v>
+      </c>
+      <c r="M257" s="3"/>
+    </row>
+    <row r="258" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D258" s="50">
+        <v>44087</v>
+      </c>
+      <c r="M258" s="3"/>
+    </row>
+    <row r="259" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D259" s="51">
+        <v>44088</v>
+      </c>
+      <c r="M259" s="3"/>
+    </row>
+    <row r="260" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D260" s="50">
+        <v>44089</v>
+      </c>
+      <c r="M260" s="3"/>
+    </row>
+    <row r="261" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D261" s="51">
+        <v>44090</v>
+      </c>
+      <c r="M261" s="3"/>
+    </row>
+    <row r="262" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D262" s="50">
+        <v>44091</v>
+      </c>
+      <c r="M262" s="3"/>
+    </row>
+    <row r="263" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D263" s="51">
+        <v>44092</v>
+      </c>
+      <c r="M263" s="3"/>
+    </row>
+    <row r="264" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D264" s="50">
+        <v>44093</v>
+      </c>
+      <c r="M264" s="3"/>
+    </row>
+    <row r="265" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D265" s="51">
+        <v>44094</v>
+      </c>
+      <c r="M265" s="3"/>
+    </row>
+    <row r="266" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D266" s="50">
+        <v>44095</v>
+      </c>
+      <c r="M266" s="3"/>
+    </row>
+    <row r="267" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D267" s="51">
+        <v>44096</v>
+      </c>
+      <c r="M267" s="3"/>
+    </row>
+    <row r="268" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D268" s="50">
+        <v>44097</v>
+      </c>
+      <c r="M268" s="3"/>
+    </row>
+    <row r="269" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D269" s="51">
+        <v>44098</v>
+      </c>
+      <c r="M269" s="3"/>
+    </row>
+    <row r="270" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D270" s="50">
+        <v>44099</v>
+      </c>
+      <c r="M270" s="3"/>
+    </row>
+    <row r="271" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D271" s="51">
+        <v>44100</v>
+      </c>
+      <c r="M271" s="3"/>
+    </row>
+    <row r="272" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D272" s="50">
+        <v>44101</v>
+      </c>
+      <c r="M272" s="3"/>
+    </row>
+    <row r="273" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D273" s="51">
+        <v>44102</v>
+      </c>
+      <c r="M273" s="3"/>
+    </row>
+    <row r="274" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D274" s="50">
+        <v>44103</v>
+      </c>
+      <c r="M274" s="3"/>
+    </row>
+    <row r="275" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D275" s="51">
+        <v>44104</v>
+      </c>
+      <c r="M275" s="3"/>
+    </row>
+    <row r="276" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D276" s="50">
+        <v>44105</v>
+      </c>
+      <c r="M276" s="3"/>
+    </row>
+    <row r="277" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D277" s="51">
+        <v>44106</v>
+      </c>
+      <c r="M277" s="3"/>
+    </row>
+    <row r="278" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D278" s="50">
+        <v>44107</v>
+      </c>
+      <c r="M278" s="3"/>
+    </row>
+    <row r="279" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D279" s="51">
+        <v>44108</v>
+      </c>
+      <c r="M279" s="3"/>
+    </row>
+    <row r="280" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D280" s="50">
+        <v>44109</v>
+      </c>
+      <c r="M280" s="3"/>
+    </row>
+    <row r="281" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D281" s="51">
+        <v>44110</v>
+      </c>
+      <c r="M281" s="3"/>
+    </row>
+    <row r="282" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D282" s="50">
+        <v>44111</v>
+      </c>
+      <c r="M282" s="3"/>
+    </row>
+    <row r="283" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D283" s="51">
+        <v>44112</v>
+      </c>
+      <c r="M283" s="3"/>
+    </row>
+    <row r="284" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D284" s="50">
+        <v>44113</v>
+      </c>
+      <c r="M284" s="3"/>
+    </row>
+    <row r="285" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D285" s="51">
+        <v>44114</v>
+      </c>
+      <c r="M285" s="3"/>
+    </row>
+    <row r="286" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D286" s="50">
+        <v>44115</v>
+      </c>
+      <c r="M286" s="3"/>
+    </row>
+    <row r="287" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D287" s="51">
+        <v>44116</v>
+      </c>
+      <c r="M287" s="3"/>
+    </row>
+    <row r="288" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D288" s="50">
+        <v>44117</v>
+      </c>
+      <c r="M288" s="3"/>
+    </row>
+    <row r="289" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D289" s="51">
+        <v>44118</v>
+      </c>
+      <c r="M289" s="3"/>
+    </row>
+    <row r="290" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D290" s="50">
+        <v>44119</v>
+      </c>
+      <c r="M290" s="3"/>
+    </row>
+    <row r="291" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D291" s="51">
+        <v>44120</v>
+      </c>
+      <c r="M291" s="3"/>
+    </row>
+    <row r="292" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D292" s="50">
+        <v>44121</v>
+      </c>
+      <c r="M292" s="3"/>
+    </row>
+    <row r="293" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D293" s="51">
+        <v>44122</v>
+      </c>
+      <c r="M293" s="3"/>
+    </row>
+    <row r="294" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D294" s="50">
+        <v>44123</v>
+      </c>
+      <c r="M294" s="3"/>
+    </row>
+    <row r="295" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D295" s="51">
+        <v>44124</v>
+      </c>
+      <c r="M295" s="3"/>
+    </row>
+    <row r="296" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D296" s="50">
+        <v>44125</v>
+      </c>
+      <c r="M296" s="3"/>
+    </row>
+    <row r="297" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D297" s="51">
+        <v>44126</v>
+      </c>
+      <c r="M297" s="3"/>
+    </row>
+    <row r="298" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D298" s="50">
+        <v>44127</v>
+      </c>
+      <c r="M298" s="3"/>
+    </row>
+    <row r="299" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D299" s="51">
+        <v>44128</v>
+      </c>
+      <c r="M299" s="3"/>
+    </row>
+    <row r="300" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D300" s="50">
+        <v>44129</v>
+      </c>
+      <c r="M300" s="3"/>
+    </row>
+    <row r="301" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D301" s="51">
+        <v>44130</v>
+      </c>
+      <c r="M301" s="3"/>
+    </row>
+    <row r="302" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D302" s="50">
+        <v>44131</v>
+      </c>
+      <c r="M302" s="3"/>
+    </row>
+    <row r="303" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D303" s="51">
+        <v>44132</v>
+      </c>
+      <c r="M303" s="3"/>
+    </row>
+    <row r="304" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D304" s="50">
+        <v>44133</v>
+      </c>
+      <c r="M304" s="3"/>
+    </row>
+    <row r="305" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D305" s="51">
+        <v>44134</v>
+      </c>
+      <c r="M305" s="3"/>
+    </row>
+    <row r="306" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D306" s="50">
+        <v>44135</v>
+      </c>
+      <c r="M306" s="3"/>
+    </row>
+    <row r="307" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D307" s="51">
+        <v>44136</v>
+      </c>
+      <c r="M307" s="3"/>
+    </row>
+    <row r="308" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D308" s="50">
+        <v>44137</v>
+      </c>
+      <c r="M308" s="3"/>
+    </row>
+    <row r="309" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D309" s="51">
+        <v>44138</v>
+      </c>
+      <c r="M309" s="3"/>
+    </row>
+    <row r="310" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D310" s="50">
+        <v>44139</v>
+      </c>
+      <c r="M310" s="3"/>
+    </row>
+    <row r="311" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D311" s="51">
+        <v>44140</v>
+      </c>
+      <c r="M311" s="3"/>
+    </row>
+    <row r="312" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D312" s="50">
+        <v>44141</v>
+      </c>
+      <c r="M312" s="3"/>
+    </row>
+    <row r="313" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D313" s="51">
+        <v>44142</v>
+      </c>
+      <c r="M313" s="3"/>
+    </row>
+    <row r="314" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D314" s="50">
+        <v>44143</v>
+      </c>
+      <c r="M314" s="3"/>
+    </row>
+    <row r="315" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D315" s="51">
+        <v>44144</v>
+      </c>
+      <c r="M315" s="3"/>
+    </row>
+    <row r="316" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D316" s="50">
+        <v>44145</v>
+      </c>
+      <c r="M316" s="3"/>
+    </row>
+    <row r="317" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D317" s="51">
+        <v>44146</v>
+      </c>
+      <c r="M317" s="3"/>
+    </row>
+    <row r="318" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D318" s="50">
+        <v>44147</v>
+      </c>
+      <c r="M318" s="3"/>
+    </row>
+    <row r="319" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D319" s="51">
+        <v>44148</v>
+      </c>
+      <c r="M319" s="3"/>
+    </row>
+    <row r="320" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D320" s="50">
+        <v>44149</v>
+      </c>
+      <c r="M320" s="3"/>
+    </row>
+    <row r="321" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D321" s="51">
+        <v>44150</v>
+      </c>
+      <c r="M321" s="3"/>
+    </row>
+    <row r="322" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D322" s="50">
+        <v>44151</v>
+      </c>
+      <c r="M322" s="3"/>
+    </row>
+    <row r="323" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D323" s="51">
+        <v>44152</v>
+      </c>
+      <c r="M323" s="3"/>
+    </row>
+    <row r="324" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D324" s="50">
+        <v>44153</v>
+      </c>
+      <c r="M324" s="3"/>
+    </row>
+    <row r="325" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D325" s="51">
+        <v>44154</v>
+      </c>
+      <c r="M325" s="3"/>
+    </row>
+    <row r="326" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D326" s="50">
+        <v>44155</v>
+      </c>
+      <c r="M326" s="3"/>
+    </row>
+    <row r="327" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D327" s="51">
+        <v>44156</v>
+      </c>
+      <c r="M327" s="3"/>
+    </row>
+    <row r="328" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D328" s="50">
+        <v>44157</v>
+      </c>
+      <c r="M328" s="3"/>
+    </row>
+    <row r="329" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D329" s="51">
+        <v>44158</v>
+      </c>
+      <c r="M329" s="3"/>
+    </row>
+    <row r="330" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D330" s="50">
+        <v>44159</v>
+      </c>
+      <c r="M330" s="3"/>
+    </row>
+    <row r="331" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D331" s="51">
+        <v>44160</v>
+      </c>
+      <c r="M331" s="3"/>
+    </row>
+    <row r="332" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D332" s="50">
+        <v>44161</v>
+      </c>
+      <c r="M332" s="3"/>
+    </row>
+    <row r="333" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D333" s="51">
+        <v>44162</v>
+      </c>
+      <c r="M333" s="3"/>
+    </row>
+    <row r="334" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D334" s="50">
+        <v>44163</v>
+      </c>
+      <c r="M334" s="3"/>
+    </row>
+    <row r="335" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D335" s="51">
+        <v>44164</v>
+      </c>
+      <c r="M335" s="3"/>
+    </row>
+    <row r="336" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D336" s="50">
+        <v>44165</v>
+      </c>
+      <c r="M336" s="3"/>
+    </row>
+    <row r="337" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D337" s="51">
+        <v>44166</v>
+      </c>
+      <c r="M337" s="3"/>
+    </row>
+    <row r="338" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D338" s="50">
+        <v>44167</v>
+      </c>
+      <c r="M338" s="3"/>
+    </row>
+    <row r="339" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D339" s="51">
+        <v>44168</v>
+      </c>
+      <c r="M339" s="3"/>
+    </row>
+    <row r="340" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D340" s="50">
+        <v>44169</v>
+      </c>
+      <c r="M340" s="3"/>
+    </row>
+    <row r="341" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D341" s="51">
+        <v>44170</v>
+      </c>
+      <c r="M341" s="3"/>
+    </row>
+    <row r="342" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D342" s="50">
+        <v>44171</v>
+      </c>
+      <c r="M342" s="3"/>
+    </row>
+    <row r="343" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D343" s="51">
+        <v>44172</v>
+      </c>
+      <c r="M343" s="3"/>
+    </row>
+    <row r="344" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D344" s="50">
+        <v>44173</v>
+      </c>
+      <c r="M344" s="3"/>
+    </row>
+    <row r="345" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D345" s="51">
+        <v>44174</v>
+      </c>
+      <c r="M345" s="3"/>
+    </row>
+    <row r="346" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D346" s="50">
+        <v>44175</v>
+      </c>
+      <c r="M346" s="3"/>
+    </row>
+    <row r="347" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D347" s="51">
+        <v>44176</v>
+      </c>
+      <c r="M347" s="3"/>
+    </row>
+    <row r="348" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D348" s="50">
+        <v>44177</v>
+      </c>
+      <c r="M348" s="3"/>
+    </row>
+    <row r="349" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D349" s="51">
+        <v>44178</v>
+      </c>
+      <c r="M349" s="3"/>
+    </row>
+    <row r="350" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D350" s="50">
+        <v>44179</v>
+      </c>
+      <c r="M350" s="3"/>
+    </row>
+    <row r="351" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D351" s="51">
+        <v>44180</v>
+      </c>
+      <c r="M351" s="3"/>
+    </row>
+    <row r="352" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D352" s="50">
+        <v>44181</v>
+      </c>
+      <c r="M352" s="3"/>
+    </row>
+    <row r="353" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D353" s="51">
+        <v>44182</v>
+      </c>
+      <c r="M353" s="3"/>
+    </row>
+    <row r="354" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D354" s="50">
+        <v>44183</v>
+      </c>
+      <c r="M354" s="3"/>
+    </row>
+    <row r="355" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D355" s="51">
+        <v>44184</v>
+      </c>
+      <c r="M355" s="3"/>
+    </row>
+    <row r="356" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D356" s="50">
+        <v>44185</v>
+      </c>
+      <c r="M356" s="3"/>
+    </row>
+    <row r="357" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D357" s="51">
+        <v>44186</v>
+      </c>
+      <c r="M357" s="3"/>
+    </row>
+    <row r="358" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D358" s="50">
+        <v>44187</v>
+      </c>
+      <c r="M358" s="3"/>
+    </row>
+    <row r="359" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D359" s="51">
+        <v>44188</v>
+      </c>
+      <c r="M359" s="3"/>
+    </row>
+    <row r="360" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D360" s="50">
+        <v>44189</v>
+      </c>
+      <c r="M360" s="3"/>
+    </row>
+    <row r="361" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D361" s="51">
+        <v>44190</v>
+      </c>
+      <c r="M361" s="3"/>
+    </row>
+    <row r="362" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D362" s="50">
+        <v>44191</v>
+      </c>
+      <c r="M362" s="3"/>
+    </row>
+    <row r="363" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D363" s="51">
+        <v>44192</v>
+      </c>
+      <c r="M363" s="3"/>
+    </row>
+    <row r="364" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D364" s="50">
+        <v>44193</v>
+      </c>
+      <c r="M364" s="3"/>
+    </row>
+    <row r="365" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D365" s="51">
+        <v>44194</v>
+      </c>
+      <c r="M365" s="3"/>
+    </row>
+    <row r="366" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D366" s="50">
+        <v>44195</v>
+      </c>
+      <c r="M366" s="3"/>
+    </row>
+    <row r="367" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D367" s="51">
+        <v>44196</v>
+      </c>
+      <c r="M367" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:O3 D4:D367">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$D$2:$D$366="Saturday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$D$2:$D$366="Saturday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A59" r:id="rId1" display="https://jiradc2.int.net.nokia.com/browse/NNCSD-2790" xr:uid="{DADFCFF0-6DDB-4D7B-93C5-1B34533C54A6}"/>
+    <hyperlink ref="A60" r:id="rId2" display="https://jiradc2.int.net.nokia.com/browse/NNCSD-2790" xr:uid="{C805A9FD-CD41-4798-942A-AF868901490D}"/>
+    <hyperlink ref="A126" r:id="rId3" display="https://jiradc2.ext.net.nokia.com/browse/NNCSD-3574" xr:uid="{BB270138-8D7B-4143-AA54-E0F2B19E6F32}"/>
+    <hyperlink ref="A121" r:id="rId4" display="https://jiradc2.ext.net.nokia.com/browse/SATURN-617" xr:uid="{EA94018C-9978-4AB6-8ACE-FA0C0E7D97C7}"/>
+    <hyperlink ref="A122" r:id="rId5" display="https://jiradc2.ext.net.nokia.com/browse/SATURN-617" xr:uid="{7F6B6D7A-FAE3-479A-8211-923AC800D44F}"/>
+    <hyperlink ref="A134" r:id="rId6" display="https://jiradc2.ext.net.nokia.com/browse/SATURN-612" xr:uid="{93A282C5-FEBC-4A2B-9D21-06F88D6D10A2}"/>
+    <hyperlink ref="A135" r:id="rId7" display="https://jiradc2.ext.net.nokia.com/browse/SATURN-612" xr:uid="{2C545325-3F6B-48C3-8A00-B06D037EF97A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <tableParts count="1">
+    <tablePart r:id="rId9"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FC887F-8E9D-4AF0-BE32-21959CBDE91E}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19535,12 +24428,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>397</v>
       </c>
@@ -19548,60 +24441,63 @@
         <v>398</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>405</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>410</v>
       </c>
@@ -19609,87 +24505,90 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="C34" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B39" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B40" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B41" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B42" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B43" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B44" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B46" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>428</v>
       </c>
